--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C842E-11BD-41D4-A927-BF4F97C4E7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81C5EA5-A62B-4068-BFD1-A7F7A6256863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3450" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3">
@@ -715,7 +715,7 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3">
@@ -778,7 +778,7 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
@@ -841,7 +841,7 @@
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3">
@@ -904,7 +904,7 @@
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3">

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81C5EA5-A62B-4068-BFD1-A7F7A6256863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FE6D0-D3CD-4C2C-9E39-22993718D799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="3000" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>desc</t>
   </si>
@@ -155,15 +155,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;さくさくしたお菓子&lt;/color&gt;が食べたいなぁ。でも、ラスクという気分じゃあないな。</t>
+    <t>&lt;color=#FF78B4&gt;さくさくしたお菓子&lt;/color&gt;が食べたいなぁ</t>
     <rPh sb="22" eb="24">
       <t>カシ</t>
     </rPh>
     <rPh sb="33" eb="34">
       <t>タ</t>
     </rPh>
-    <rPh sb="49" eb="51">
-      <t>キブン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;コクのあるクッキー&lt;/color&gt;が食べたいなぁ</t>
+    <rPh sb="33" eb="34">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -558,12 +566,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -643,7 +651,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A6" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -773,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -827,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -836,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -890,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -899,60 +907,123 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FE6D0-D3CD-4C2C-9E39-22993718D799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985A9CF-DAE9-463C-B94D-FF8932D6CE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="3000" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985A9CF-DAE9-463C-B94D-FF8932D6CE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BEED20-586D-4361-953D-62584B1C8DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>desc</t>
   </si>
@@ -171,6 +171,17 @@
   <si>
     <t>&lt;color=#FF78B4&gt;コクのあるクッキー&lt;/color&gt;が食べたいなぁ</t>
     <rPh sb="33" eb="34">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;オレンジのねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="35" eb="36">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -566,12 +577,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -651,7 +662,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -847,10 +858,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -883,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>7</v>
@@ -898,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,10 +918,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -961,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,60 +981,123 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BEED20-586D-4361-953D-62584B1C8DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642026ED-8A53-49B7-8401-84D594561CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>desc</t>
   </si>
@@ -182,6 +182,16 @@
   <si>
     <t>&lt;color=#FF78B4&gt;オレンジのねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
     <rPh sb="35" eb="36">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃんの&lt;color=#FF78B4&gt;オリジナル&lt;/color&gt;のクッキーを食べさせて！</t>
+    <rPh sb="1" eb="2">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -577,12 +587,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -662,7 +672,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -981,13 +991,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1035,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,60 +1054,123 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642026ED-8A53-49B7-8401-84D594561CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510D911-96FC-4CEB-8009-A2DC797B8523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -592,7 +594,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,16 +687,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -748,16 +750,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3">
         <v>20</v>
@@ -814,13 +816,13 @@
         <v>30</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>31</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -937,16 +939,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1000,16 +1002,16 @@
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1126,16 +1128,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1177,6 +1179,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510D911-96FC-4CEB-8009-A2DC797B8523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653368F-0720-405F-A9A8-B6EF783645E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="3045" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>desc</t>
   </si>
@@ -179,13 +179,6 @@
   </si>
   <si>
     <t>Orange</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;オレンジのねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="35" eb="36">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -594,7 +587,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,10 +686,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -756,10 +749,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3">
         <v>20</v>
@@ -813,16 +806,16 @@
         <v>31</v>
       </c>
       <c r="E4" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3">
         <v>30</v>
       </c>
       <c r="G4" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -882,10 +875,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -921,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -945,10 +938,10 @@
         <v>30</v>
       </c>
       <c r="G6" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1008,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1047,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1071,10 +1064,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1134,10 +1127,10 @@
         <v>30</v>
       </c>
       <c r="G9" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653368F-0720-405F-A9A8-B6EF783645E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9FD24-C895-48D8-89F9-B57698254F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="3045" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>desc</t>
   </si>
@@ -189,6 +189,14 @@
     <rPh sb="40" eb="41">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Grape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>set_score</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -582,12 +590,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,14 +604,15 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="60.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -617,57 +626,60 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -680,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>30</v>
@@ -692,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -709,11 +721,11 @@
       <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>7</v>
+      <c r="O2" s="3">
+        <v>0</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>13</v>
@@ -724,11 +736,14 @@
       <c r="S2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -743,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>30</v>
@@ -755,11 +770,11 @@
         <v>30</v>
       </c>
       <c r="I3" s="3">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3">
         <v>20</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
@@ -772,8 +787,8 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>7</v>
+      <c r="O3" s="3">
+        <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>7</v>
@@ -787,11 +802,14 @@
       <c r="S3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -806,11 +824,11 @@
         <v>31</v>
       </c>
       <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
         <v>60</v>
       </c>
-      <c r="F4" s="3">
-        <v>30</v>
-      </c>
       <c r="G4" s="3">
         <v>30</v>
       </c>
@@ -818,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -835,8 +853,8 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>7</v>
+      <c r="O4" s="3">
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>7</v>
@@ -850,11 +868,14 @@
       <c r="S4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -869,7 +890,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -881,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -898,12 +919,12 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
       </c>
@@ -913,11 +934,14 @@
       <c r="S5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -932,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3">
         <v>30</v>
@@ -944,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -961,8 +985,8 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>7</v>
+      <c r="O6" s="3">
+        <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>7</v>
@@ -976,11 +1000,14 @@
       <c r="S6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -998,16 +1025,16 @@
         <v>30</v>
       </c>
       <c r="F7" s="3">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
         <v>50</v>
       </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
       <c r="H7" s="3">
         <v>30</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -1024,8 +1051,8 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>7</v>
+      <c r="O7" s="3">
+        <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>7</v>
@@ -1039,11 +1066,14 @@
       <c r="S7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1058,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <v>30</v>
@@ -1070,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1087,8 +1117,8 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>7</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>7</v>
@@ -1102,70 +1132,142 @@
       <c r="S8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9FD24-C895-48D8-89F9-B57698254F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B39F7D-746E-4469-9365-FDA453272A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -701,10 +701,10 @@
         <v>30</v>
       </c>
       <c r="H2" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -767,10 +767,10 @@
         <v>30</v>
       </c>
       <c r="H3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>20</v>
@@ -833,10 +833,10 @@
         <v>30</v>
       </c>
       <c r="H4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>30</v>
@@ -965,7 +965,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>30</v>
@@ -1031,7 +1031,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>30</v>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>30</v>
@@ -1163,7 +1163,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>30</v>
@@ -1220,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>20</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B39F7D-746E-4469-9365-FDA453272A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692A133-2CB2-4367-BAF0-04F8F645BD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="3225" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>desc</t>
   </si>
@@ -197,6 +197,16 @@
   </si>
   <si>
     <t>set_score</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;たまごの入ったコクのあるクッキー&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -590,12 +600,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -679,7 +689,7 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1269,6 +1279,72 @@
       </c>
       <c r="U10" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692A133-2CB2-4367-BAF0-04F8F645BD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4121834-C905-4F6F-9037-ACA11539D148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3225" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4121834-C905-4F6F-9037-ACA11539D148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C282A55-F9B7-4ACB-B068-16DE72E4CA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>desc</t>
   </si>
@@ -206,6 +206,16 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0サンプル。ゲーム中では未使用。</t>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミシヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -600,12 +610,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -689,11 +699,11 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -738,19 +748,19 @@
         <v>7</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -759,16 +769,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>30</v>
@@ -783,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -804,19 +814,19 @@
         <v>7</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -825,19 +835,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
@@ -849,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -882,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -903,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
@@ -912,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -933,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -948,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -957,13 +967,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -999,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -1023,22 +1033,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <v>30</v>
       </c>
       <c r="G7" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1080,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,28 +1099,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
         <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1146,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,13 +1165,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
         <v>10</v>
@@ -1197,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>7</v>
@@ -1221,22 +1231,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
         <v>30</v>
       </c>
       <c r="G10" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1263,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>7</v>
@@ -1278,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,16 +1297,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
         <v>30</v>
@@ -1308,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -1344,6 +1354,72 @@
         <v>7</v>
       </c>
       <c r="U11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C282A55-F9B7-4ACB-B068-16DE72E4CA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203A0BC-3C39-4002-9813-BDF6CB125F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>desc</t>
   </si>
@@ -217,6 +217,50 @@
     <rPh sb="12" eb="15">
       <t>ミシヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rusk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>biscotti</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SilverChip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KirakiraHeart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JewerySuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SakuraChip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score05</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -610,12 +654,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -629,10 +673,11 @@
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="60.28515625" customWidth="1"/>
+    <col min="21" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -694,12 +739,27 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -759,11 +819,26 @@
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -825,11 +900,26 @@
       <c r="T3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -891,11 +981,26 @@
       <c r="T4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -957,11 +1062,26 @@
       <c r="T5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1023,11 +1143,26 @@
       <c r="T6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1089,11 +1224,26 @@
       <c r="T7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1114,13 +1264,13 @@
         <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1141,25 +1291,40 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="5">
+        <v>5</v>
+      </c>
+      <c r="V8" s="5">
+        <v>10</v>
+      </c>
+      <c r="W8" s="5">
+        <v>20</v>
+      </c>
+      <c r="X8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1221,11 +1386,26 @@
       <c r="T9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1287,11 +1467,26 @@
       <c r="T10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1353,26 +1548,41 @@
       <c r="T11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3">
         <v>30</v>
@@ -1384,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1419,8 +1629,185 @@
       <c r="T12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203A0BC-3C39-4002-9813-BDF6CB125F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C03C18-1BA4-4946-A75B-97251D4C631A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="2715" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1306,13 +1306,13 @@
         <v>7</v>
       </c>
       <c r="U8" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V8" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="W8" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X8" s="5">
         <v>10</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C03C18-1BA4-4946-A75B-97251D4C631A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4CAD4-D3C7-43DE-8E4B-05F2CE005314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2715" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>desc</t>
   </si>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>tp_score05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Crepe</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -654,12 +658,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -759,7 +763,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1294,28 +1298,28 @@
         <v>41</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U8" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V8" s="5">
+        <v>22</v>
+      </c>
+      <c r="W8" s="5">
+        <v>30</v>
+      </c>
+      <c r="X8" s="5">
         <v>40</v>
-      </c>
-      <c r="W8" s="5">
-        <v>30</v>
-      </c>
-      <c r="X8" s="5">
-        <v>10</v>
       </c>
       <c r="Y8" s="5">
         <v>0</v>
@@ -1807,6 +1811,87 @@
         <v>0</v>
       </c>
       <c r="Z14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4CAD4-D3C7-43DE-8E4B-05F2CE005314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AD4E3-D64A-4356-8D66-559CBD34C7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t>desc</t>
   </si>
@@ -265,6 +265,14 @@
   </si>
   <si>
     <t>Crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>commet_flag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MixColor</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -658,12 +666,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,7 +689,7 @@
     <col min="26" max="26" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -760,8 +768,11 @@
       <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
         <v>0</v>
@@ -841,8 +852,11 @@
       <c r="Z2" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -922,8 +936,11 @@
       <c r="Z3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1003,8 +1020,11 @@
       <c r="Z4" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1084,8 +1104,11 @@
       <c r="Z5" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1165,8 +1188,11 @@
       <c r="Z6" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1246,8 +1272,11 @@
       <c r="Z7" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1307,13 +1336,13 @@
         <v>42</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="U8" s="5">
         <v>15</v>
       </c>
       <c r="V8" s="5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W8" s="5">
         <v>30</v>
@@ -1322,13 +1351,16 @@
         <v>40</v>
       </c>
       <c r="Y8" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1408,8 +1440,11 @@
       <c r="Z9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1489,8 +1524,11 @@
       <c r="Z10" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1570,8 +1608,11 @@
       <c r="Z11" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1651,8 +1692,11 @@
       <c r="Z12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1732,8 +1776,11 @@
       <c r="Z13" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1813,8 +1860,11 @@
       <c r="Z14" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1893,6 +1943,9 @@
       </c>
       <c r="Z15" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AD4E3-D64A-4356-8D66-559CBD34C7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606CC562-5899-4982-9112-6359CC124AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>desc</t>
   </si>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>MixColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCream</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -668,10 +672,10 @@
   </sheetPr>
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1885,13 +1889,13 @@
         <v>30</v>
       </c>
       <c r="G15" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1912,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>7</v>
@@ -1927,13 +1931,13 @@
         <v>7</v>
       </c>
       <c r="U15" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V15" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W15" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X15" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606CC562-5899-4982-9112-6359CC124AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F47C1-584A-4FFA-A678-5C0626C2400D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3135" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>desc</t>
   </si>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>WhipeedCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Creampuff</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -670,12 +674,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,7 +782,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1889,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1949,6 +1953,90 @@
         <v>29</v>
       </c>
       <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
+        <v>60</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="5">
+        <v>10</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F47C1-584A-4FFA-A678-5C0626C2400D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5623996-CBE3-4B57-813D-44FE3BA7D9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3135" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="3525" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
   <si>
     <t>desc</t>
   </si>
@@ -281,6 +281,39 @@
   </si>
   <si>
     <t>Creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;クレープ&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;シュークリーム&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="31" eb="32">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ドーナツ&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Non_tpscore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Donuts</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -674,12 +707,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,16 +721,17 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="21" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="60.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -774,15 +808,18 @@
         <v>49</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -857,14 +894,17 @@
       <c r="Y2" s="5">
         <v>0</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AB2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -941,14 +981,17 @@
       <c r="Y3" s="5">
         <v>0</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AB3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1025,14 +1068,17 @@
       <c r="Y4" s="5">
         <v>0</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1109,14 +1155,17 @@
       <c r="Y5" s="5">
         <v>0</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1193,14 +1242,17 @@
       <c r="Y6" s="5">
         <v>0</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AB6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1277,14 +1329,17 @@
       <c r="Y7" s="5">
         <v>0</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AB7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1361,14 +1416,17 @@
       <c r="Y8" s="5">
         <v>20</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AB8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1445,14 +1503,17 @@
       <c r="Y9" s="5">
         <v>0</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AB9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1529,14 +1590,17 @@
       <c r="Y10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AB10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1613,14 +1677,17 @@
       <c r="Y11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AB11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1697,14 +1764,17 @@
       <c r="Y12" s="5">
         <v>0</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1781,14 +1851,17 @@
       <c r="Y13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AB13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1865,14 +1938,17 @@
       <c r="Y14" s="5">
         <v>0</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AB14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1949,14 +2025,17 @@
       <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>0</v>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2033,11 +2112,101 @@
       <c r="Y16" s="5">
         <v>0</v>
       </c>
-      <c r="Z16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>0</v>
+      <c r="Z16" s="5">
+        <v>-10</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
+        <v>60</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="5">
+        <v>20</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5623996-CBE3-4B57-813D-44FE3BA7D9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083C453-6DEA-4401-AAF0-3B01143B0105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="3525" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2910" windowWidth="23505" windowHeight="12075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
+    <sheet name="02_ContestSetData1" sheetId="2" r:id="rId2"/>
+    <sheet name="02_ContestSetData1_Free" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="68">
   <si>
     <t>desc</t>
   </si>
@@ -314,6 +316,61 @@
   </si>
   <si>
     <t>Donuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテスト用課題１</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員１ 一回戦</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イッカイセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員２ 一回戦</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員３ 一回戦</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員４ 一回戦</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員５ 一回戦</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由課題１</t>
+    <rPh sb="0" eb="4">
+      <t>ジユウカダイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -709,10 +766,10 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2214,4 +2271,1892 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D613C04-23DC-40D9-A7F2-E25C857F761B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f>ROW()-2+1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>ROW()-2+1000</f>
+        <v>1001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f>ROW()-2+1000</f>
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f>ROW()-2+1000</f>
+        <v>1003</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1030</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f>ROW()-2+1000</f>
+        <v>1004</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f>ROW()-2+1000</f>
+        <v>1005</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6051268-93C7-4E55-B227-01C34B195767}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f>ROW()-2+1500</f>
+        <v>1500</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>ROW()-2+1500</f>
+        <v>1501</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1510</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f>ROW()-2+1500</f>
+        <v>1502</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1520</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f>ROW()-2+1500</f>
+        <v>1503</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1530</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f>ROW()-2+1500</f>
+        <v>1504</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1540</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f>ROW()-2+1500</f>
+        <v>1505</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083C453-6DEA-4401-AAF0-3B01143B0105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9719D6-38C6-4F8B-BC00-74DA3CA3BFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2910" windowWidth="23505" windowHeight="12075" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23505" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
   <si>
     <t>desc</t>
   </si>
@@ -347,20 +347,6 @@
   </si>
   <si>
     <t>審査員３ 一回戦</t>
-    <rPh sb="0" eb="3">
-      <t>シンサイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>審査員４ 一回戦</t>
-    <rPh sb="0" eb="3">
-      <t>シンサイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>審査員５ 一回戦</t>
     <rPh sb="0" eb="3">
       <t>シンサイン</t>
     </rPh>
@@ -2278,12 +2264,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2390,7 +2376,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f>ROW()-2+1000</f>
+        <f t="shared" ref="A2:A5" si="0">ROW()-2+1000</f>
         <v>1000</v>
       </c>
       <c r="B2" s="3">
@@ -2477,7 +2463,7 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>ROW()-2+1000</f>
+        <f t="shared" si="0"/>
         <v>1001</v>
       </c>
       <c r="B3" s="3">
@@ -2496,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -2505,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -2564,7 +2550,7 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>ROW()-2+1000</f>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="B4" s="3">
@@ -2651,7 +2637,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>ROW()-2+1000</f>
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="B5" s="3">
@@ -2737,178 +2723,64 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <f>ROW()-2+1000</f>
-        <v>1004</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1040</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <f>ROW()-2+1000</f>
-        <v>1005</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1050</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -3150,6 +3022,890 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="5"/>
     </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6051268-93C7-4E55-B227-01C34B195767}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A7" si="0">ROW()-2+1500</f>
+        <v>1500</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f t="shared" si="0"/>
+        <v>1501</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1510</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>1502</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1520</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>1503</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1530</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>1504</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1540</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>1505</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="5"/>
+    </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
@@ -3215,948 +3971,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6051268-93C7-4E55-B227-01C34B195767}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AB17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="26" width="10" customWidth="1"/>
-    <col min="27" max="27" width="60.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <f>ROW()-2+1500</f>
-        <v>1500</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <f>ROW()-2+1500</f>
-        <v>1501</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1510</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <f>ROW()-2+1500</f>
-        <v>1502</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1520</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <f>ROW()-2+1500</f>
-        <v>1503</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1530</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3">
-        <v>50</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>80</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>80</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <f>ROW()-2+1500</f>
-        <v>1504</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1540</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="3">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <f>ROW()-2+1500</f>
-        <v>1505</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="5"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9719D6-38C6-4F8B-BC00-74DA3CA3BFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CF84B-BE77-4CE0-9BA6-E472098A83E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23505" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
   <si>
     <t>desc</t>
   </si>
@@ -357,6 +357,10 @@
     <rPh sb="0" eb="4">
       <t>ジユウカダイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nuts</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -752,10 +756,10 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2039,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>7</v>
@@ -2054,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="U15" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V15" s="5">
         <v>7</v>
       </c>
       <c r="W15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X15" s="5">
         <v>0</v>
@@ -2075,7 +2079,7 @@
         <v>56</v>
       </c>
       <c r="AB15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,7 +2166,7 @@
         <v>57</v>
       </c>
       <c r="AB16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2216,7 +2220,7 @@
         <v>55</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>7</v>
@@ -2231,7 +2235,7 @@
         <v>20</v>
       </c>
       <c r="V17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W17" s="5">
         <v>0</v>
@@ -2249,7 +2253,7 @@
         <v>58</v>
       </c>
       <c r="AB17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2270,7 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CF84B-BE77-4CE0-9BA6-E472098A83E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C74E206-9E17-4312-B48F-C76217C1F8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="1440" windowWidth="24090" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
   <si>
     <t>desc</t>
   </si>
@@ -756,7 +756,7 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="Z19" sqref="Z19"/>
@@ -2268,12 +2268,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A5" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A2:A17" si="0">ROW()-2+1000</f>
         <v>1000</v>
       </c>
       <c r="B2" s="3">
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -2645,7 +2645,1521 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>80</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B9" s="3">
         <v>1030</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1031</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>80</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1041</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>40</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>80</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>80</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>1013</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>1014</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1051</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>40</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>1015</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1052</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>80</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>80</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6051268-93C7-4E55-B227-01C34B195767}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A7" si="0">ROW()-2+1500</f>
+        <v>1500</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f t="shared" si="0"/>
+        <v>1501</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1510</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>1502</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1520</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>1503</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1530</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2720,71 +4234,185 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="5"/>
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>1504</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1540</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="5"/>
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>1505</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1550</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -3026,890 +4654,6 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="5"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6051268-93C7-4E55-B227-01C34B195767}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AB17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="26" width="10" customWidth="1"/>
-    <col min="27" max="27" width="60.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2+1500</f>
-        <v>1500</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <f t="shared" si="0"/>
-        <v>1501</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1510</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <f t="shared" si="0"/>
-        <v>1502</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1520</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>1503</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1530</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3">
-        <v>50</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>80</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>80</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>1504</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1540</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="3">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>1505</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1550</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="5"/>
-    </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C74E206-9E17-4312-B48F-C76217C1F8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFB8C1D-EF39-45AD-B773-841EBA0ACA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1440" windowWidth="24090" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="1560" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="69">
   <si>
     <t>desc</t>
   </si>
@@ -116,13 +116,6 @@
   </si>
   <si>
     <t>orange_neko_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;ねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="30" eb="31">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -361,6 +354,24 @@
   </si>
   <si>
     <t>Nuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別判定</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -754,12 +765,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z19" sqref="Z19"/>
+      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -783,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -792,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -840,33 +851,33 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -945,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -957,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>30</v>
@@ -981,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1002,16 +1013,16 @@
         <v>7</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U3" s="5">
         <v>0</v>
@@ -1032,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -1044,19 +1055,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
@@ -1068,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1119,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1131,19 +1142,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
@@ -1152,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1173,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -1206,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -1218,16 +1229,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3">
         <v>30</v>
@@ -1239,64 +1250,64 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="5">
+        <v>15</v>
+      </c>
+      <c r="V6" s="5">
+        <v>25</v>
+      </c>
+      <c r="W6" s="5">
         <v>30</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="X6" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="AB6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,16 +1316,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3">
         <v>30</v>
@@ -1326,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -1347,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -1380,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -1392,29 +1403,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <v>30</v>
       </c>
       <c r="G8" s="3">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>30</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -1434,43 +1445,43 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="U8" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V8" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X8" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="5">
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,13 +1490,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3">
         <v>10</v>
@@ -1494,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1554,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1566,22 +1577,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>30</v>
       </c>
       <c r="G10" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1608,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>7</v>
@@ -1641,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1653,13 +1664,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -1668,7 +1679,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="3">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1695,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>7</v>
@@ -1710,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="U11" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V11" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
@@ -1728,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -1740,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
@@ -1755,13 +1766,13 @@
         <v>30</v>
       </c>
       <c r="G12" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1782,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -1797,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="U12" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V12" s="5">
         <v>0</v>
@@ -1812,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -1827,67 +1838,67 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
         <v>30</v>
       </c>
       <c r="G13" s="3">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13" s="5">
         <v>0</v>
@@ -1902,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -1914,22 +1925,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>30</v>
       </c>
       <c r="G14" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1959,16 +1970,16 @@
         <v>7</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U14" s="5">
         <v>0</v>
@@ -1989,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -2001,22 +2012,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>60</v>
+        <v>501</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>30</v>
       </c>
       <c r="G15" s="3">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2043,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>7</v>
@@ -2058,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="U15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
         <v>0</v>
@@ -2076,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2088,22 +2099,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>70</v>
+        <v>508</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3">
         <v>30</v>
       </c>
       <c r="G16" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2130,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>7</v>
@@ -2148,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="V16" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
@@ -2160,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2175,28 +2186,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3">
         <v>30</v>
       </c>
       <c r="G17" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2217,31 +2228,31 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U17" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V17" s="5">
         <v>10</v>
       </c>
       <c r="W17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X17" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="5">
         <v>0</v>
@@ -2250,9 +2261,96 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>521</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2270,7 +2368,7 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
@@ -2297,7 +2395,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -2306,7 +2404,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -2354,28 +2452,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -2477,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -2546,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -2633,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -2720,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -2738,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -2807,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -2894,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -2981,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -2999,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -3068,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -3155,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -3242,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -3260,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -3329,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -3416,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -3503,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -3521,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>50</v>
@@ -3590,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -3677,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -3764,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -3811,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -3820,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -3868,28 +3966,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3973,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -3991,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -4060,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -4078,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -4147,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -4165,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -4234,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -4252,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -4288,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -4321,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -4339,7 +4437,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -4408,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFB8C1D-EF39-45AD-B773-841EBA0ACA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E3E0E-DEF0-4524-838B-2C3ACDF5C50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1560" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1440" windowWidth="24090" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="79">
   <si>
     <t>desc</t>
   </si>
@@ -372,6 +372,46 @@
     <rPh sb="2" eb="4">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PanCake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Financier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maffin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Biscotti</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jelly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blueberry</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -767,10 +807,10 @@
   </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>30</v>
@@ -977,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>30</v>
@@ -1064,7 +1104,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>60</v>
@@ -1151,7 +1191,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -1238,7 +1278,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>30</v>
@@ -1325,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>30</v>
@@ -1412,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>30</v>
@@ -1427,7 +1467,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1499,7 +1539,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>30</v>
@@ -1586,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>30</v>
@@ -1673,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>30</v>
@@ -1691,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1760,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>30</v>
@@ -1778,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1847,7 +1887,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>30</v>
@@ -1865,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -1934,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>30</v>
@@ -2021,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>30</v>
@@ -2108,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>30</v>
@@ -2195,7 +2235,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>30</v>
@@ -2282,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>30</v>
@@ -2366,12 +2406,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2478,7 +2518,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A17" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A2:A44" si="0">ROW()-2+1000</f>
         <v>1000</v>
       </c>
       <c r="B2" s="3">
@@ -2569,7 +2609,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3">
-        <v>1010</v>
+        <v>1210</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2578,13 +2618,13 @@
         <v>30</v>
       </c>
       <c r="E3" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -2593,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -2656,7 +2696,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3">
-        <v>1011</v>
+        <v>1211</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -2665,22 +2705,22 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -2743,7 +2783,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3">
-        <v>1012</v>
+        <v>1212</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2752,22 +2792,22 @@
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -2830,7 +2870,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="3">
-        <v>1020</v>
+        <v>1220</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -2839,13 +2879,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -2917,7 +2957,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="3">
-        <v>1021</v>
+        <v>1221</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -2926,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -2941,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -3004,7 +3044,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="3">
-        <v>1022</v>
+        <v>1222</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -3013,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -3091,7 +3131,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="3">
-        <v>1030</v>
+        <v>1230</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -3100,13 +3140,13 @@
         <v>49</v>
       </c>
       <c r="E9" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -3133,37 +3173,37 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V9" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="5">
         <v>0</v>
       </c>
       <c r="Z9" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>61</v>
@@ -3178,7 +3218,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3">
-        <v>1031</v>
+        <v>1231</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -3187,7 +3227,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -3199,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3">
         <v>40</v>
@@ -3220,37 +3260,37 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U10" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V10" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>62</v>
@@ -3265,7 +3305,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3">
-        <v>1032</v>
+        <v>1232</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -3274,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -3286,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
         <v>80</v>
@@ -3307,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>7</v>
@@ -3322,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="U11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11" s="5">
         <v>0</v>
@@ -3337,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>63</v>
@@ -3352,7 +3392,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3">
-        <v>1040</v>
+        <v>1240</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -3361,13 +3401,13 @@
         <v>53</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -3379,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -3439,7 +3479,7 @@
         <v>1011</v>
       </c>
       <c r="B13" s="3">
-        <v>1041</v>
+        <v>1241</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -3448,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -3466,7 +3506,7 @@
         <v>40</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -3526,7 +3566,7 @@
         <v>1012</v>
       </c>
       <c r="B14" s="3">
-        <v>1042</v>
+        <v>1242</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -3535,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -3553,7 +3593,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -3613,7 +3653,7 @@
         <v>1013</v>
       </c>
       <c r="B15" s="3">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -3622,13 +3662,13 @@
         <v>59</v>
       </c>
       <c r="E15" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -3700,7 +3740,7 @@
         <v>1014</v>
       </c>
       <c r="B16" s="3">
-        <v>1051</v>
+        <v>1251</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -3709,13 +3749,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -3787,7 +3827,7 @@
         <v>1015</v>
       </c>
       <c r="B17" s="3">
-        <v>1052</v>
+        <v>1252</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -3796,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -3865,6 +3905,2355 @@
         <v>63</v>
       </c>
       <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>1016</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1260</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>1017</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1261</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>40</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>1018</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1262</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>80</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>80</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1270</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1271</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>40</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1272</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>80</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1280</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1281</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>40</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1282</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>80</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1290</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>20</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1291</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>50</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>40</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1292</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>80</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>80</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>20</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>1029</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1301</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>50</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>40</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1302</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>80</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>80</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>1031</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>20</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1311</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>50</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>40</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
+        <v>0</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>1033</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1312</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>80</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>80</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>1034</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1320</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>20</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1321</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>40</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>1036</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1322</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>80</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>80</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>1037</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1330</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>20</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>1038</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1331</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>50</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>40</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>1039</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1332</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>80</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>80</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1340</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>1041</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1341</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>50</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>40</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>1042</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1342</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>80</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>80</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB44" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E3E0E-DEF0-4524-838B-2C3ACDF5C50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909EF901-F839-40F2-AD91-9003534A043A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1440" windowWidth="24090" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="80">
   <si>
     <t>desc</t>
   </si>
@@ -412,6 +412,10 @@
   </si>
   <si>
     <t>Blueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamStrawberry</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -807,10 +811,10 @@
   </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1930,7 @@
         <v>65</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>7</v>
@@ -1941,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X13" s="5">
         <v>0</v>
@@ -1950,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>57</v>
@@ -2408,7 +2412,7 @@
   </sheetPr>
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909EF901-F839-40F2-AD91-9003534A043A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FAD89E-D0BA-4A95-BEF2-FACC7886C777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2325" windowWidth="24090" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="87">
   <si>
     <t>desc</t>
   </si>
@@ -416,6 +416,34 @@
   </si>
   <si>
     <t>WhipeedCreamStrawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>banana_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Peach</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cherry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shishamo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MATCH(1010,$B$3,0)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>peach_cookie</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -453,7 +481,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +500,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -485,13 +519,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -811,10 +849,10 @@
   </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2410,12 +2448,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2522,7 +2560,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A44" si="0">ROW()-2+1000</f>
+        <f>ROW()-2+1000</f>
         <v>1000</v>
       </c>
       <c r="B2" s="3">
@@ -2607,90 +2645,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <f t="shared" si="0"/>
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <f t="shared" ref="A3:A50" si="0">ROW()-2+1000</f>
         <v>1001</v>
       </c>
-      <c r="B3" s="3">
-        <v>1210</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="6">
+        <v>1010</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4" t="s">
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="7">
+        <v>20</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2700,7 +2738,8 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3">
-        <v>1211</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1011</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -2709,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -2742,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -2757,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="U4" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
@@ -2787,7 +2826,8 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3">
-        <v>1212</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1012</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -2796,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -2829,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -2844,7 +2884,7 @@
         <v>7</v>
       </c>
       <c r="U5" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
@@ -2874,64 +2914,65 @@
         <v>1004</v>
       </c>
       <c r="B6" s="3">
-        <v>1220</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
         <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
@@ -2961,7 +3002,8 @@
         <v>1005</v>
       </c>
       <c r="B7" s="3">
-        <v>1221</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1014</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -2970,22 +3012,22 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -3003,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -3018,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
@@ -3048,7 +3090,8 @@
         <v>1006</v>
       </c>
       <c r="B8" s="3">
-        <v>1222</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1015</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -3057,22 +3100,22 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -3090,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -3105,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V8" s="5">
         <v>0</v>
@@ -3129,90 +3172,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="B9" s="3">
-        <v>1230</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="B9" s="6">
+        <v>1210</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>20</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="7">
         <v>10</v>
       </c>
-      <c r="V9" s="5">
-        <v>5</v>
-      </c>
-      <c r="W9" s="5">
-        <v>10</v>
-      </c>
-      <c r="X9" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>-30</v>
-      </c>
-      <c r="AA9" s="4" t="s">
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3222,7 +3265,8 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3">
-        <v>1231</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1211</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -3231,22 +3275,22 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -3264,37 +3308,37 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U10" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V10" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W10" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X10" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>62</v>
@@ -3309,7 +3353,8 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3">
-        <v>1232</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1212</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -3318,22 +3363,22 @@
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -3351,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>7</v>
@@ -3366,7 +3411,7 @@
         <v>7</v>
       </c>
       <c r="U11" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V11" s="5">
         <v>0</v>
@@ -3381,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>63</v>
@@ -3396,13 +3441,14 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3">
-        <v>1240</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1213</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -3411,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -3420,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K12" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -3483,7 +3529,8 @@
         <v>1011</v>
       </c>
       <c r="B13" s="3">
-        <v>1241</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1214</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -3507,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K13" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -3570,7 +3617,8 @@
         <v>1012</v>
       </c>
       <c r="B14" s="3">
-        <v>1242</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1215</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -3585,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -3597,7 +3645,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -3657,13 +3705,14 @@
         <v>1013</v>
       </c>
       <c r="B15" s="3">
-        <v>1250</v>
+        <f t="shared" ref="B15:B50" si="1">INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1216</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3672,19 +3721,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -3699,37 +3748,37 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U15" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V15" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W15" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X15" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
       </c>
       <c r="Z15" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>61</v>
@@ -3744,7 +3793,8 @@
         <v>1014</v>
       </c>
       <c r="B16" s="3">
-        <v>1251</v>
+        <f t="shared" si="1"/>
+        <v>1217</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -3765,14 +3815,14 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>40</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
@@ -3786,37 +3836,37 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U16" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V16" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="5">
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>62</v>
@@ -3831,7 +3881,8 @@
         <v>1015</v>
       </c>
       <c r="B17" s="3">
-        <v>1252</v>
+        <f t="shared" si="1"/>
+        <v>1218</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -3846,19 +3897,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -3873,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -3888,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="U17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V17" s="5">
         <v>0</v>
@@ -3903,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>63</v>
@@ -3918,13 +3969,14 @@
         <v>1016</v>
       </c>
       <c r="B18" s="3">
-        <v>1260</v>
+        <f t="shared" si="1"/>
+        <v>1219</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3933,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -3942,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>20</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -4005,7 +4057,8 @@
         <v>1017</v>
       </c>
       <c r="B19" s="3">
-        <v>1261</v>
+        <f t="shared" si="1"/>
+        <v>1220</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4029,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>40</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -4092,7 +4145,8 @@
         <v>1018</v>
       </c>
       <c r="B20" s="3">
-        <v>1262</v>
+        <f t="shared" si="1"/>
+        <v>1221</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4116,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>80</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -4179,13 +4233,14 @@
         <v>1019</v>
       </c>
       <c r="B21" s="3">
-        <v>1270</v>
+        <f t="shared" si="1"/>
+        <v>1222</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -4194,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -4203,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -4266,7 +4321,8 @@
         <v>1020</v>
       </c>
       <c r="B22" s="3">
-        <v>1271</v>
+        <f t="shared" si="1"/>
+        <v>1223</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4281,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -4290,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -4353,7 +4409,8 @@
         <v>1021</v>
       </c>
       <c r="B23" s="3">
-        <v>1272</v>
+        <f t="shared" si="1"/>
+        <v>1224</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4440,13 +4497,14 @@
         <v>1022</v>
       </c>
       <c r="B24" s="3">
-        <v>1280</v>
+        <f t="shared" si="1"/>
+        <v>1225</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -4455,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -4464,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -4527,7 +4585,8 @@
         <v>1023</v>
       </c>
       <c r="B25" s="3">
-        <v>1281</v>
+        <f t="shared" si="1"/>
+        <v>1226</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4542,19 +4601,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>50</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>40</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -4614,7 +4673,8 @@
         <v>1024</v>
       </c>
       <c r="B26" s="3">
-        <v>1282</v>
+        <f t="shared" si="1"/>
+        <v>1227</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4629,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -4638,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -4701,13 +4761,14 @@
         <v>1025</v>
       </c>
       <c r="B27" s="3">
-        <v>1290</v>
+        <f t="shared" si="1"/>
+        <v>1228</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -4716,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -4725,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -4788,7 +4849,8 @@
         <v>1026</v>
       </c>
       <c r="B28" s="3">
-        <v>1291</v>
+        <f t="shared" si="1"/>
+        <v>1229</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -4803,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -4812,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -4875,7 +4937,8 @@
         <v>1027</v>
       </c>
       <c r="B29" s="3">
-        <v>1292</v>
+        <f t="shared" si="1"/>
+        <v>1230</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -4890,19 +4953,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>80</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>80</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -4962,13 +5025,14 @@
         <v>1028</v>
       </c>
       <c r="B30" s="3">
-        <v>1300</v>
+        <f t="shared" si="1"/>
+        <v>1231</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -4977,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -5049,7 +5113,8 @@
         <v>1029</v>
       </c>
       <c r="B31" s="3">
-        <v>1301</v>
+        <f t="shared" si="1"/>
+        <v>1232</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -5064,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -5136,7 +5201,8 @@
         <v>1030</v>
       </c>
       <c r="B32" s="3">
-        <v>1302</v>
+        <f t="shared" si="1"/>
+        <v>1233</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5151,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -5223,13 +5289,14 @@
         <v>1031</v>
       </c>
       <c r="B33" s="3">
-        <v>1310</v>
+        <f t="shared" si="1"/>
+        <v>1234</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -5238,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -5247,13 +5314,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -5310,7 +5377,8 @@
         <v>1032</v>
       </c>
       <c r="B34" s="3">
-        <v>1311</v>
+        <f t="shared" si="1"/>
+        <v>1235</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -5325,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -5334,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
         <v>40</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -5397,7 +5465,8 @@
         <v>1033</v>
       </c>
       <c r="B35" s="3">
-        <v>1312</v>
+        <f t="shared" si="1"/>
+        <v>1236</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5412,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>40</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>80</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>80</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -5484,13 +5553,14 @@
         <v>1034</v>
       </c>
       <c r="B36" s="3">
-        <v>1320</v>
+        <f t="shared" si="1"/>
+        <v>1237</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -5499,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -5508,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -5571,7 +5641,8 @@
         <v>1035</v>
       </c>
       <c r="B37" s="3">
-        <v>1321</v>
+        <f t="shared" si="1"/>
+        <v>1238</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5586,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -5595,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
         <v>40</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -5658,7 +5729,8 @@
         <v>1036</v>
       </c>
       <c r="B38" s="3">
-        <v>1322</v>
+        <f t="shared" si="1"/>
+        <v>1239</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -5673,19 +5745,19 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
+        <v>40</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
         <v>80</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>80</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -5745,13 +5817,14 @@
         <v>1037</v>
       </c>
       <c r="B39" s="3">
-        <v>1330</v>
+        <f t="shared" si="1"/>
+        <v>1240</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -5760,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -5769,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -5832,7 +5905,8 @@
         <v>1038</v>
       </c>
       <c r="B40" s="3">
-        <v>1331</v>
+        <f t="shared" si="1"/>
+        <v>1241</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5847,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -5856,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
         <v>40</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -5919,7 +5993,8 @@
         <v>1039</v>
       </c>
       <c r="B41" s="3">
-        <v>1332</v>
+        <f t="shared" si="1"/>
+        <v>1242</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -5934,19 +6009,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>80</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>80</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -6006,13 +6081,14 @@
         <v>1040</v>
       </c>
       <c r="B42" s="3">
-        <v>1340</v>
+        <f t="shared" si="1"/>
+        <v>1243</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -6021,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -6030,10 +6106,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -6093,7 +6169,8 @@
         <v>1041</v>
       </c>
       <c r="B43" s="3">
-        <v>1341</v>
+        <f t="shared" si="1"/>
+        <v>1244</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -6108,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -6117,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>40</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -6180,7 +6257,8 @@
         <v>1042</v>
       </c>
       <c r="B44" s="3">
-        <v>1342</v>
+        <f t="shared" si="1"/>
+        <v>1245</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -6195,19 +6273,19 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>40</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>80</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>80</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -6258,6 +6336,534 @@
         <v>63</v>
       </c>
       <c r="AB44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>1043</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="1"/>
+        <v>1246</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>30</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>1044</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="1"/>
+        <v>1247</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>40</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>40</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="1"/>
+        <v>1248</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>40</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>80</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="X47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>1046</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="1"/>
+        <v>1249</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>20</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="X48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>1047</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>50</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>40</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="5">
+        <v>0</v>
+      </c>
+      <c r="X49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>1048</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="1"/>
+        <v>1251</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>80</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>80</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB50" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FAD89E-D0BA-4A95-BEF2-FACC7886C777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130E54D-558A-4C24-9936-6139BB5143C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2325" windowWidth="24090" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="86">
   <si>
     <t>desc</t>
   </si>
@@ -436,10 +436,6 @@
   </si>
   <si>
     <t>Shishamo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MATCH(1010,$B$3,0)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -849,10 +845,10 @@
   </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="Z6" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>33</v>
@@ -2450,7 +2446,7 @@
   </sheetPr>
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
@@ -2918,7 +2914,7 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130E54D-558A-4C24-9936-6139BB5143C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C341242-4B82-4472-BAB1-5DA547DAFD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1695" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="91">
   <si>
     <t>desc</t>
   </si>
@@ -138,10 +138,6 @@
     <rPh sb="31" eb="32">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rusk</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -219,10 +215,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>biscotti</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SilverChip</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -365,81 +357,112 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>個別判定</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
+    <t>Bread</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PanCake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Financier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maffin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Biscotti</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jelly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamStrawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>banana_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Peach</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cherry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shishamo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>peach_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク＜バター＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビスコッティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレープ生地のまま。何もかけてない状態。</t>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bread</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Cake</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Pie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chocolate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PanCake</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Financier</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Maffin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Biscotti</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Jelly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Blueberry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WhipeedCreamStrawberry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>banana_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Maple</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Peach</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Cherry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shishamo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>peach_cookie</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -843,27 +866,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomLeft" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="12" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="26" width="10" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="26" width="7.140625" customWidth="1"/>
     <col min="27" max="27" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -881,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -929,33 +958,33 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -971,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>30</v>
@@ -1034,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -1058,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>30</v>
@@ -1121,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -1139,13 +1168,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
@@ -1208,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1226,13 +1255,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>30</v>
@@ -1262,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -1313,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>30</v>
@@ -1349,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="S6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U6" s="5">
         <v>15</v>
@@ -1382,7 +1411,7 @@
         <v>-10</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB6" s="5">
         <v>1</v>
@@ -1400,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
@@ -1436,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -1487,13 +1516,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>20</v>
@@ -1523,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -1538,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V8" s="5">
         <v>0</v>
@@ -1556,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -1574,13 +1603,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>20</v>
@@ -1643,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1658,16 +1687,16 @@
         <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>20</v>
@@ -1730,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1748,13 +1777,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>67</v>
@@ -1784,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>7</v>
@@ -1817,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -1835,13 +1864,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>60</v>
@@ -1871,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -1904,7 +1933,7 @@
         <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -1922,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>60</v>
@@ -1958,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>7</v>
@@ -1991,7 +2020,7 @@
         <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -2015,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>30</v>
@@ -2078,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -2102,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>30</v>
@@ -2165,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2189,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>30</v>
@@ -2219,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>7</v>
@@ -2252,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2267,7 +2296,7 @@
         <v>509</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -2276,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>30</v>
@@ -2306,16 +2335,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>7</v>
@@ -2339,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2351,19 +2380,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>20</v>
@@ -2372,63 +2401,150 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>60</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>561</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>30</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB18" s="5">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>70</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2482,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -2530,28 +2646,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -2650,7 +2766,7 @@
         <v>1010</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -2689,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>7</v>
@@ -2722,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="7">
         <v>0</v>
@@ -2777,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -2810,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -2865,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -2898,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -2914,7 +3030,7 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -2953,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -2986,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -3041,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -3074,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -3129,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -3162,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -3180,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6">
         <v>10</v>
@@ -3216,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>7</v>
@@ -3249,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -3304,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>7</v>
@@ -3337,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -3392,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>7</v>
@@ -3425,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -3444,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -3513,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -3601,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -3689,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -3708,7 +3824,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3744,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
@@ -3777,7 +3893,7 @@
         <v>-30</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -3832,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>7</v>
@@ -3865,7 +3981,7 @@
         <v>-30</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -3920,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -3953,7 +4069,7 @@
         <v>-30</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -3972,7 +4088,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -4041,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -4129,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -4217,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -4236,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -4305,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -4393,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -4481,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -4500,7 +4616,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -4569,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -4657,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -4745,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -4764,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -4833,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -4921,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -5009,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -5028,7 +5144,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -5097,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -5185,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -5273,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -5292,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -5361,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -5449,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -5537,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -5556,7 +5672,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -5625,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -5713,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -5801,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -5820,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -5889,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB39" s="5">
         <v>0</v>
@@ -5977,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB40" s="5">
         <v>0</v>
@@ -6065,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -6084,7 +6200,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -6153,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB42" s="5">
         <v>0</v>
@@ -6241,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB43" s="5">
         <v>0</v>
@@ -6329,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB44" s="5">
         <v>0</v>
@@ -6348,7 +6464,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -6417,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB45" s="5">
         <v>0</v>
@@ -6505,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB46" s="5">
         <v>0</v>
@@ -6593,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB47" s="5">
         <v>0</v>
@@ -6612,7 +6728,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -6681,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -6769,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB49" s="5">
         <v>0</v>
@@ -6857,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB50" s="5">
         <v>0</v>
@@ -6913,7 +7029,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -6961,28 +7077,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7066,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -7084,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -7153,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -7171,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -7240,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -7258,7 +7374,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -7327,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -7345,7 +7461,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -7381,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -7414,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -7432,7 +7548,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -7501,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C341242-4B82-4472-BAB1-5DA547DAFD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7EFE33-A230-4F24-9BCA-0E511775EB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="92">
   <si>
     <t>desc</t>
   </si>
@@ -463,6 +463,10 @@
     <rPh sb="17" eb="19">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マフィン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -866,12 +870,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Y16" sqref="Y16"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -984,7 +988,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A20" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1360,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1525,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1828,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="U11" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="V11" s="5">
         <v>7</v>
@@ -1873,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1960,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2395,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2545,6 +2549,93 @@
         <v>90</v>
       </c>
       <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>580</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>60</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB20" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7EFE33-A230-4F24-9BCA-0E511775EB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74853DC8-A83E-4CD6-A2FA-AB4AC1BC343F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="U11" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>53</v>
@@ -1919,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="U12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>7</v>
       </c>
       <c r="U13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5">
         <v>10</v>
       </c>
       <c r="W13" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X13" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74853DC8-A83E-4CD6-A2FA-AB4AC1BC343F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063BA54A-E2F2-41F8-A0BE-D3F3F310AD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2000,13 +2000,13 @@
         <v>76</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U13" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V13" s="5">
         <v>10</v>
@@ -2015,7 +2015,7 @@
         <v>20</v>
       </c>
       <c r="X13" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063BA54A-E2F2-41F8-A0BE-D3F3F310AD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D8A9-604C-4393-8447-F801D25C26D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="97">
   <si>
     <t>desc</t>
   </si>
@@ -467,6 +467,26 @@
   </si>
   <si>
     <t>マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lemon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_lemon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクオレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レモンラスク</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -870,12 +890,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomLeft" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -988,7 +1008,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A20" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1535,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>20</v>
@@ -1556,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -1571,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V8" s="5">
         <v>0</v>
@@ -2471,10 +2491,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -2486,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>30</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -2513,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -2528,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V19" s="5">
         <v>0</v>
@@ -2543,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2558,13 +2578,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2579,63 +2599,237 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3">
+        <v>20</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="5">
+        <v>20</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>561</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>70</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>580</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>60</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="4" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB22" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D8A9-604C-4393-8447-F801D25C26D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D83E5B-ACAA-4E52-B86E-ED2F1FE2209B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -892,10 +892,10 @@
   </sheetPr>
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AA21" sqref="AA21"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>49</v>
       </c>
       <c r="U6" s="5">
+        <v>5</v>
+      </c>
+      <c r="V6" s="5">
+        <v>10</v>
+      </c>
+      <c r="W6" s="5">
         <v>15</v>
       </c>
-      <c r="V6" s="5">
-        <v>25</v>
-      </c>
-      <c r="W6" s="5">
-        <v>30</v>
-      </c>
       <c r="X6" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="5">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>32</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="W13" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X13" s="5">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>30</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -2461,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D83E5B-ACAA-4E52-B86E-ED2F1FE2209B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B224B-DDB3-490E-AB18-C80DAAEFF359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JewerySuger</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SakuraChip</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -487,6 +483,10 @@
   </si>
   <si>
     <t>レモンラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CrystalSuger</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -895,7 +895,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,28 +982,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1405,34 +1405,34 @@
         <v>38</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" s="5">
         <v>10</v>
       </c>
       <c r="W6" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X6" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y6" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="5">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>32</v>
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>33</v>
@@ -1870,7 +1870,7 @@
         <v>-10</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -1957,7 +1957,7 @@
         <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>7</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>509</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>31</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>532</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -2566,7 +2566,7 @@
         <v>-15</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>533</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -2653,7 +2653,7 @@
         <v>-15</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>561</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2931,28 +2931,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>1010</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>7</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="7">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>7</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>7</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>7</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -4151,10 +4151,10 @@
         <v>33</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
@@ -4178,7 +4178,7 @@
         <v>-30</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -4233,16 +4233,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>7</v>
@@ -4266,7 +4266,7 @@
         <v>-30</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -4354,7 +4354,7 @@
         <v>-30</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB39" s="5">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB40" s="5">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB42" s="5">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB43" s="5">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB44" s="5">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB45" s="5">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB46" s="5">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB47" s="5">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB49" s="5">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB50" s="5">
         <v>0</v>
@@ -7362,28 +7362,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -7833,7 +7833,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B224B-DDB3-490E-AB18-C80DAAEFF359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CD084-49BB-4EA3-AFC5-A2D54FF2033F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="98">
   <si>
     <t>desc</t>
   </si>
@@ -487,6 +487,10 @@
   </si>
   <si>
     <t>CrystalSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すっぱいラスク</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -890,12 +894,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1012,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A23" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1621,13 +1625,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1636,53 +1640,53 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="5">
+        <v>10</v>
+      </c>
+      <c r="V9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
       <c r="W9" s="5">
         <v>0</v>
       </c>
@@ -1693,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1708,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1741,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -1783,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1795,13 +1799,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1810,26 +1814,26 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
       </c>
       <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
@@ -1837,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>7</v>
@@ -1855,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
@@ -1867,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -1882,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1897,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1927,7 +1931,7 @@
         <v>49</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>7</v>
@@ -1942,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
@@ -1957,7 +1961,7 @@
         <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -1969,13 +1973,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1984,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2011,40 +2015,40 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="5">
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -2056,13 +2060,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2071,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -2083,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -2098,40 +2102,40 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U14" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V14" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W14" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X14" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y14" s="5">
         <v>0</v>
       </c>
       <c r="Z14" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -2143,10 +2147,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -2164,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2188,16 +2192,16 @@
         <v>7</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U15" s="5">
         <v>0</v>
@@ -2218,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2230,10 +2234,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -2245,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2272,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>7</v>
@@ -2287,10 +2291,10 @@
         <v>7</v>
       </c>
       <c r="U16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
@@ -2305,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2317,32 +2321,32 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>30</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>30</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -2359,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>7</v>
@@ -2377,13 +2381,13 @@
         <v>10</v>
       </c>
       <c r="V17" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X17" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="5">
         <v>0</v>
@@ -2392,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2404,73 +2408,73 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="5">
         <v>10</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="5">
-        <v>20</v>
-      </c>
       <c r="V18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X18" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -2479,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -2491,13 +2495,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2512,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2533,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -2548,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="U19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
         <v>0</v>
@@ -2563,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2578,16 +2582,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2602,7 +2606,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -2620,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -2635,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="U20" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V20" s="5">
         <v>0</v>
@@ -2653,7 +2657,7 @@
         <v>-15</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2665,65 +2669,65 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>50</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>30</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="5">
         <v>20</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
       <c r="V21" s="5">
         <v>0</v>
       </c>
@@ -2737,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2752,84 +2756,171 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
+        <v>561</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
         <v>580</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>50</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="4" t="s">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB23" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CD084-49BB-4EA3-AFC5-A2D54FF2033F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15A079-9948-4EB4-9085-CA6FD1F0F4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1680" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -899,7 +899,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15A079-9948-4EB4-9085-CA6FD1F0F4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA532B50-B299-44EE-8014-004CAA653D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1680" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2025" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="99">
   <si>
     <t>desc</t>
   </si>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>すっぱいラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_butter</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -899,7 +903,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1301,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1388,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1475,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1562,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1685,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="V9" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
@@ -1736,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1832,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -1913,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -2000,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -2087,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -2171,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2258,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="J16" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2366,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>7</v>
@@ -2432,7 +2436,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2498,10 +2502,10 @@
         <v>531</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2519,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2606,7 +2610,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -2693,7 +2697,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -2783,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -2870,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA532B50-B299-44EE-8014-004CAA653D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109AFC3E-DEF3-47FC-9A13-731CD4013CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2025" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -162,13 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;コクのあるクッキー&lt;/color&gt;が食べたいなぁ</t>
-    <rPh sb="33" eb="34">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Orange</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,6 +488,13 @@
   </si>
   <si>
     <t>rusk_butter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ねこクッキー&lt;/color&gt;が食べたいなぁ</t>
+    <rPh sb="30" eb="31">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -903,7 +903,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -942,7 +942,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -990,28 +990,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1305,25 +1305,25 @@
         <v>30</v>
       </c>
       <c r="J5" s="3">
+        <v>60</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="T6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -1443,7 +1443,7 @@
         <v>-20</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="5">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -1548,7 +1548,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1653,28 +1653,28 @@
         <v>30</v>
       </c>
       <c r="J9" s="3">
+        <v>70</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="Q9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>7</v>
@@ -1704,7 +1704,7 @@
         <v>-15</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>7</v>
@@ -1965,7 +1965,7 @@
         <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>7</v>
@@ -2052,7 +2052,7 @@
         <v>-10</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>7</v>
@@ -2139,7 +2139,7 @@
         <v>-20</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="J16" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>509</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -2436,34 +2436,34 @@
         <v>30</v>
       </c>
       <c r="J18" s="3">
+        <v>60</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="S18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>531</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>532</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -2661,7 +2661,7 @@
         <v>-15</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>533</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -2748,7 +2748,7 @@
         <v>-15</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>561</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -3026,28 +3026,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>1010</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>7</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="7">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>7</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>7</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>7</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -4240,16 +4240,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
@@ -4273,7 +4273,7 @@
         <v>-30</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -4328,16 +4328,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>7</v>
@@ -4361,7 +4361,7 @@
         <v>-30</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -4449,7 +4449,7 @@
         <v>-30</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -5788,7 +5788,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB39" s="5">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB40" s="5">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB42" s="5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB43" s="5">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB44" s="5">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB45" s="5">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB46" s="5">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB47" s="5">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB49" s="5">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB50" s="5">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -7457,28 +7457,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109AFC3E-DEF3-47FC-9A13-731CD4013CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCCDF4-6EF8-424E-9424-414EBF4CF4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="2610" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2382,10 +2382,10 @@
         <v>7</v>
       </c>
       <c r="U17" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V17" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W17" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCCDF4-6EF8-424E-9424-414EBF4CF4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5BBB1-53AD-4394-A53C-1D6ABD2AACB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2610" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="101">
   <si>
     <t>desc</t>
   </si>
@@ -495,6 +495,14 @@
     <rPh sb="30" eb="31">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrangeGlass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -900,7 +908,7 @@
   </sheetPr>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
@@ -2942,10 +2950,10 @@
   </sheetPr>
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3679,13 +3687,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -3694,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
@@ -3715,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>7</v>
@@ -3727,10 +3735,10 @@
         <v>7</v>
       </c>
       <c r="U9" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V9" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W9" s="7">
         <v>0</v>
@@ -3767,22 +3775,22 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>30</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
       <c r="J10" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -3806,13 +3814,13 @@
         <v>78</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="U10" s="5">
         <v>30</v>
@@ -3821,16 +3829,16 @@
         <v>20</v>
       </c>
       <c r="W10" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="X10" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="Y10" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="Z10" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>58</v>
@@ -3855,22 +3863,22 @@
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3">
         <v>30</v>
       </c>
-      <c r="H11" s="3">
-        <v>10</v>
-      </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -3891,10 +3899,10 @@
         <v>79</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>7</v>
@@ -3906,10 +3914,10 @@
         <v>100</v>
       </c>
       <c r="V11" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="W11" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
@@ -3943,7 +3951,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -3958,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -3976,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -3991,7 +3999,7 @@
         <v>7</v>
       </c>
       <c r="U12" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V12" s="5">
         <v>0</v>
@@ -4006,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>57</v>
@@ -4031,7 +4039,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -4064,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>7</v>
@@ -4079,10 +4087,10 @@
         <v>7</v>
       </c>
       <c r="U13" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="W13" s="5">
         <v>0</v>
@@ -4094,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>58</v>
@@ -4134,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -4207,7 +4215,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -4225,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -4243,13 +4251,13 @@
         <v>30</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
@@ -4258,13 +4266,13 @@
         <v>10</v>
       </c>
       <c r="V15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W15" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
@@ -4295,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -4313,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -4340,7 +4348,7 @@
         <v>48</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="U16" s="5">
         <v>15</v>
@@ -4355,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="Y16" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="Z16" s="5">
         <v>-30</v>
@@ -4401,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -4489,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -4504,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -4519,7 +4527,7 @@
         <v>7</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>
@@ -4534,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>57</v>
@@ -4577,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -4592,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -4607,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V19" s="5">
         <v>0</v>
@@ -4622,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>58</v>
@@ -4665,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -4680,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -4695,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="U20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V20" s="5">
         <v>0</v>
@@ -4710,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>59</v>
@@ -4741,17 +4749,17 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>60</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>40</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
@@ -4768,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -4783,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="U21" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V21" s="5">
         <v>0</v>
@@ -4798,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>57</v>
@@ -4838,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -4926,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -6325,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -6337,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -6407,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -6425,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -6528,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>7</v>
@@ -6543,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="U41" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V41" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5BBB1-53AD-4394-A53C-1D6ABD2AACB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D273AF8-8167-45FD-8745-5165F889A086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2370" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -908,10 +908,10 @@
   </sheetPr>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -2950,7 +2950,7 @@
   </sheetPr>
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D273AF8-8167-45FD-8745-5165F889A086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC32038-EDE1-4792-A6A5-ABF89D245CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2370" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>48</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>7</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>51</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC32038-EDE1-4792-A6A5-ABF89D245CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23A72F-3752-443C-9EC8-625A5FC2CC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2025" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="113">
   <si>
     <t>desc</t>
   </si>
@@ -503,6 +503,54 @@
   </si>
   <si>
     <t>Lavender</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget_sliced</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スライスしたパン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget_orange_sliced</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スライスしたパン＜オレンジ＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget_blueberry_sliced</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スライスしたパン＜ブルーベリー＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget_orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パン＜オレンジ＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget_blueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パン＜ブルーベリー＞</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -906,12 +954,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomLeft" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1072,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A23" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A29" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1478,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>30</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
       <c r="J7" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1520,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
@@ -2354,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
         <v>60</v>
@@ -2507,10 +2555,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -2522,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2531,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2582,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2594,10 +2642,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -2609,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2618,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -2636,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -2651,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="U20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5">
         <v>0</v>
@@ -2666,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2681,31 +2729,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>50</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>30</v>
-      </c>
       <c r="J21" s="3">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -2723,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -2738,7 +2786,7 @@
         <v>7</v>
       </c>
       <c r="U21" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
         <v>0</v>
@@ -2753,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2768,10 +2816,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -2783,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -2792,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K22" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -2843,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2855,84 +2903,606 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
+        <v>526</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>30</v>
+      </c>
+      <c r="J23" s="3">
+        <v>120</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>527</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>30</v>
+      </c>
+      <c r="J24" s="3">
+        <v>120</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>531</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>40</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>532</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>30</v>
+      </c>
+      <c r="J26" s="3">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="5">
+        <v>10</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>533</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>50</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>30</v>
+      </c>
+      <c r="J27" s="3">
+        <v>50</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="5">
+        <v>20</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>561</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>50</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
         <v>580</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>50</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>40</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="4" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB29" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23A72F-3752-443C-9EC8-625A5FC2CC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E447B-A51E-4DE0-BF8B-9DE469CCE19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="129">
   <si>
     <t>desc</t>
   </si>
@@ -431,10 +431,6 @@
   </si>
   <si>
     <t>オレンジねこクッキー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ねこクッキー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -551,6 +547,83 @@
   </si>
   <si>
     <t>パン＜ブルーベリー＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>financier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィナンシェ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>financier_Orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィナンシェ＜オレンジ＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>egg_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たまごのねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kogashi_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焦がしねこクッキー</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねこクッキー系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shishamo_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ししゃもクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_milfiyu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごミルフィーユ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strange_tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな草ティー</t>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lavender_tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダティー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -954,12 +1027,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AA22" sqref="AA22"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1145,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A29" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1325,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1472,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>38</v>
@@ -1730,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>7</v>
@@ -1760,7 +1833,7 @@
         <v>-15</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -2210,10 +2283,10 @@
         <v>500</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2231,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2282,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2381,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -2396,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -2423,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -2438,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="U17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
         <v>0</v>
@@ -2456,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2468,16 +2541,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2486,10 +2559,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>60</v>
@@ -2510,31 +2583,31 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -2543,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -2555,10 +2628,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -2570,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2597,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -2612,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V19" s="5">
         <v>0</v>
@@ -2630,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2642,22 +2715,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2666,7 +2739,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -2684,31 +2757,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X20" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="5">
         <v>0</v>
@@ -2717,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2729,10 +2802,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -2744,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -2771,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -2786,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="U21" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V21" s="5">
         <v>0</v>
@@ -2804,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2816,10 +2889,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -2891,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2903,10 +2976,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -2978,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -2990,10 +3063,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -3011,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3">
         <v>120</v>
@@ -3065,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -3077,10 +3150,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -3092,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -3101,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3152,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -3164,10 +3237,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -3179,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -3188,7 +3261,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -3206,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>7</v>
@@ -3221,7 +3294,7 @@
         <v>7</v>
       </c>
       <c r="U26" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V26" s="5">
         <v>0</v>
@@ -3236,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -3251,22 +3324,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -3275,7 +3348,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="3">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -3293,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>7</v>
@@ -3308,7 +3381,7 @@
         <v>7</v>
       </c>
       <c r="U27" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V27" s="5">
         <v>0</v>
@@ -3323,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="Z27" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -3338,10 +3411,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -3353,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -3362,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K28" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -3413,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -3425,13 +3498,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -3446,63 +3519,759 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" s="5">
+        <v>10</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>533</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>30</v>
+      </c>
+      <c r="J30" s="3">
+        <v>50</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" s="5">
+        <v>20</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>561</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>50</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>580</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>50</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>40</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U29" s="5">
-        <v>0</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
-      <c r="W29" s="5">
-        <v>0</v>
-      </c>
-      <c r="X29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB29" s="5">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>585</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>50</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>30</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>590</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>60</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
+        <v>0</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>591</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>60</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>600</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>60</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>601</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>40</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3521,7 +4290,7 @@
   <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -4469,10 +5238,10 @@
         <v>79</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>7</v>
@@ -4554,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -4642,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>61</v>
@@ -7106,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>7</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E447B-A51E-4DE0-BF8B-9DE469CCE19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B31487-4585-4222-AA0B-1104EF5298FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3">
         <v>20</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B31487-4585-4222-AA0B-1104EF5298FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2394BB22-49BA-4156-AA2E-C9C18ECE3CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,9 +1030,9 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2394BB22-49BA-4156-AA2E-C9C18ECE3CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FB0DC-86A5-40C3-BB6B-E2733927F8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FB0DC-86A5-40C3-BB6B-E2733927F8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DF4DC-88E2-4424-9E7B-18B13C495A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,9 +1030,9 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DF4DC-88E2-4424-9E7B-18B13C495A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A0F3F-A9BC-4EB3-A891-EDBF277F179C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,9 +1030,9 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>26</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J9" s="3">
         <v>70</v>
@@ -1806,7 +1806,7 @@
         <v>89</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>7</v>
@@ -1815,13 +1815,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
         <v>10</v>
       </c>
-      <c r="V9" s="5">
-        <v>30</v>
-      </c>
       <c r="W9" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="X9" s="5">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>81</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>84</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A0F3F-A9BC-4EB3-A891-EDBF277F179C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CB8F6-D176-4ED4-944A-0C06B3F6CA0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3">
         <v>20</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CB8F6-D176-4ED4-944A-0C06B3F6CA0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D453C810-A538-4E5E-9B27-AF80F01697DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2055" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="131">
   <si>
     <t>desc</t>
   </si>
@@ -143,16 +143,6 @@
   <si>
     <t>&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;が食べたいなぁ。</t>
     <rPh sb="27" eb="28">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;さくさくしたお菓子&lt;/color&gt;が食べたいなぁ</t>
-    <rPh sb="22" eb="24">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -624,6 +614,21 @@
   </si>
   <si>
     <t>ラベンダティー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュートリアル　クッキー１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本パンケーキ</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1027,12 +1032,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1119,33 +1124,33 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1224,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -1242,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1260,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1311,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -1329,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1398,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1416,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1452,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -1503,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -1539,40 +1544,40 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="T6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V6" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W6" s="5">
+        <v>30</v>
+      </c>
+      <c r="X6" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="5">
         <v>5</v>
-      </c>
-      <c r="X6" s="5">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>3</v>
       </c>
       <c r="Z6" s="5">
         <v>-20</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB6" s="5">
         <v>1</v>
@@ -1590,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1626,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -1641,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="U7" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
@@ -1656,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="5">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>26</v>
@@ -1677,7 +1682,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1764,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1800,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>7</v>
@@ -1815,13 +1820,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W9" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="X9" s="5">
         <v>0</v>
@@ -1833,7 +1838,7 @@
         <v>-15</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1851,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1920,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1938,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2007,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -2025,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2061,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -2094,7 +2099,7 @@
         <v>-20</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -2112,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2148,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>7</v>
@@ -2181,7 +2186,7 @@
         <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -2199,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2235,16 +2240,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>7</v>
@@ -2268,7 +2273,7 @@
         <v>-20</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -2280,13 +2285,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2295,55 +2300,55 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>35</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="5">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5">
         <v>30</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>60</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
       <c r="W15" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="X15" s="5">
         <v>0</v>
@@ -2355,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2367,13 +2372,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2388,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <v>60</v>
@@ -2412,16 +2417,16 @@
         <v>7</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U16" s="5">
         <v>0</v>
@@ -2442,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2454,10 +2459,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -2475,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3">
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -2529,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2541,10 +2546,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -2559,7 +2564,7 @@
         <v>30</v>
       </c>
       <c r="H18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -2568,7 +2573,7 @@
         <v>60</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -2616,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -2628,10 +2633,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
@@ -2646,10 +2651,10 @@
         <v>30</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>60</v>
@@ -2670,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -2685,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="U19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
         <v>0</v>
@@ -2700,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -2715,16 +2720,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2757,40 +2762,40 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="5">
         <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2802,28 +2807,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
         <v>60</v>
@@ -2844,40 +2849,40 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U21" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V21" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W21" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X21" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y21" s="5">
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2889,10 +2894,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -2904,16 +2909,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -2931,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>7</v>
@@ -2946,7 +2951,7 @@
         <v>7</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V22" s="5">
         <v>0</v>
@@ -2964,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2976,10 +2981,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -2991,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>50</v>
@@ -3051,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -3063,10 +3068,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -3084,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>50</v>
@@ -3138,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -3150,10 +3155,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -3165,16 +3170,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3225,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -3237,10 +3242,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -3258,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -3312,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -3324,10 +3329,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -3348,7 +3353,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -3399,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -3411,10 +3416,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -3426,17 +3431,17 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3">
         <v>50</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>40</v>
-      </c>
       <c r="K28" s="3">
         <v>0</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -3498,10 +3503,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -3519,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -3540,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>7</v>
@@ -3555,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="U29" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V29" s="5">
         <v>0</v>
@@ -3570,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="Z29" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -3585,7 +3590,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>90</v>
@@ -3594,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -3609,7 +3614,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -3627,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>7</v>
@@ -3642,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="U30" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V30" s="5">
         <v>0</v>
@@ -3660,7 +3665,7 @@
         <v>-15</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -3672,34 +3677,34 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K31" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -3714,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>7</v>
@@ -3729,7 +3734,7 @@
         <v>7</v>
       </c>
       <c r="U31" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V31" s="5">
         <v>0</v>
@@ -3744,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="Z31" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -3759,13 +3764,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3774,20 +3779,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>80</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>50</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>40</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -3846,13 +3851,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3867,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -3921,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -3933,10 +3938,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -3948,19 +3953,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K34" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -4008,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -4020,10 +4025,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -4041,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -4095,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -4107,10 +4112,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -4122,20 +4127,20 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
         <v>60</v>
       </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>60</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -4194,84 +4199,171 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
+        <v>600</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>60</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
         <v>601</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>50</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>40</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>50</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>40</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB37" s="5">
+      <c r="AB38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4325,7 +4417,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -4373,28 +4465,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4478,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -4493,7 +4585,7 @@
         <v>1010</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -4532,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>7</v>
@@ -4565,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="7">
         <v>0</v>
@@ -4620,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -4653,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -4708,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -4741,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -4757,7 +4849,7 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -4796,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -4829,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -4884,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -4917,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -4972,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -5005,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -5023,7 +5115,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -5059,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>7</v>
@@ -5092,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -5147,19 +5239,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="R10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10" s="5">
         <v>30</v>
@@ -5180,7 +5272,7 @@
         <v>-20</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -5235,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>7</v>
@@ -5268,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -5287,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>-30</v>
@@ -5323,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -5356,7 +5448,7 @@
         <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -5411,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>7</v>
@@ -5444,7 +5536,7 @@
         <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -5532,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -5551,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -5587,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>7</v>
@@ -5620,7 +5712,7 @@
         <v>-30</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -5675,19 +5767,19 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U16" s="5">
         <v>15</v>
@@ -5708,7 +5800,7 @@
         <v>-30</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -5763,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -5796,7 +5888,7 @@
         <v>-30</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -5815,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -5851,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -5884,7 +5976,7 @@
         <v>-50</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -5939,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -5972,7 +6064,7 @@
         <v>-50</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -6027,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -6060,7 +6152,7 @@
         <v>-50</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -6079,7 +6171,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -6115,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -6148,7 +6240,7 @@
         <v>-30</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -6236,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -6324,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -6343,7 +6435,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -6412,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -6500,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -6588,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -6607,7 +6699,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -6676,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -6764,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -6852,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -6871,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -6940,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -7028,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -7116,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -7135,7 +7227,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -7204,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -7292,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -7380,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -7399,7 +7491,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -7468,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -7556,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -7644,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -7663,7 +7755,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -7732,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB39" s="5">
         <v>0</v>
@@ -7820,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB40" s="5">
         <v>0</v>
@@ -7875,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>7</v>
@@ -7908,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -7927,7 +8019,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -7996,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="5">
         <v>0</v>
@@ -8084,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB43" s="5">
         <v>0</v>
@@ -8172,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB44" s="5">
         <v>0</v>
@@ -8191,7 +8283,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -8260,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB45" s="5">
         <v>0</v>
@@ -8348,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB46" s="5">
         <v>0</v>
@@ -8436,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB47" s="5">
         <v>0</v>
@@ -8455,7 +8547,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -8524,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -8612,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB49" s="5">
         <v>0</v>
@@ -8700,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB50" s="5">
         <v>0</v>
@@ -8756,7 +8848,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -8804,28 +8896,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8909,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -8927,7 +9019,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -8996,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -9014,7 +9106,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -9083,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -9101,7 +9193,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -9170,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -9188,7 +9280,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -9224,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -9257,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -9275,7 +9367,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -9344,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D453C810-A538-4E5E-9B27-AF80F01697DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F4433-EC8E-4163-8C9E-6268DB2081AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2055" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3315" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="139">
   <si>
     <t>desc</t>
   </si>
@@ -131,13 +131,6 @@
   </si>
   <si>
     <t>grape_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;ぶどうクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="31" eb="32">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -628,6 +621,60 @@
     <t>基本パンケーキ</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;アイスをのせたクレープ&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="35" eb="36">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CreamCheese</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ちょっと豪華なクレープ&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="19" eb="21">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本アイスクリーム</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Raspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blackcurrant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;むらさきの甘酸っぱいクッキー&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="20" eb="22">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -666,7 +713,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +738,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -704,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -715,6 +768,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1032,12 +1089,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z21" sqref="Z21"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1124,33 +1181,33 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A41" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -1229,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -1247,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1316,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -1334,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1352,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1403,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1421,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1457,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -1508,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -1517,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1526,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1544,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="T6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" s="5">
         <v>10</v>
@@ -1577,7 +1634,7 @@
         <v>-20</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" s="5">
         <v>1</v>
@@ -1595,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1604,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1613,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1631,40 +1688,40 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="U7" s="5">
         <v>0</v>
       </c>
       <c r="V7" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W7" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z7" s="5">
         <v>-20</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -1682,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1751,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -1769,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1805,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>7</v>
@@ -1838,7 +1895,7 @@
         <v>-15</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1856,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1925,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1943,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2012,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -2030,7 +2087,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2066,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>7</v>
@@ -2084,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
@@ -2099,7 +2156,7 @@
         <v>-20</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -2111,58 +2168,58 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>105</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>80</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>85</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>60</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="R13" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>7</v>
@@ -2171,111 +2228,111 @@
         <v>0</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="5">
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:28" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>80</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>60</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="5">
-        <v>5</v>
-      </c>
-      <c r="V14" s="5">
-        <v>10</v>
-      </c>
-      <c r="W14" s="5">
+      <c r="B14" s="10">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>85</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>40</v>
       </c>
-      <c r="X14" s="5">
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>70</v>
+      </c>
+      <c r="L14" s="10">
+        <v>30</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>25</v>
+      </c>
+      <c r="W14" s="11">
         <v>20</v>
       </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>-20</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB14" s="5">
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>-40</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2285,13 +2342,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2300,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2312,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -2327,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>7</v>
@@ -2342,25 +2399,25 @@
         <v>7</v>
       </c>
       <c r="U15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
         <v>-20</v>
       </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>0</v>
-      </c>
       <c r="AA15" s="4" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2372,13 +2429,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2387,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2396,11 +2453,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>60</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
@@ -2414,40 +2471,40 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U16" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W16" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X16" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="5">
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2459,13 +2516,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>501</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2474,55 +2531,55 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>35</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="5">
+        <v>10</v>
+      </c>
+      <c r="V17" s="5">
         <v>30</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>50</v>
-      </c>
-      <c r="J17" s="3">
-        <v>60</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
       <c r="W17" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
@@ -2534,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2546,13 +2603,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>502</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2561,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2570,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -2588,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -2603,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>
@@ -2621,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -2633,13 +2690,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2651,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -2678,16 +2735,16 @@
         <v>7</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U19" s="5">
         <v>0</v>
@@ -2720,10 +2777,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -2741,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J20" s="3">
         <v>60</v>
@@ -2762,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -2792,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2807,16 +2864,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2828,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>60</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -2849,40 +2906,40 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="5">
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2894,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -2909,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -2936,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>7</v>
@@ -2951,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="U22" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
         <v>0</v>
@@ -2969,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2981,10 +3038,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -2996,16 +3053,16 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3023,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>7</v>
@@ -3053,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="Z23" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -3068,22 +3125,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -3092,7 +3149,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3110,40 +3167,40 @@
         <v>0</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="U24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X24" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y24" s="5">
         <v>0</v>
       </c>
       <c r="Z24" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -3155,10 +3212,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -3170,16 +3227,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3197,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>7</v>
@@ -3212,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="U25" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V25" s="5">
         <v>0</v>
@@ -3230,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -3242,10 +3299,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -3317,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -3329,10 +3386,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -3344,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -3404,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -3416,10 +3473,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -3431,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3">
         <v>50</v>
@@ -3491,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -3503,10 +3560,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -3518,17 +3575,17 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>50</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>40</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -3578,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -3590,10 +3647,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -3605,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -3614,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -3632,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>7</v>
@@ -3647,7 +3704,7 @@
         <v>7</v>
       </c>
       <c r="U30" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V30" s="5">
         <v>0</v>
@@ -3662,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -3677,22 +3734,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3719,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>7</v>
@@ -3734,7 +3791,7 @@
         <v>7</v>
       </c>
       <c r="U31" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V31" s="5">
         <v>0</v>
@@ -3749,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="Z31" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -3764,10 +3821,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -3779,67 +3836,67 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>50</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>40</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>50</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -3851,13 +3908,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3872,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -3893,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>7</v>
@@ -3908,7 +3965,7 @@
         <v>7</v>
       </c>
       <c r="U33" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V33" s="5">
         <v>0</v>
@@ -3923,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="Z33" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -3938,16 +3995,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -3962,7 +4019,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -3980,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>7</v>
@@ -3995,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="U34" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V34" s="5">
         <v>0</v>
@@ -4010,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -4025,10 +4082,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -4040,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -4052,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -4100,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -4112,13 +4169,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -4127,19 +4184,19 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -4187,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -4199,10 +4256,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -4214,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
         <v>30</v>
       </c>
-      <c r="H37" s="3">
-        <v>60</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
       <c r="J37" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -4274,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -4286,84 +4343,345 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
+        <v>590</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>75</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>60</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>591</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>75</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>60</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>600</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>60</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>60</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
         <v>601</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>50</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>40</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>50</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>40</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="5">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB38" s="5">
+      <c r="AB41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +4700,7 @@
   <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -4417,7 +4735,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -4465,28 +4783,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4570,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -4585,7 +4903,7 @@
         <v>1010</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -4624,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>7</v>
@@ -4657,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB3" s="7">
         <v>0</v>
@@ -4712,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -4745,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -4800,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -4833,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -4849,7 +5167,7 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -4888,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -4921,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -4976,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -5009,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -5064,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -5097,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -5115,7 +5433,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -5151,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>7</v>
@@ -5184,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -5239,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="R10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U10" s="5">
         <v>30</v>
@@ -5272,7 +5590,7 @@
         <v>-20</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -5327,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>7</v>
@@ -5360,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -5379,7 +5697,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>-30</v>
@@ -5415,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>7</v>
@@ -5448,7 +5766,7 @@
         <v>-10</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -5503,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>7</v>
@@ -5536,7 +5854,7 @@
         <v>-20</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -5624,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -5643,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -5679,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>7</v>
@@ -5712,7 +6030,7 @@
         <v>-30</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -5767,19 +6085,19 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U16" s="5">
         <v>15</v>
@@ -5800,7 +6118,7 @@
         <v>-30</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -5855,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>7</v>
@@ -5888,7 +6206,7 @@
         <v>-30</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -5907,7 +6225,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -5943,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -5976,7 +6294,7 @@
         <v>-50</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -6031,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>7</v>
@@ -6064,7 +6382,7 @@
         <v>-50</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -6119,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -6152,7 +6470,7 @@
         <v>-50</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -6171,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -6207,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -6240,7 +6558,7 @@
         <v>-30</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -6328,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -6416,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -6435,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -6504,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -6592,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -6680,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -6699,7 +7017,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -6768,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -6856,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -6944,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -6963,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -7032,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -7120,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -7208,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -7227,7 +7545,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -7296,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -7384,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -7472,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -7491,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -7560,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -7648,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -7736,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -7755,7 +8073,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -7824,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB39" s="5">
         <v>0</v>
@@ -7912,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB40" s="5">
         <v>0</v>
@@ -7967,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>7</v>
@@ -8000,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -8019,7 +8337,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -8088,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB42" s="5">
         <v>0</v>
@@ -8176,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB43" s="5">
         <v>0</v>
@@ -8264,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB44" s="5">
         <v>0</v>
@@ -8283,7 +8601,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -8352,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB45" s="5">
         <v>0</v>
@@ -8440,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB46" s="5">
         <v>0</v>
@@ -8528,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB47" s="5">
         <v>0</v>
@@ -8547,7 +8865,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -8616,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -8704,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB49" s="5">
         <v>0</v>
@@ -8792,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB50" s="5">
         <v>0</v>
@@ -8848,7 +9166,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -8896,28 +9214,28 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9001,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -9019,7 +9337,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -9088,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -9106,7 +9424,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -9175,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -9193,7 +9511,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -9262,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -9280,7 +9598,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -9316,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
@@ -9349,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -9367,7 +9685,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -9436,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F4433-EC8E-4163-8C9E-6268DB2081AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC56DFD-A859-404A-B552-86C525029F49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3315" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="141">
   <si>
     <t>desc</t>
   </si>
@@ -676,6 +676,14 @@
     <rPh sb="38" eb="39">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cherry_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらんぼクッキー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1089,12 +1097,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomLeft" activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1215,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A41" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -3299,10 +3307,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -3314,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -3374,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -3386,10 +3394,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -3401,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>50</v>
@@ -3461,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -3473,10 +3481,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -3494,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28" s="3">
         <v>50</v>
@@ -3548,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AB28" s="5">
         <v>0</v>
@@ -3560,10 +3568,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -3575,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J29" s="3">
         <v>50</v>
@@ -3635,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -3647,10 +3655,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -3668,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>50</v>
@@ -3722,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AB30" s="5">
         <v>0</v>
@@ -3734,10 +3742,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
@@ -3809,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB31" s="5">
         <v>0</v>
@@ -3821,10 +3829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -3836,17 +3844,17 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>30</v>
+      </c>
+      <c r="J32" s="3">
         <v>50</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>40</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -3908,10 +3916,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -3929,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -3950,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>7</v>
@@ -3965,7 +3973,7 @@
         <v>7</v>
       </c>
       <c r="U33" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V33" s="5">
         <v>0</v>
@@ -3980,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="Z33" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -3995,16 +4003,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -4019,7 +4027,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -4037,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>7</v>
@@ -4052,7 +4060,7 @@
         <v>7</v>
       </c>
       <c r="U34" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V34" s="5">
         <v>0</v>
@@ -4070,7 +4078,7 @@
         <v>-15</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -4082,34 +4090,34 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K35" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -4124,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>7</v>
@@ -4139,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="U35" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V35" s="5">
         <v>0</v>
@@ -4154,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -4169,13 +4177,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -4184,20 +4192,20 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
+        <v>80</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
         <v>50</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>40</v>
-      </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB36" s="5">
         <v>0</v>
@@ -4256,13 +4264,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -4277,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -4331,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="AB37" s="5">
         <v>0</v>
@@ -4343,10 +4351,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
@@ -4358,19 +4366,19 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K38" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -4418,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AB38" s="5">
         <v>0</v>
@@ -4430,10 +4438,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -4451,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -4505,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AB39" s="5">
         <v>0</v>
@@ -4517,10 +4525,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -4532,20 +4540,20 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>10</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
         <v>60</v>
       </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>60</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
       <c r="L40" s="3">
         <v>0</v>
       </c>
@@ -4592,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AB40" s="5">
         <v>0</v>
@@ -4604,84 +4612,171 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
+        <v>600</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3">
+        <v>60</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>60</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
         <v>601</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>50</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>40</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="4" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AB41" s="5">
+      <c r="AB42" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC56DFD-A859-404A-B552-86C525029F49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBFB89-3D2B-4268-8A29-CA5E2751B384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1099,10 +1099,10 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AA27" sqref="AA27"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="U18" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBFB89-3D2B-4268-8A29-CA5E2751B384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D9CD3-4116-4E0C-89E1-6B244F0C4595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="140">
   <si>
     <t>desc</t>
   </si>
@@ -633,10 +633,6 @@
     <rPh sb="35" eb="36">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CreamCheese</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1102,7 +1098,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1702,13 +1698,13 @@
         <v>71</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="U7" s="5">
         <v>0</v>
@@ -1729,7 +1725,7 @@
         <v>-20</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -2221,13 +2217,13 @@
         <v>46</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>7</v>
@@ -2236,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W13" s="5">
         <v>10</v>
       </c>
       <c r="X13" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="5">
         <v>0</v>
@@ -2251,7 +2247,7 @@
         <v>-30</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -2686,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB18" s="5">
         <v>0</v>
@@ -3310,7 +3306,7 @@
         <v>511</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -3382,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D9CD3-4116-4E0C-89E1-6B244F0C4595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E689E2-7D3F-4F01-A625-8AC60711C788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4395" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E689E2-7D3F-4F01-A625-8AC60711C788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F0A2B-9470-4416-8506-79B3868D20F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4395" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="140">
   <si>
     <t>desc</t>
   </si>
@@ -1095,10 +1095,10 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>7</v>
@@ -2664,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>
@@ -4788,12 +4788,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A50" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A3:A53" si="0">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="B3" s="6">
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
@@ -5575,10 +5575,10 @@
         <v>7</v>
       </c>
       <c r="U9" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V9" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="W9" s="7">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" ref="B10:B53" si="1">INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
         <v>1211</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5630,7 +5630,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>59</v>
       </c>
       <c r="U10" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V10" s="5">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1212</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5781,7 +5781,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1213</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -5869,7 +5869,7 @@
         <v>1011</v>
       </c>
       <c r="B13" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1214</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5957,7 +5957,7 @@
         <v>1012</v>
       </c>
       <c r="B14" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1215</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -6045,7 +6045,7 @@
         <v>1013</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" ref="B15:B50" si="1">INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1216</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>46</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>7</v>
@@ -6634,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="V21" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>7</v>
@@ -6719,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V22" s="5">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>7</v>
       </c>
       <c r="U36" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V36" s="5">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>7</v>
       </c>
       <c r="U41" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="V41" s="5">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -9204,6 +9204,270 @@
         <v>57</v>
       </c>
       <c r="AB50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>1049</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="1"/>
+        <v>1252</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>60</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>20</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>50</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U51" s="5">
+        <v>30</v>
+      </c>
+      <c r="V51" s="5">
+        <v>0</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+      <c r="X51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="1"/>
+        <v>1253</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>80</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>20</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>70</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U52" s="5">
+        <v>30</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+      <c r="X52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>1051</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="1"/>
+        <v>1254</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>80</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>40</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U53" s="5">
+        <v>30</v>
+      </c>
+      <c r="V53" s="5">
+        <v>0</v>
+      </c>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+      <c r="X53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB53" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F0A2B-9470-4416-8506-79B3868D20F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63936231-C295-4DF9-8258-BC09AC100151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="149">
   <si>
     <t>desc</t>
   </si>
@@ -680,6 +680,42 @@
   </si>
   <si>
     <t>さくらんぼクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>topping06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>topping07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>topping08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>topping09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JewerySuger</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1093,12 +1129,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB42"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1118,12 +1154,12 @@
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="26" width="7.140625" customWidth="1"/>
-    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+    <col min="20" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="34" width="7.140625" customWidth="1"/>
+    <col min="35" max="35" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,31 +1221,55 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
@@ -1271,17 +1331,17 @@
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
+      <c r="U2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y2" s="5">
         <v>0</v>
@@ -1289,14 +1349,38 @@
       <c r="Z2" s="5">
         <v>0</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AJ2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1358,17 +1442,17 @@
       <c r="T3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
+      <c r="U3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y3" s="5">
         <v>0</v>
@@ -1376,14 +1460,38 @@
       <c r="Z3" s="5">
         <v>0</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AJ3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1445,17 +1553,17 @@
       <c r="T4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
+      <c r="U4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y4" s="5">
         <v>0</v>
@@ -1463,14 +1571,38 @@
       <c r="Z4" s="5">
         <v>0</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AJ4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1532,17 +1664,17 @@
       <c r="T5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
+      <c r="U5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y5" s="5">
         <v>0</v>
@@ -1550,14 +1682,38 @@
       <c r="Z5" s="5">
         <v>0</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AJ5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1611,7 +1767,7 @@
         <v>37</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>36</v>
@@ -1619,32 +1775,56 @@
       <c r="T6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="5">
         <v>10</v>
       </c>
-      <c r="V6" s="5">
+      <c r="Z6" s="5">
         <v>15</v>
       </c>
-      <c r="W6" s="5">
+      <c r="AA6" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="5">
         <v>30</v>
       </c>
-      <c r="X6" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="5">
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
         <v>-20</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AJ6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1706,32 +1886,56 @@
       <c r="T7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
+      <c r="U7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
         <v>5</v>
       </c>
-      <c r="W7" s="5">
+      <c r="AA7" s="5">
         <v>10</v>
       </c>
-      <c r="X7" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="AB7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="5">
         <v>50</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
         <v>-20</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AJ7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1793,17 +1997,17 @@
       <c r="T8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0</v>
+      <c r="U8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y8" s="5">
         <v>0</v>
@@ -1811,14 +2015,38 @@
       <c r="Z8" s="5">
         <v>0</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AJ8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1880,32 +2108,56 @@
       <c r="T9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="5">
         <v>5</v>
       </c>
-      <c r="V9" s="5">
+      <c r="Z9" s="5">
         <v>25</v>
       </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
         <v>-15</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AJ9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1967,17 +2219,17 @@
       <c r="T10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>0</v>
+      <c r="U10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
@@ -1985,14 +2237,38 @@
       <c r="Z10" s="5">
         <v>0</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AJ10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2054,17 +2330,17 @@
       <c r="T11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>0</v>
+      <c r="U11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y11" s="5">
         <v>0</v>
@@ -2072,14 +2348,38 @@
       <c r="Z11" s="5">
         <v>0</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AJ11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2112,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -2141,32 +2441,56 @@
       <c r="T12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="U12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
         <v>25</v>
       </c>
-      <c r="W12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5">
         <v>-20</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AJ12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2228,32 +2552,56 @@
       <c r="T13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="U13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
         <v>25</v>
       </c>
-      <c r="W13" s="5">
+      <c r="AA13" s="5">
         <v>10</v>
       </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5">
         <v>-30</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AJ13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2315,32 +2663,56 @@
       <c r="T14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
+      <c r="U14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
         <v>25</v>
       </c>
-      <c r="W14" s="11">
+      <c r="AA14" s="11">
         <v>20</v>
       </c>
-      <c r="X14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="11">
+      <c r="AB14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="11">
         <v>-40</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AI14" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AJ14" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2402,32 +2774,56 @@
       <c r="T15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0</v>
+      <c r="U15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
       </c>
       <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
         <v>-20</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AJ15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2489,32 +2885,56 @@
       <c r="T16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="5">
         <v>5</v>
       </c>
-      <c r="V16" s="5">
+      <c r="Z16" s="5">
         <v>10</v>
       </c>
-      <c r="W16" s="5">
+      <c r="AA16" s="5">
         <v>40</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AB16" s="5">
         <v>20</v>
       </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
+      <c r="AC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5">
         <v>-20</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AJ16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2576,32 +2996,56 @@
       <c r="T17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="5">
         <v>10</v>
       </c>
-      <c r="V17" s="5">
+      <c r="Z17" s="5">
         <v>30</v>
       </c>
-      <c r="W17" s="5">
+      <c r="AA17" s="5">
         <v>-20</v>
       </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AJ17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2663,32 +3107,56 @@
       <c r="T18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="5">
         <v>30</v>
       </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
       <c r="Z18" s="5">
         <v>0</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AJ18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2750,17 +3218,17 @@
       <c r="T19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
+      <c r="U19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
@@ -2768,14 +3236,38 @@
       <c r="Z19" s="5">
         <v>0</v>
       </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AJ19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2837,17 +3329,17 @@
       <c r="T20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
+      <c r="U20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y20" s="5">
         <v>0</v>
@@ -2855,14 +3347,38 @@
       <c r="Z20" s="5">
         <v>0</v>
       </c>
-      <c r="AA20" s="4" t="s">
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AJ20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2924,17 +3440,17 @@
       <c r="T21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
+      <c r="U21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y21" s="5">
         <v>0</v>
@@ -2942,14 +3458,38 @@
       <c r="Z21" s="5">
         <v>0</v>
       </c>
-      <c r="AA21" s="4" t="s">
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AJ21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3011,17 +3551,17 @@
       <c r="T22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
+      <c r="U22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y22" s="5">
         <v>0</v>
@@ -3029,14 +3569,38 @@
       <c r="Z22" s="5">
         <v>0</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AJ22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3098,32 +3662,56 @@
       <c r="T23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
+      <c r="U23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y23" s="5">
         <v>0</v>
       </c>
       <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
         <v>-20</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AI23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AJ23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3185,32 +3773,56 @@
       <c r="T24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="5">
         <v>10</v>
       </c>
-      <c r="V24" s="5">
+      <c r="Z24" s="5">
         <v>10</v>
       </c>
-      <c r="W24" s="5">
+      <c r="AA24" s="5">
         <v>10</v>
       </c>
-      <c r="X24" s="5">
+      <c r="AB24" s="5">
         <v>5</v>
       </c>
-      <c r="Y24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5">
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5">
         <v>-30</v>
       </c>
-      <c r="AA24" s="4" t="s">
+      <c r="AI24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AJ24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3272,32 +3884,56 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="5">
         <v>30</v>
       </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
       <c r="Z25" s="5">
         <v>0</v>
       </c>
-      <c r="AA25" s="4" t="s">
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AJ25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3359,17 +3995,17 @@
       <c r="T26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U26" s="5">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
+      <c r="U26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y26" s="5">
         <v>0</v>
@@ -3377,14 +4013,38 @@
       <c r="Z26" s="5">
         <v>0</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AJ26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3446,17 +4106,17 @@
       <c r="T27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="5">
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
-        <v>0</v>
+      <c r="U27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y27" s="5">
         <v>0</v>
@@ -3464,14 +4124,38 @@
       <c r="Z27" s="5">
         <v>0</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AJ27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3533,17 +4217,17 @@
       <c r="T28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="5">
-        <v>0</v>
-      </c>
-      <c r="V28" s="5">
-        <v>0</v>
-      </c>
-      <c r="W28" s="5">
-        <v>0</v>
-      </c>
-      <c r="X28" s="5">
-        <v>0</v>
+      <c r="U28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y28" s="5">
         <v>0</v>
@@ -3551,14 +4235,38 @@
       <c r="Z28" s="5">
         <v>0</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AJ28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3620,17 +4328,17 @@
       <c r="T29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U29" s="5">
-        <v>0</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
-      <c r="W29" s="5">
-        <v>0</v>
-      </c>
-      <c r="X29" s="5">
-        <v>0</v>
+      <c r="U29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y29" s="5">
         <v>0</v>
@@ -3638,14 +4346,38 @@
       <c r="Z29" s="5">
         <v>0</v>
       </c>
-      <c r="AA29" s="4" t="s">
+      <c r="AA29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AJ29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3707,17 +4439,17 @@
       <c r="T30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
+      <c r="U30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y30" s="5">
         <v>0</v>
@@ -3725,14 +4457,38 @@
       <c r="Z30" s="5">
         <v>0</v>
       </c>
-      <c r="AA30" s="4" t="s">
+      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AJ30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3794,17 +4550,17 @@
       <c r="T31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
+      <c r="U31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
@@ -3812,14 +4568,38 @@
       <c r="Z31" s="5">
         <v>0</v>
       </c>
-      <c r="AA31" s="4" t="s">
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AJ31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3881,17 +4661,17 @@
       <c r="T32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
+      <c r="U32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y32" s="5">
         <v>0</v>
@@ -3899,14 +4679,38 @@
       <c r="Z32" s="5">
         <v>0</v>
       </c>
-      <c r="AA32" s="4" t="s">
+      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AJ32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3968,17 +4772,17 @@
       <c r="T33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
-        <v>0</v>
+      <c r="U33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y33" s="5">
         <v>0</v>
@@ -3986,14 +4790,38 @@
       <c r="Z33" s="5">
         <v>0</v>
       </c>
-      <c r="AA33" s="4" t="s">
+      <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AJ33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4055,32 +4883,56 @@
       <c r="T34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="5">
         <v>10</v>
       </c>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-      <c r="W34" s="5">
-        <v>0</v>
-      </c>
-      <c r="X34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="5">
-        <v>0</v>
-      </c>
       <c r="Z34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="5">
         <v>-15</v>
       </c>
-      <c r="AA34" s="4" t="s">
+      <c r="AI34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AB34" s="5">
+      <c r="AJ34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4142,32 +4994,56 @@
       <c r="T35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="5">
         <v>25</v>
       </c>
-      <c r="V35" s="5">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="5">
-        <v>0</v>
-      </c>
       <c r="Z35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5">
         <v>-15</v>
       </c>
-      <c r="AA35" s="4" t="s">
+      <c r="AI35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AJ35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4229,17 +5105,17 @@
       <c r="T36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U36" s="5">
-        <v>0</v>
-      </c>
-      <c r="V36" s="5">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5">
-        <v>0</v>
-      </c>
-      <c r="X36" s="5">
-        <v>0</v>
+      <c r="U36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y36" s="5">
         <v>0</v>
@@ -4247,14 +5123,38 @@
       <c r="Z36" s="5">
         <v>0</v>
       </c>
-      <c r="AA36" s="4" t="s">
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AJ36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4316,17 +5216,17 @@
       <c r="T37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
-        <v>0</v>
+      <c r="U37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y37" s="5">
         <v>0</v>
@@ -4334,14 +5234,38 @@
       <c r="Z37" s="5">
         <v>0</v>
       </c>
-      <c r="AA37" s="4" t="s">
+      <c r="AA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AB37" s="5">
+      <c r="AJ37" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4403,17 +5327,17 @@
       <c r="T38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="5">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5">
-        <v>0</v>
+      <c r="U38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y38" s="5">
         <v>0</v>
@@ -4421,14 +5345,38 @@
       <c r="Z38" s="5">
         <v>0</v>
       </c>
-      <c r="AA38" s="4" t="s">
+      <c r="AA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AB38" s="5">
+      <c r="AJ38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4490,17 +5438,17 @@
       <c r="T39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
+      <c r="U39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y39" s="5">
         <v>0</v>
@@ -4508,14 +5456,38 @@
       <c r="Z39" s="5">
         <v>0</v>
       </c>
-      <c r="AA39" s="4" t="s">
+      <c r="AA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AB39" s="5">
+      <c r="AJ39" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4577,17 +5549,17 @@
       <c r="T40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="5">
-        <v>0</v>
-      </c>
-      <c r="X40" s="5">
-        <v>0</v>
+      <c r="U40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y40" s="5">
         <v>0</v>
@@ -4595,14 +5567,38 @@
       <c r="Z40" s="5">
         <v>0</v>
       </c>
-      <c r="AA40" s="4" t="s">
+      <c r="AA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AB40" s="5">
+      <c r="AJ40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4664,17 +5660,17 @@
       <c r="T41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
+      <c r="U41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y41" s="5">
         <v>0</v>
@@ -4682,14 +5678,38 @@
       <c r="Z41" s="5">
         <v>0</v>
       </c>
-      <c r="AA41" s="4" t="s">
+      <c r="AA41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AB41" s="5">
+      <c r="AJ41" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4751,17 +5771,17 @@
       <c r="T42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <v>0</v>
+      <c r="U42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y42" s="5">
         <v>0</v>
@@ -4769,10 +5789,34 @@
       <c r="Z42" s="5">
         <v>0</v>
       </c>
-      <c r="AA42" s="4" t="s">
+      <c r="AA42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AB42" s="5">
+      <c r="AJ42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5832,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4807,12 +5851,12 @@
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="26" width="10" customWidth="1"/>
-    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+    <col min="20" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -4874,31 +5918,55 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-2+1000</f>
         <v>1000</v>
@@ -4960,17 +6028,17 @@
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
+      <c r="U2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y2" s="5">
         <v>0</v>
@@ -4978,14 +6046,38 @@
       <c r="Z2" s="5">
         <v>0</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AJ2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A53" si="0">ROW()-2+1000</f>
         <v>1001</v>
@@ -5047,32 +6139,56 @@
       <c r="T3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="7">
         <v>20</v>
       </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
       <c r="Z3" s="7">
         <v>0</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AJ3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>1002</v>
@@ -5135,32 +6251,56 @@
       <c r="T4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="5">
         <v>20</v>
       </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
       <c r="Z4" s="5">
         <v>0</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AJ4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>1003</v>
@@ -5223,32 +6363,56 @@
       <c r="T5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="5">
         <v>10</v>
       </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
       <c r="Z5" s="5">
         <v>0</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AJ5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -5311,32 +6475,56 @@
       <c r="T6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="5">
         <v>20</v>
       </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
       <c r="Z6" s="5">
         <v>0</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AJ6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>1005</v>
@@ -5399,32 +6587,56 @@
       <c r="T7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="5">
         <v>20</v>
       </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
       <c r="Z7" s="5">
         <v>0</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AJ7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -5487,32 +6699,56 @@
       <c r="T8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="5">
         <v>10</v>
       </c>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>0</v>
-      </c>
       <c r="Z8" s="5">
         <v>0</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AJ8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -5574,32 +6810,56 @@
       <c r="T9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="7">
         <v>20</v>
       </c>
-      <c r="V9" s="7">
-        <v>7</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
       <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AJ9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -5662,32 +6922,56 @@
       <c r="T10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="5">
         <v>20</v>
       </c>
-      <c r="V10" s="5">
+      <c r="Z10" s="5">
         <v>20</v>
       </c>
-      <c r="W10" s="5">
+      <c r="AA10" s="5">
         <v>-30</v>
       </c>
-      <c r="X10" s="5">
+      <c r="AB10" s="5">
         <v>-30</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="AC10" s="5">
         <v>-30</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5">
         <v>-20</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AJ10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -5750,32 +7034,56 @@
       <c r="T11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="5">
         <v>100</v>
       </c>
-      <c r="V11" s="5">
+      <c r="Z11" s="5">
         <v>70</v>
       </c>
-      <c r="W11" s="5">
+      <c r="AA11" s="5">
         <v>70</v>
       </c>
-      <c r="X11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AJ11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>1010</v>
@@ -5838,32 +7146,56 @@
       <c r="T12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="5">
         <v>30</v>
       </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
       <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5">
         <v>-10</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AJ12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>1011</v>
@@ -5926,32 +7258,56 @@
       <c r="T13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="5">
         <v>30</v>
       </c>
-      <c r="V13" s="5">
+      <c r="Z13" s="5">
         <v>-30</v>
       </c>
-      <c r="W13" s="5">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5">
         <v>-20</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AJ13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>1012</v>
@@ -6014,17 +7370,17 @@
       <c r="T14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0</v>
+      <c r="U14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y14" s="5">
         <v>0</v>
@@ -6032,14 +7388,38 @@
       <c r="Z14" s="5">
         <v>0</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AJ14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>1013</v>
@@ -6102,32 +7482,56 @@
       <c r="T15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="5">
         <v>10</v>
       </c>
-      <c r="V15" s="5">
+      <c r="Z15" s="5">
         <v>10</v>
       </c>
-      <c r="W15" s="5">
+      <c r="AA15" s="5">
         <v>30</v>
       </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
         <v>-30</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AJ15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>1014</v>
@@ -6190,32 +7594,56 @@
       <c r="T16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="5">
         <v>15</v>
       </c>
-      <c r="V16" s="5">
+      <c r="Z16" s="5">
         <v>15</v>
       </c>
-      <c r="W16" s="5">
+      <c r="AA16" s="5">
         <v>10</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AB16" s="5">
         <v>10</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="AC16" s="5">
         <v>-30</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5">
         <v>-30</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AJ16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>1015</v>
@@ -6278,32 +7706,56 @@
       <c r="T17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="5">
         <v>10</v>
       </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
       <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5">
         <v>-30</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AI17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AJ17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>1016</v>
@@ -6366,32 +7818,56 @@
       <c r="T18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="5">
         <v>10</v>
       </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
       <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
         <v>-50</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AI18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AJ18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>1017</v>
@@ -6454,32 +7930,56 @@
       <c r="T19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="5">
         <v>10</v>
       </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
       <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5">
         <v>-50</v>
       </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AJ19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>1018</v>
@@ -6542,32 +8042,56 @@
       <c r="T20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="5">
         <v>10</v>
       </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
       <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5">
         <v>-50</v>
       </c>
-      <c r="AA20" s="4" t="s">
+      <c r="AI20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AJ20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>1019</v>
@@ -6630,32 +8154,56 @@
       <c r="T21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="5">
         <v>10</v>
       </c>
-      <c r="V21" s="5">
+      <c r="Z21" s="5">
         <v>10</v>
       </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5">
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5">
         <v>-30</v>
       </c>
-      <c r="AA21" s="4" t="s">
+      <c r="AI21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AJ21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>1020</v>
@@ -6718,32 +8266,56 @@
       <c r="T22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="5">
         <v>10</v>
       </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>0</v>
-      </c>
       <c r="Z22" s="5">
         <v>0</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AJ22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>1021</v>
@@ -6806,17 +8378,17 @@
       <c r="T23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
+      <c r="U23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y23" s="5">
         <v>0</v>
@@ -6824,14 +8396,38 @@
       <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AJ23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>1022</v>
@@ -6894,17 +8490,17 @@
       <c r="T24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0</v>
+      <c r="U24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y24" s="5">
         <v>0</v>
@@ -6912,14 +8508,38 @@
       <c r="Z24" s="5">
         <v>0</v>
       </c>
-      <c r="AA24" s="4" t="s">
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AJ24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>1023</v>
@@ -6982,17 +8602,17 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
+      <c r="U25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y25" s="5">
         <v>0</v>
@@ -7000,14 +8620,38 @@
       <c r="Z25" s="5">
         <v>0</v>
       </c>
-      <c r="AA25" s="4" t="s">
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AJ25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -7070,17 +8714,17 @@
       <c r="T26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U26" s="5">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
+      <c r="U26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y26" s="5">
         <v>0</v>
@@ -7088,14 +8732,38 @@
       <c r="Z26" s="5">
         <v>0</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AJ26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>1025</v>
@@ -7158,17 +8826,17 @@
       <c r="T27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="5">
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
-        <v>0</v>
+      <c r="U27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y27" s="5">
         <v>0</v>
@@ -7176,14 +8844,38 @@
       <c r="Z27" s="5">
         <v>0</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AJ27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>1026</v>
@@ -7246,17 +8938,17 @@
       <c r="T28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="5">
-        <v>0</v>
-      </c>
-      <c r="V28" s="5">
-        <v>0</v>
-      </c>
-      <c r="W28" s="5">
-        <v>0</v>
-      </c>
-      <c r="X28" s="5">
-        <v>0</v>
+      <c r="U28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y28" s="5">
         <v>0</v>
@@ -7264,14 +8956,38 @@
       <c r="Z28" s="5">
         <v>0</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AJ28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>1027</v>
@@ -7334,17 +9050,17 @@
       <c r="T29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U29" s="5">
-        <v>0</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
-      <c r="W29" s="5">
-        <v>0</v>
-      </c>
-      <c r="X29" s="5">
-        <v>0</v>
+      <c r="U29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y29" s="5">
         <v>0</v>
@@ -7352,14 +9068,38 @@
       <c r="Z29" s="5">
         <v>0</v>
       </c>
-      <c r="AA29" s="4" t="s">
+      <c r="AA29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AJ29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>1028</v>
@@ -7422,17 +9162,17 @@
       <c r="T30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
+      <c r="U30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y30" s="5">
         <v>0</v>
@@ -7440,14 +9180,38 @@
       <c r="Z30" s="5">
         <v>0</v>
       </c>
-      <c r="AA30" s="4" t="s">
+      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AJ30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>1029</v>
@@ -7510,17 +9274,17 @@
       <c r="T31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
+      <c r="U31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
@@ -7528,14 +9292,38 @@
       <c r="Z31" s="5">
         <v>0</v>
       </c>
-      <c r="AA31" s="4" t="s">
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AJ31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>1030</v>
@@ -7598,17 +9386,17 @@
       <c r="T32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
+      <c r="U32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y32" s="5">
         <v>0</v>
@@ -7616,14 +9404,38 @@
       <c r="Z32" s="5">
         <v>0</v>
       </c>
-      <c r="AA32" s="4" t="s">
+      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AJ32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>1031</v>
@@ -7686,17 +9498,17 @@
       <c r="T33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
-        <v>0</v>
+      <c r="U33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y33" s="5">
         <v>0</v>
@@ -7704,14 +9516,38 @@
       <c r="Z33" s="5">
         <v>0</v>
       </c>
-      <c r="AA33" s="4" t="s">
+      <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AJ33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>1032</v>
@@ -7774,17 +9610,17 @@
       <c r="T34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U34" s="5">
-        <v>0</v>
-      </c>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-      <c r="W34" s="5">
-        <v>0</v>
-      </c>
-      <c r="X34" s="5">
-        <v>0</v>
+      <c r="U34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y34" s="5">
         <v>0</v>
@@ -7792,14 +9628,38 @@
       <c r="Z34" s="5">
         <v>0</v>
       </c>
-      <c r="AA34" s="4" t="s">
+      <c r="AA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB34" s="5">
+      <c r="AJ34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>1033</v>
@@ -7862,17 +9722,17 @@
       <c r="T35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U35" s="5">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5">
-        <v>0</v>
+      <c r="U35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y35" s="5">
         <v>0</v>
@@ -7880,14 +9740,38 @@
       <c r="Z35" s="5">
         <v>0</v>
       </c>
-      <c r="AA35" s="4" t="s">
+      <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AJ35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>1034</v>
@@ -7950,32 +9834,56 @@
       <c r="T36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="5">
         <v>20</v>
       </c>
-      <c r="V36" s="5">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5">
-        <v>0</v>
-      </c>
-      <c r="X36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="5">
-        <v>0</v>
-      </c>
       <c r="Z36" s="5">
         <v>0</v>
       </c>
-      <c r="AA36" s="4" t="s">
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AJ36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>1035</v>
@@ -8038,17 +9946,17 @@
       <c r="T37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
-        <v>0</v>
+      <c r="U37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y37" s="5">
         <v>0</v>
@@ -8056,14 +9964,38 @@
       <c r="Z37" s="5">
         <v>0</v>
       </c>
-      <c r="AA37" s="4" t="s">
+      <c r="AA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB37" s="5">
+      <c r="AJ37" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>1036</v>
@@ -8126,17 +10058,17 @@
       <c r="T38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="5">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5">
-        <v>0</v>
+      <c r="U38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y38" s="5">
         <v>0</v>
@@ -8144,14 +10076,38 @@
       <c r="Z38" s="5">
         <v>0</v>
       </c>
-      <c r="AA38" s="4" t="s">
+      <c r="AA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB38" s="5">
+      <c r="AJ38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>1037</v>
@@ -8214,17 +10170,17 @@
       <c r="T39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
+      <c r="U39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y39" s="5">
         <v>0</v>
@@ -8232,14 +10188,38 @@
       <c r="Z39" s="5">
         <v>0</v>
       </c>
-      <c r="AA39" s="4" t="s">
+      <c r="AA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB39" s="5">
+      <c r="AJ39" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>1038</v>
@@ -8302,17 +10282,17 @@
       <c r="T40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="5">
-        <v>0</v>
-      </c>
-      <c r="X40" s="5">
-        <v>0</v>
+      <c r="U40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y40" s="5">
         <v>0</v>
@@ -8320,14 +10300,38 @@
       <c r="Z40" s="5">
         <v>0</v>
       </c>
-      <c r="AA40" s="4" t="s">
+      <c r="AA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB40" s="5">
+      <c r="AJ40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>1039</v>
@@ -8390,32 +10394,56 @@
       <c r="T41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="5">
         <v>100</v>
       </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
       <c r="Z41" s="5">
         <v>0</v>
       </c>
-      <c r="AA41" s="4" t="s">
+      <c r="AA41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB41" s="5">
+      <c r="AJ41" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>1040</v>
@@ -8478,17 +10506,17 @@
       <c r="T42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <v>0</v>
+      <c r="U42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y42" s="5">
         <v>0</v>
@@ -8496,14 +10524,38 @@
       <c r="Z42" s="5">
         <v>0</v>
       </c>
-      <c r="AA42" s="4" t="s">
+      <c r="AA42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB42" s="5">
+      <c r="AJ42" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>1041</v>
@@ -8566,17 +10618,17 @@
       <c r="T43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
-      <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43" s="5">
-        <v>0</v>
-      </c>
-      <c r="X43" s="5">
-        <v>0</v>
+      <c r="U43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y43" s="5">
         <v>0</v>
@@ -8584,14 +10636,38 @@
       <c r="Z43" s="5">
         <v>0</v>
       </c>
-      <c r="AA43" s="4" t="s">
+      <c r="AA43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB43" s="5">
+      <c r="AJ43" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>1042</v>
@@ -8654,17 +10730,17 @@
       <c r="T44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U44" s="5">
-        <v>0</v>
-      </c>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="5">
-        <v>0</v>
-      </c>
-      <c r="X44" s="5">
-        <v>0</v>
+      <c r="U44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y44" s="5">
         <v>0</v>
@@ -8672,14 +10748,38 @@
       <c r="Z44" s="5">
         <v>0</v>
       </c>
-      <c r="AA44" s="4" t="s">
+      <c r="AA44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB44" s="5">
+      <c r="AJ44" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>1043</v>
@@ -8742,17 +10842,17 @@
       <c r="T45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U45" s="5">
-        <v>0</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="5">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5">
-        <v>0</v>
+      <c r="U45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y45" s="5">
         <v>0</v>
@@ -8760,14 +10860,38 @@
       <c r="Z45" s="5">
         <v>0</v>
       </c>
-      <c r="AA45" s="4" t="s">
+      <c r="AA45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB45" s="5">
+      <c r="AJ45" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>1044</v>
@@ -8830,17 +10954,17 @@
       <c r="T46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U46" s="5">
-        <v>0</v>
-      </c>
-      <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46" s="5">
-        <v>0</v>
-      </c>
-      <c r="X46" s="5">
-        <v>0</v>
+      <c r="U46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y46" s="5">
         <v>0</v>
@@ -8848,14 +10972,38 @@
       <c r="Z46" s="5">
         <v>0</v>
       </c>
-      <c r="AA46" s="4" t="s">
+      <c r="AA46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB46" s="5">
+      <c r="AJ46" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>1045</v>
@@ -8918,17 +11066,17 @@
       <c r="T47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U47" s="5">
-        <v>0</v>
-      </c>
-      <c r="V47" s="5">
-        <v>0</v>
-      </c>
-      <c r="W47" s="5">
-        <v>0</v>
-      </c>
-      <c r="X47" s="5">
-        <v>0</v>
+      <c r="U47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y47" s="5">
         <v>0</v>
@@ -8936,14 +11084,38 @@
       <c r="Z47" s="5">
         <v>0</v>
       </c>
-      <c r="AA47" s="4" t="s">
+      <c r="AA47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB47" s="5">
+      <c r="AJ47" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>1046</v>
@@ -9006,17 +11178,17 @@
       <c r="T48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U48" s="5">
-        <v>0</v>
-      </c>
-      <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="5">
-        <v>0</v>
-      </c>
-      <c r="X48" s="5">
-        <v>0</v>
+      <c r="U48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y48" s="5">
         <v>0</v>
@@ -9024,14 +11196,38 @@
       <c r="Z48" s="5">
         <v>0</v>
       </c>
-      <c r="AA48" s="4" t="s">
+      <c r="AA48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB48" s="5">
+      <c r="AJ48" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>1047</v>
@@ -9094,17 +11290,17 @@
       <c r="T49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U49" s="5">
-        <v>0</v>
-      </c>
-      <c r="V49" s="5">
-        <v>0</v>
-      </c>
-      <c r="W49" s="5">
-        <v>0</v>
-      </c>
-      <c r="X49" s="5">
-        <v>0</v>
+      <c r="U49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y49" s="5">
         <v>0</v>
@@ -9112,14 +11308,38 @@
       <c r="Z49" s="5">
         <v>0</v>
       </c>
-      <c r="AA49" s="4" t="s">
+      <c r="AA49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB49" s="5">
+      <c r="AJ49" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>1048</v>
@@ -9182,17 +11402,17 @@
       <c r="T50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50" s="5">
-        <v>0</v>
-      </c>
-      <c r="X50" s="5">
-        <v>0</v>
+      <c r="U50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y50" s="5">
         <v>0</v>
@@ -9200,14 +11420,38 @@
       <c r="Z50" s="5">
         <v>0</v>
       </c>
-      <c r="AA50" s="4" t="s">
+      <c r="AA50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB50" s="5">
+      <c r="AJ50" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>1049</v>
@@ -9270,32 +11514,56 @@
       <c r="T51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U51" s="5">
+      <c r="U51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y51" s="5">
         <v>30</v>
       </c>
-      <c r="V51" s="5">
-        <v>0</v>
-      </c>
-      <c r="W51" s="5">
-        <v>0</v>
-      </c>
-      <c r="X51" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="5">
-        <v>0</v>
-      </c>
       <c r="Z51" s="5">
         <v>0</v>
       </c>
-      <c r="AA51" s="4" t="s">
+      <c r="AA51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB51" s="5">
+      <c r="AJ51" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>1050</v>
@@ -9358,32 +11626,56 @@
       <c r="T52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U52" s="5">
+      <c r="U52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y52" s="5">
         <v>30</v>
       </c>
-      <c r="V52" s="5">
-        <v>0</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0</v>
-      </c>
-      <c r="X52" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>0</v>
-      </c>
       <c r="Z52" s="5">
         <v>0</v>
       </c>
-      <c r="AA52" s="4" t="s">
+      <c r="AA52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AJ52" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>1051</v>
@@ -9446,28 +11738,52 @@
       <c r="T53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U53" s="5">
+      <c r="U53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y53" s="5">
         <v>30</v>
       </c>
-      <c r="V53" s="5">
-        <v>0</v>
-      </c>
-      <c r="W53" s="5">
-        <v>0</v>
-      </c>
-      <c r="X53" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="5">
-        <v>0</v>
-      </c>
       <c r="Z53" s="5">
         <v>0</v>
       </c>
-      <c r="AA53" s="4" t="s">
+      <c r="AA53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB53" s="5">
+      <c r="AJ53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9483,12 +11799,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9501,13 +11817,13 @@
     <col min="6" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="26" width="10" customWidth="1"/>
-    <col min="27" max="27" width="60.28515625" customWidth="1"/>
+    <col min="16" max="20" width="9" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" customWidth="1"/>
+    <col min="25" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9569,31 +11885,55 @@
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A7" si="0">ROW()-2+1500</f>
         <v>1500</v>
@@ -9655,17 +11995,17 @@
       <c r="T2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
+      <c r="U2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y2" s="5">
         <v>0</v>
@@ -9673,14 +12013,38 @@
       <c r="Z2" s="5">
         <v>0</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AJ2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1501</v>
@@ -9742,17 +12106,17 @@
       <c r="T3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
+      <c r="U3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y3" s="5">
         <v>0</v>
@@ -9760,14 +12124,38 @@
       <c r="Z3" s="5">
         <v>0</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AJ3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>1502</v>
@@ -9829,17 +12217,17 @@
       <c r="T4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
+      <c r="U4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y4" s="5">
         <v>0</v>
@@ -9847,14 +12235,38 @@
       <c r="Z4" s="5">
         <v>0</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AJ4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>1503</v>
@@ -9916,17 +12328,17 @@
       <c r="T5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
+      <c r="U5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y5" s="5">
         <v>0</v>
@@ -9934,14 +12346,38 @@
       <c r="Z5" s="5">
         <v>0</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AJ5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>1504</v>
@@ -10003,17 +12439,17 @@
       <c r="T6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
+      <c r="U6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y6" s="5">
         <v>0</v>
@@ -10021,14 +12457,38 @@
       <c r="Z6" s="5">
         <v>0</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AJ6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>1505</v>
@@ -10090,17 +12550,17 @@
       <c r="T7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
+      <c r="U7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Y7" s="5">
         <v>0</v>
@@ -10108,14 +12568,38 @@
       <c r="Z7" s="5">
         <v>0</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AJ7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -10142,10 +12626,18 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -10172,10 +12664,18 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10202,10 +12702,18 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10232,10 +12740,18 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -10262,10 +12778,18 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10292,10 +12816,18 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10322,10 +12854,18 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10352,10 +12892,18 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10382,10 +12930,18 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="5"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -10412,8 +12968,16 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="4"/>
+      <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63936231-C295-4DF9-8258-BC09AC100151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A594A1-DD16-4CA8-9F0F-27AD0934BBA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="150">
   <si>
     <t>desc</t>
   </si>
@@ -716,6 +716,10 @@
   </si>
   <si>
     <t>JewerySuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cranberry</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1131,10 +1135,10 @@
   </sheetPr>
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2103,19 +2107,19 @@
         <v>30</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>7</v>
@@ -2136,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="AD9" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AE9" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF9" s="5">
         <v>0</v>
@@ -2148,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>93</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A594A1-DD16-4CA8-9F0F-27AD0934BBA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D356C73-288B-4756-8BE3-80809A84E504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,10 +1135,10 @@
   </sheetPr>
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AH10" sqref="AH10"/>
+      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AA12" s="5">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AA13" s="5">
         <v>10</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="11">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AA14" s="11">
         <v>20</v>
@@ -3016,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="Z17" s="5">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AA17" s="5">
         <v>-20</v>
@@ -3100,7 +3100,7 @@
         <v>128</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>7</v>
@@ -3124,10 +3124,10 @@
         <v>7</v>
       </c>
       <c r="Y18" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA18" s="5">
         <v>0</v>
@@ -5650,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>7</v>
@@ -5677,10 +5677,10 @@
         <v>7</v>
       </c>
       <c r="Y41" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z41" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA41" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D356C73-288B-4756-8BE3-80809A84E504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0C1D8-C0E2-4C06-A50E-F0D7987A068C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="151">
   <si>
     <t>desc</t>
   </si>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>topping05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Non</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -720,6 +716,14 @@
   </si>
   <si>
     <t>Cranberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>beauty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>beauty</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1133,12 +1137,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1154,33 +1158,33 @@
     <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="24" width="11.28515625" customWidth="1"/>
-    <col min="25" max="34" width="7.140625" customWidth="1"/>
-    <col min="35" max="35" width="60.28515625" customWidth="1"/>
+    <col min="14" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="35" width="7.140625" customWidth="1"/>
+    <col min="36" max="36" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1198,82 +1202,85 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
@@ -1282,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -1320,8 +1327,8 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
+      <c r="P2" s="3">
+        <v>50</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>7</v>
@@ -1347,8 +1354,8 @@
       <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="5">
-        <v>0</v>
+      <c r="Y2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z2" s="5">
         <v>0</v>
@@ -1377,14 +1384,17 @@
       <c r="AH2" s="5">
         <v>0</v>
       </c>
-      <c r="AI2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="5">
+      <c r="AI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1396,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1431,8 +1441,8 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
+      <c r="P3" s="3">
+        <v>50</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>7</v>
@@ -1458,8 +1468,8 @@
       <c r="X3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="5">
-        <v>0</v>
+      <c r="Y3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z3" s="5">
         <v>0</v>
@@ -1488,14 +1498,17 @@
       <c r="AH3" s="5">
         <v>0</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ3" s="5">
+      <c r="AI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1507,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1542,8 +1555,8 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>7</v>
+      <c r="P4" s="3">
+        <v>50</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -1569,8 +1582,8 @@
       <c r="X4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="5">
-        <v>0</v>
+      <c r="Y4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z4" s="5">
         <v>0</v>
@@ -1599,14 +1612,17 @@
       <c r="AH4" s="5">
         <v>0</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ4" s="5">
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1618,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1653,11 +1669,11 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>28</v>
+      <c r="P5" s="3">
+        <v>50</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>7</v>
@@ -1680,8 +1696,8 @@
       <c r="X5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="5">
-        <v>0</v>
+      <c r="Y5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z5" s="5">
         <v>0</v>
@@ -1710,14 +1726,17 @@
       <c r="AH5" s="5">
         <v>0</v>
       </c>
-      <c r="AI5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ5" s="5">
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1729,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -1764,26 +1783,26 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="U6" s="5" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>7</v>
@@ -1791,26 +1810,26 @@
       <c r="X6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="5">
         <v>10</v>
       </c>
-      <c r="Z6" s="5">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>15</v>
-      </c>
       <c r="AB6" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="5">
         <v>20</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AD6" s="5">
         <v>5</v>
       </c>
-      <c r="AD6" s="5">
-        <v>30</v>
-      </c>
       <c r="AE6" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="5">
         <v>0</v>
@@ -1819,16 +1838,19 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
         <v>-20</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1840,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1875,71 +1897,74 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>30</v>
+      <c r="P7" s="3">
+        <v>50</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="V7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>-10</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>-20</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>-20</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ7" s="5">
+      <c r="AK7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1951,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1986,8 +2011,8 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>7</v>
+      <c r="P8" s="3">
+        <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>7</v>
@@ -2013,8 +2038,8 @@
       <c r="X8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="5">
-        <v>0</v>
+      <c r="Y8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z8" s="5">
         <v>0</v>
@@ -2043,14 +2068,17 @@
       <c r="AH8" s="5">
         <v>0</v>
       </c>
-      <c r="AI8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ8" s="5">
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2062,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2097,42 +2125,42 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>28</v>
+      <c r="P9" s="3">
+        <v>50</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="T9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="X9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="5">
+        <v>148</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="5">
         <v>5</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
         <v>25</v>
       </c>
-      <c r="AA9" s="5">
-        <v>0</v>
-      </c>
       <c r="AB9" s="5">
         <v>0</v>
       </c>
@@ -2140,28 +2168,31 @@
         <v>0</v>
       </c>
       <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
         <v>-50</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AF9" s="5">
         <v>50</v>
       </c>
-      <c r="AF9" s="5">
-        <v>0</v>
-      </c>
       <c r="AG9" s="5">
         <v>0</v>
       </c>
       <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
         <v>-35</v>
       </c>
-      <c r="AI9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ9" s="5">
+      <c r="AJ9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2173,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2208,8 +2239,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>7</v>
+      <c r="P10" s="3">
+        <v>50</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>7</v>
@@ -2235,8 +2266,8 @@
       <c r="X10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="5">
-        <v>0</v>
+      <c r="Y10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z10" s="5">
         <v>0</v>
@@ -2265,14 +2296,17 @@
       <c r="AH10" s="5">
         <v>0</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ10" s="5">
+      <c r="AI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2284,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2319,8 +2353,8 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>7</v>
+      <c r="P11" s="3">
+        <v>50</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>7</v>
@@ -2346,8 +2380,8 @@
       <c r="X11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y11" s="5">
-        <v>0</v>
+      <c r="Y11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
@@ -2376,14 +2410,17 @@
       <c r="AH11" s="5">
         <v>0</v>
       </c>
-      <c r="AI11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ11" s="5">
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2395,7 +2432,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2430,17 +2467,17 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>46</v>
+      <c r="P12" s="3">
+        <v>70</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>7</v>
@@ -2457,17 +2494,17 @@
       <c r="X12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" s="5">
-        <v>0</v>
+      <c r="Y12" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z12" s="5">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC12" s="5">
         <v>0</v>
@@ -2485,16 +2522,19 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5">
-        <v>-20</v>
-      </c>
-      <c r="AI12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2506,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2541,71 +2581,74 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>46</v>
+      <c r="P13" s="3">
+        <v>100</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="Z13" s="5">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="5">
         <v>10</v>
       </c>
       <c r="AB13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF13" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="5">
         <v>-30</v>
       </c>
-      <c r="AI13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ13" s="5">
+      <c r="AJ13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2617,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -2652,71 +2695,74 @@
       <c r="O14" s="10">
         <v>0</v>
       </c>
-      <c r="P14" s="11" t="s">
-        <v>46</v>
+      <c r="P14" s="10">
+        <v>50</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>20</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>-40</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="S14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="11">
-        <v>65</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>20</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>-40</v>
-      </c>
-      <c r="AI14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ14" s="11">
+      <c r="AK14" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2728,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2763,14 +2809,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>46</v>
+      <c r="P15" s="3">
+        <v>50</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>7</v>
@@ -2790,14 +2836,14 @@
       <c r="X15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="5">
-        <v>0</v>
+      <c r="Y15" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z15" s="5">
         <v>0</v>
       </c>
       <c r="AA15" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2818,16 +2864,19 @@
         <v>0</v>
       </c>
       <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5">
         <v>-20</v>
       </c>
-      <c r="AI15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2839,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2874,20 +2923,20 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>48</v>
+      <c r="P16" s="3">
+        <v>50</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>7</v>
@@ -2901,21 +2950,21 @@
       <c r="X16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="5">
         <v>5</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AA16" s="5">
         <v>10</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AB16" s="5">
         <v>40</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AC16" s="5">
         <v>20</v>
       </c>
-      <c r="AC16" s="5">
-        <v>0</v>
-      </c>
       <c r="AD16" s="5">
         <v>0</v>
       </c>
@@ -2929,16 +2978,19 @@
         <v>0</v>
       </c>
       <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5">
         <v>-20</v>
       </c>
-      <c r="AI16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2950,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2985,71 +3037,74 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>46</v>
+      <c r="P17" s="3">
+        <v>50</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>90</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>-20</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ17" s="5">
+      <c r="AK17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3061,7 +3116,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3096,14 +3151,14 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>128</v>
+      <c r="P18" s="3">
+        <v>50</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>7</v>
@@ -3123,15 +3178,15 @@
       <c r="X18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" s="5">
-        <v>70</v>
+      <c r="Y18" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="5">
         <v>20</v>
       </c>
-      <c r="AA18" s="5">
-        <v>0</v>
-      </c>
       <c r="AB18" s="5">
         <v>0</v>
       </c>
@@ -3153,14 +3208,17 @@
       <c r="AH18" s="5">
         <v>0</v>
       </c>
-      <c r="AI18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ18" s="5">
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3172,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -3181,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -3190,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3207,26 +3265,26 @@
       <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>7</v>
+      <c r="P19" s="3">
+        <v>50</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>7</v>
@@ -3234,26 +3292,26 @@
       <c r="X19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y19" s="5">
-        <v>0</v>
+      <c r="Y19" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z19" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD19" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF19" s="5">
         <v>0</v>
@@ -3264,14 +3322,17 @@
       <c r="AH19" s="5">
         <v>0</v>
       </c>
-      <c r="AI19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ19" s="5">
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3280,7 +3341,7 @@
         <v>501</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -3292,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -3301,7 +3362,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3318,8 +3379,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>7</v>
+      <c r="P20" s="3">
+        <v>50</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>7</v>
@@ -3345,8 +3406,8 @@
       <c r="X20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y20" s="5">
-        <v>0</v>
+      <c r="Y20" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z20" s="5">
         <v>0</v>
@@ -3375,14 +3436,17 @@
       <c r="AH20" s="5">
         <v>0</v>
       </c>
-      <c r="AI20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ20" s="5">
+      <c r="AI20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3391,7 +3455,7 @@
         <v>502</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -3403,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -3412,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K21" s="3">
         <v>20</v>
@@ -3429,8 +3493,8 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>7</v>
+      <c r="P21" s="3">
+        <v>50</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>7</v>
@@ -3456,8 +3520,8 @@
       <c r="X21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" s="5">
-        <v>0</v>
+      <c r="Y21" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z21" s="5">
         <v>0</v>
@@ -3486,14 +3550,17 @@
       <c r="AH21" s="5">
         <v>0</v>
       </c>
-      <c r="AI21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ21" s="5">
+      <c r="AI21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3502,7 +3569,7 @@
         <v>503</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -3514,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H22" s="3">
         <v>20</v>
@@ -3523,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -3540,8 +3607,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>7</v>
+      <c r="P22" s="3">
+        <v>50</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>7</v>
@@ -3567,8 +3634,8 @@
       <c r="X22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="5">
-        <v>0</v>
+      <c r="Y22" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z22" s="5">
         <v>0</v>
@@ -3597,14 +3664,17 @@
       <c r="AH22" s="5">
         <v>0</v>
       </c>
-      <c r="AI22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ22" s="5">
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3613,7 +3683,7 @@
         <v>508</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -3651,11 +3721,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>30</v>
+      <c r="P23" s="3">
+        <v>50</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>7</v>
@@ -3678,8 +3748,8 @@
       <c r="X23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" s="5">
-        <v>0</v>
+      <c r="Y23" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z23" s="5">
         <v>0</v>
@@ -3706,16 +3776,19 @@
         <v>0</v>
       </c>
       <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
         <v>-20</v>
       </c>
-      <c r="AI23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ23" s="5">
+      <c r="AJ23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3724,7 +3797,7 @@
         <v>509</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -3736,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -3762,20 +3835,20 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>48</v>
+      <c r="P24" s="3">
+        <v>50</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>7</v>
@@ -3789,8 +3862,8 @@
       <c r="X24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" s="5">
-        <v>10</v>
+      <c r="Y24" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z24" s="5">
         <v>10</v>
@@ -3799,11 +3872,11 @@
         <v>10</v>
       </c>
       <c r="AB24" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="5">
         <v>5</v>
       </c>
-      <c r="AC24" s="5">
-        <v>0</v>
-      </c>
       <c r="AD24" s="5">
         <v>0</v>
       </c>
@@ -3817,16 +3890,19 @@
         <v>0</v>
       </c>
       <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
         <v>-30</v>
       </c>
-      <c r="AI24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ24" s="5">
+      <c r="AJ24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3835,7 +3911,7 @@
         <v>510</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -3873,11 +3949,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>77</v>
+      <c r="P25" s="3">
+        <v>50</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>7</v>
@@ -3900,12 +3976,12 @@
       <c r="X25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="5">
         <v>30</v>
       </c>
-      <c r="Z25" s="5">
-        <v>0</v>
-      </c>
       <c r="AA25" s="5">
         <v>0</v>
       </c>
@@ -3930,14 +4006,17 @@
       <c r="AH25" s="5">
         <v>0</v>
       </c>
-      <c r="AI25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ25" s="5">
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3946,7 +4025,7 @@
         <v>511</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -3984,8 +4063,8 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="5" t="s">
-        <v>7</v>
+      <c r="P26" s="3">
+        <v>50</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>7</v>
@@ -4011,8 +4090,8 @@
       <c r="X26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="5">
-        <v>0</v>
+      <c r="Y26" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z26" s="5">
         <v>0</v>
@@ -4041,14 +4120,17 @@
       <c r="AH26" s="5">
         <v>0</v>
       </c>
-      <c r="AI26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ26" s="5">
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4057,7 +4139,7 @@
         <v>520</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -4095,8 +4177,8 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>7</v>
+      <c r="P27" s="3">
+        <v>20</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>7</v>
@@ -4122,8 +4204,8 @@
       <c r="X27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="5">
-        <v>0</v>
+      <c r="Y27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z27" s="5">
         <v>0</v>
@@ -4152,14 +4234,17 @@
       <c r="AH27" s="5">
         <v>0</v>
       </c>
-      <c r="AI27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ27" s="5">
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4168,7 +4253,7 @@
         <v>521</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -4206,8 +4291,8 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>7</v>
+      <c r="P28" s="3">
+        <v>20</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>7</v>
@@ -4233,8 +4318,8 @@
       <c r="X28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" s="5">
-        <v>0</v>
+      <c r="Y28" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z28" s="5">
         <v>0</v>
@@ -4263,14 +4348,17 @@
       <c r="AH28" s="5">
         <v>0</v>
       </c>
-      <c r="AI28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ28" s="5">
+      <c r="AI28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4279,7 +4367,7 @@
         <v>522</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -4317,8 +4405,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>7</v>
+      <c r="P29" s="3">
+        <v>20</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>7</v>
@@ -4344,8 +4432,8 @@
       <c r="X29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y29" s="5">
-        <v>0</v>
+      <c r="Y29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z29" s="5">
         <v>0</v>
@@ -4374,14 +4462,17 @@
       <c r="AH29" s="5">
         <v>0</v>
       </c>
-      <c r="AI29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ29" s="5">
+      <c r="AI29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4390,7 +4481,7 @@
         <v>525</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -4428,8 +4519,8 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>7</v>
+      <c r="P30" s="3">
+        <v>20</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>7</v>
@@ -4455,8 +4546,8 @@
       <c r="X30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y30" s="5">
-        <v>0</v>
+      <c r="Y30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z30" s="5">
         <v>0</v>
@@ -4485,14 +4576,17 @@
       <c r="AH30" s="5">
         <v>0</v>
       </c>
-      <c r="AI30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ30" s="5">
+      <c r="AI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4501,7 +4595,7 @@
         <v>526</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
@@ -4539,8 +4633,8 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>7</v>
+      <c r="P31" s="3">
+        <v>20</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>7</v>
@@ -4566,8 +4660,8 @@
       <c r="X31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y31" s="5">
-        <v>0</v>
+      <c r="Y31" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z31" s="5">
         <v>0</v>
@@ -4596,14 +4690,17 @@
       <c r="AH31" s="5">
         <v>0</v>
       </c>
-      <c r="AI31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ31" s="5">
+      <c r="AI31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4612,7 +4709,7 @@
         <v>527</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -4650,8 +4747,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="5" t="s">
-        <v>7</v>
+      <c r="P32" s="3">
+        <v>20</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>7</v>
@@ -4677,8 +4774,8 @@
       <c r="X32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y32" s="5">
-        <v>0</v>
+      <c r="Y32" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z32" s="5">
         <v>0</v>
@@ -4707,14 +4804,17 @@
       <c r="AH32" s="5">
         <v>0</v>
       </c>
-      <c r="AI32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ32" s="5">
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4723,7 +4823,7 @@
         <v>531</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -4761,8 +4861,8 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>7</v>
+      <c r="P33" s="3">
+        <v>50</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>7</v>
@@ -4788,8 +4888,8 @@
       <c r="X33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y33" s="5">
-        <v>0</v>
+      <c r="Y33" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z33" s="5">
         <v>0</v>
@@ -4818,14 +4918,17 @@
       <c r="AH33" s="5">
         <v>0</v>
       </c>
-      <c r="AI33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ33" s="5">
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4834,7 +4937,7 @@
         <v>532</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -4872,11 +4975,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="5" t="s">
-        <v>28</v>
+      <c r="P34" s="3">
+        <v>50</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>7</v>
@@ -4899,12 +5002,12 @@
       <c r="X34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="5">
         <v>10</v>
       </c>
-      <c r="Z34" s="5">
-        <v>0</v>
-      </c>
       <c r="AA34" s="5">
         <v>0</v>
       </c>
@@ -4927,16 +5030,19 @@
         <v>0</v>
       </c>
       <c r="AH34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="5">
         <v>-15</v>
       </c>
-      <c r="AI34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5">
+      <c r="AJ34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4945,7 +5051,7 @@
         <v>533</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -4983,11 +5089,11 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>87</v>
+      <c r="P35" s="3">
+        <v>50</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>7</v>
@@ -5010,12 +5116,12 @@
       <c r="X35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="5">
         <v>25</v>
       </c>
-      <c r="Z35" s="5">
-        <v>0</v>
-      </c>
       <c r="AA35" s="5">
         <v>0</v>
       </c>
@@ -5038,16 +5144,19 @@
         <v>0</v>
       </c>
       <c r="AH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="5">
         <v>-15</v>
       </c>
-      <c r="AI35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ35" s="5">
+      <c r="AJ35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5056,7 +5165,7 @@
         <v>561</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -5094,8 +5203,8 @@
       <c r="O36" s="3">
         <v>0</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>7</v>
+      <c r="P36" s="3">
+        <v>50</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>7</v>
@@ -5121,8 +5230,8 @@
       <c r="X36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y36" s="5">
-        <v>0</v>
+      <c r="Y36" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z36" s="5">
         <v>0</v>
@@ -5151,14 +5260,17 @@
       <c r="AH36" s="5">
         <v>0</v>
       </c>
-      <c r="AI36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ36" s="5">
+      <c r="AI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5170,7 +5282,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -5205,8 +5317,8 @@
       <c r="O37" s="3">
         <v>0</v>
       </c>
-      <c r="P37" s="5" t="s">
-        <v>7</v>
+      <c r="P37" s="3">
+        <v>50</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>7</v>
@@ -5232,8 +5344,8 @@
       <c r="X37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y37" s="5">
-        <v>0</v>
+      <c r="Y37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z37" s="5">
         <v>0</v>
@@ -5262,14 +5374,17 @@
       <c r="AH37" s="5">
         <v>0</v>
       </c>
-      <c r="AI37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ37" s="5">
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK37" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5278,7 +5393,7 @@
         <v>585</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
@@ -5316,8 +5431,8 @@
       <c r="O38" s="3">
         <v>0</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>7</v>
+      <c r="P38" s="3">
+        <v>50</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>7</v>
@@ -5343,8 +5458,8 @@
       <c r="X38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y38" s="5">
-        <v>0</v>
+      <c r="Y38" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z38" s="5">
         <v>0</v>
@@ -5373,14 +5488,17 @@
       <c r="AH38" s="5">
         <v>0</v>
       </c>
-      <c r="AI38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ38" s="5">
+      <c r="AI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5389,7 +5507,7 @@
         <v>590</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -5427,8 +5545,8 @@
       <c r="O39" s="3">
         <v>0</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>7</v>
+      <c r="P39" s="3">
+        <v>50</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>7</v>
@@ -5454,8 +5572,8 @@
       <c r="X39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y39" s="5">
-        <v>0</v>
+      <c r="Y39" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z39" s="5">
         <v>0</v>
@@ -5484,14 +5602,17 @@
       <c r="AH39" s="5">
         <v>0</v>
       </c>
-      <c r="AI39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ39" s="5">
+      <c r="AI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK39" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5500,7 +5621,7 @@
         <v>591</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -5538,8 +5659,8 @@
       <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>7</v>
+      <c r="P40" s="3">
+        <v>50</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>7</v>
@@ -5565,8 +5686,8 @@
       <c r="X40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y40" s="5">
-        <v>0</v>
+      <c r="Y40" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z40" s="5">
         <v>0</v>
@@ -5595,14 +5716,17 @@
       <c r="AH40" s="5">
         <v>0</v>
       </c>
-      <c r="AI40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ40" s="5">
+      <c r="AI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5611,7 +5735,7 @@
         <v>600</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -5649,14 +5773,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="5" t="s">
-        <v>96</v>
+      <c r="P41" s="3">
+        <v>50</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>7</v>
@@ -5676,14 +5800,14 @@
       <c r="X41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y41" s="5">
+      <c r="Y41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="5">
         <v>50</v>
       </c>
-      <c r="Z41" s="5">
-        <v>60</v>
-      </c>
       <c r="AA41" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -5706,14 +5830,17 @@
       <c r="AH41" s="5">
         <v>0</v>
       </c>
-      <c r="AI41" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ41" s="5">
+      <c r="AI41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK41" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5722,7 +5849,7 @@
         <v>601</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
@@ -5760,8 +5887,8 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>7</v>
+      <c r="P42" s="3">
+        <v>50</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>7</v>
@@ -5787,8 +5914,8 @@
       <c r="X42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y42" s="5">
-        <v>0</v>
+      <c r="Y42" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z42" s="5">
         <v>0</v>
@@ -5817,10 +5944,13 @@
       <c r="AH42" s="5">
         <v>0</v>
       </c>
-      <c r="AI42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ42" s="5">
+      <c r="AI42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5836,12 +5966,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomLeft" activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5853,31 +5983,31 @@
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="20" max="24" width="14.42578125" customWidth="1"/>
-    <col min="25" max="34" width="10" customWidth="1"/>
-    <col min="35" max="35" width="60.28515625" customWidth="1"/>
+    <col min="14" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="21" max="25" width="14.42578125" customWidth="1"/>
+    <col min="26" max="35" width="10" customWidth="1"/>
+    <col min="36" max="36" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -5895,82 +6025,85 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-2+1000</f>
         <v>1000</v>
@@ -6017,8 +6150,8 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
+      <c r="P2" s="3">
+        <v>50</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>7</v>
@@ -6044,8 +6177,8 @@
       <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="5">
-        <v>0</v>
+      <c r="Y2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z2" s="5">
         <v>0</v>
@@ -6074,14 +6207,17 @@
       <c r="AH2" s="5">
         <v>0</v>
       </c>
-      <c r="AI2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="5">
+      <c r="AI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A53" si="0">ROW()-2+1000</f>
         <v>1001</v>
@@ -6090,13 +6226,13 @@
         <v>1010</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -6128,11 +6264,11 @@
       <c r="O3" s="6">
         <v>0</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>61</v>
+      <c r="P3" s="6">
+        <v>50</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>7</v>
@@ -6155,12 +6291,12 @@
       <c r="X3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="7">
         <v>20</v>
       </c>
-      <c r="Z3" s="7">
-        <v>0</v>
-      </c>
       <c r="AA3" s="7">
         <v>0</v>
       </c>
@@ -6185,14 +6321,17 @@
       <c r="AH3" s="7">
         <v>0</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" s="7">
+      <c r="AI3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>1002</v>
@@ -6208,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -6240,11 +6379,11 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>61</v>
+      <c r="P4" s="3">
+        <v>50</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>7</v>
@@ -6267,12 +6406,12 @@
       <c r="X4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="5">
         <v>20</v>
       </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
       <c r="AA4" s="5">
         <v>0</v>
       </c>
@@ -6297,14 +6436,17 @@
       <c r="AH4" s="5">
         <v>0</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" s="5">
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>1003</v>
@@ -6320,7 +6462,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -6352,11 +6494,11 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>61</v>
+      <c r="P5" s="3">
+        <v>50</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>7</v>
@@ -6379,12 +6521,12 @@
       <c r="X5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="5">
         <v>10</v>
       </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
       <c r="AA5" s="5">
         <v>0</v>
       </c>
@@ -6409,14 +6551,17 @@
       <c r="AH5" s="5">
         <v>0</v>
       </c>
-      <c r="AI5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ5" s="5">
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -6426,13 +6571,13 @@
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -6464,11 +6609,11 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>75</v>
+      <c r="P6" s="3">
+        <v>50</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>7</v>
@@ -6491,12 +6636,12 @@
       <c r="X6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="5">
         <v>20</v>
       </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
       <c r="AA6" s="5">
         <v>0</v>
       </c>
@@ -6521,14 +6666,17 @@
       <c r="AH6" s="5">
         <v>0</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ6" s="5">
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>1005</v>
@@ -6544,7 +6692,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -6576,11 +6724,11 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>75</v>
+      <c r="P7" s="3">
+        <v>50</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>7</v>
@@ -6603,12 +6751,12 @@
       <c r="X7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="5">
         <v>20</v>
       </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
       <c r="AA7" s="5">
         <v>0</v>
       </c>
@@ -6633,14 +6781,17 @@
       <c r="AH7" s="5">
         <v>0</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ7" s="5">
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -6656,7 +6807,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -6688,11 +6839,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>75</v>
+      <c r="P8" s="3">
+        <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>7</v>
@@ -6715,12 +6866,12 @@
       <c r="X8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="5">
         <v>10</v>
       </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
       <c r="AA8" s="5">
         <v>0</v>
       </c>
@@ -6745,14 +6896,17 @@
       <c r="AH8" s="5">
         <v>0</v>
       </c>
-      <c r="AI8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ8" s="5">
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -6764,7 +6918,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -6799,14 +6953,14 @@
       <c r="O9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>74</v>
+      <c r="P9" s="6">
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>7</v>
@@ -6826,14 +6980,14 @@
       <c r="X9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="7">
         <v>20</v>
       </c>
-      <c r="Z9" s="7">
-        <v>7</v>
-      </c>
       <c r="AA9" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -6856,14 +7010,17 @@
       <c r="AH9" s="7">
         <v>0</v>
       </c>
-      <c r="AI9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ9" s="7">
+      <c r="AI9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -6879,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -6911,23 +7068,23 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="S10" s="5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>7</v>
@@ -6938,14 +7095,14 @@
       <c r="X10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="5">
-        <v>20</v>
+      <c r="Y10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z10" s="5">
         <v>20</v>
       </c>
       <c r="AA10" s="5">
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="5">
         <v>-30</v>
@@ -6954,7 +7111,7 @@
         <v>-30</v>
       </c>
       <c r="AD10" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AE10" s="5">
         <v>0</v>
@@ -6966,16 +7123,19 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
         <v>-20</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ10" s="5">
+      <c r="AJ10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -7023,18 +7183,18 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>77</v>
+      <c r="P11" s="3">
+        <v>50</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="T11" s="5" t="s">
         <v>7</v>
       </c>
@@ -7050,17 +7210,17 @@
       <c r="X11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="5">
         <v>100</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>70</v>
       </c>
       <c r="AA11" s="5">
         <v>70</v>
       </c>
       <c r="AB11" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AC11" s="5">
         <v>0</v>
@@ -7080,14 +7240,17 @@
       <c r="AH11" s="5">
         <v>0</v>
       </c>
-      <c r="AI11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ11" s="5">
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>1010</v>
@@ -7100,10 +7263,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -7135,11 +7298,11 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>87</v>
+      <c r="P12" s="3">
+        <v>50</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>7</v>
@@ -7162,12 +7325,12 @@
       <c r="X12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="5">
         <v>30</v>
       </c>
-      <c r="Z12" s="5">
-        <v>0</v>
-      </c>
       <c r="AA12" s="5">
         <v>0</v>
       </c>
@@ -7190,16 +7353,19 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5">
         <v>-10</v>
       </c>
-      <c r="AI12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ12" s="5">
+      <c r="AJ12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>1011</v>
@@ -7215,7 +7381,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="3">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -7247,14 +7413,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>87</v>
+      <c r="P13" s="3">
+        <v>50</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>7</v>
@@ -7274,15 +7440,15 @@
       <c r="X13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="5">
         <v>30</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <v>-30</v>
       </c>
-      <c r="AA13" s="5">
-        <v>0</v>
-      </c>
       <c r="AB13" s="5">
         <v>0</v>
       </c>
@@ -7302,16 +7468,19 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5">
         <v>-20</v>
       </c>
-      <c r="AI13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ13" s="5">
+      <c r="AJ13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>1012</v>
@@ -7359,8 +7528,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>7</v>
+      <c r="P14" s="3">
+        <v>50</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>7</v>
@@ -7386,8 +7555,8 @@
       <c r="X14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y14" s="5">
-        <v>0</v>
+      <c r="Y14" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z14" s="5">
         <v>0</v>
@@ -7416,14 +7585,17 @@
       <c r="AH14" s="5">
         <v>0</v>
       </c>
-      <c r="AI14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ14" s="5">
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>1013</v>
@@ -7436,22 +7608,22 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -7471,17 +7643,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>28</v>
+      <c r="P15" s="3">
+        <v>50</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
@@ -7498,18 +7670,18 @@
       <c r="X15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="5">
-        <v>10</v>
+      <c r="Y15" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z15" s="5">
         <v>10</v>
       </c>
       <c r="AA15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="5">
         <v>30</v>
       </c>
-      <c r="AB15" s="5">
-        <v>0</v>
-      </c>
       <c r="AC15" s="5">
         <v>0</v>
       </c>
@@ -7526,16 +7698,19 @@
         <v>0</v>
       </c>
       <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5">
         <v>-30</v>
       </c>
-      <c r="AI15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>1014</v>
@@ -7551,26 +7726,26 @@
         <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>80</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>20</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>100</v>
-      </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
@@ -7583,23 +7758,23 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>48</v>
+      <c r="P16" s="3">
+        <v>50</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>7</v>
@@ -7610,24 +7785,24 @@
       <c r="X16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="5">
-        <v>15</v>
+      <c r="Y16" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z16" s="5">
         <v>15</v>
       </c>
       <c r="AA16" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="5">
         <v>10</v>
       </c>
       <c r="AC16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="5">
         <v>-30</v>
       </c>
-      <c r="AD16" s="5">
-        <v>0</v>
-      </c>
       <c r="AE16" s="5">
         <v>0</v>
       </c>
@@ -7638,16 +7813,19 @@
         <v>0</v>
       </c>
       <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5">
         <v>-30</v>
       </c>
-      <c r="AI16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>1015</v>
@@ -7669,19 +7847,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -7695,11 +7873,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>46</v>
+      <c r="P17" s="3">
+        <v>50</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>7</v>
@@ -7722,12 +7900,12 @@
       <c r="X17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="5">
         <v>10</v>
       </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
       <c r="AA17" s="5">
         <v>0</v>
       </c>
@@ -7750,16 +7928,19 @@
         <v>0</v>
       </c>
       <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
         <v>-30</v>
       </c>
-      <c r="AI17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ17" s="5">
+      <c r="AJ17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>1016</v>
@@ -7772,7 +7953,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -7781,68 +7962,68 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>85</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>60</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="5">
         <v>20</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>80</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>0</v>
-      </c>
       <c r="AB18" s="5">
         <v>0</v>
       </c>
@@ -7862,16 +8043,19 @@
         <v>0</v>
       </c>
       <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
         <v>-50</v>
       </c>
-      <c r="AI18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>1017</v>
@@ -7893,40 +8077,40 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
+        <v>85</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>60</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
         <v>50</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>100</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Q19" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>7</v>
@@ -7946,14 +8130,14 @@
       <c r="X19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="5">
         <v>10</v>
       </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
       <c r="AA19" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB19" s="5">
         <v>0</v>
@@ -7974,16 +8158,19 @@
         <v>0</v>
       </c>
       <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5">
         <v>-50</v>
       </c>
-      <c r="AI19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ19" s="5">
+      <c r="AJ19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>1018</v>
@@ -8005,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -8017,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -8031,14 +8218,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>46</v>
+      <c r="P20" s="3">
+        <v>50</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>7</v>
@@ -8058,14 +8245,14 @@
       <c r="X20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="5">
         <v>10</v>
       </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
       <c r="AA20" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -8086,16 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
         <v>-50</v>
       </c>
-      <c r="AI20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ20" s="5">
+      <c r="AJ20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>1019</v>
@@ -8108,7 +8298,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -8143,14 +8333,14 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>46</v>
+      <c r="P21" s="3">
+        <v>50</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S21" s="5" t="s">
         <v>7</v>
@@ -8170,14 +8360,14 @@
       <c r="X21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" s="5">
-        <v>10</v>
+      <c r="Y21" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z21" s="5">
         <v>10</v>
       </c>
       <c r="AA21" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -8198,16 +8388,19 @@
         <v>0</v>
       </c>
       <c r="AH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
         <v>-30</v>
       </c>
-      <c r="AI21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ21" s="5">
+      <c r="AJ21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>1020</v>
@@ -8255,14 +8448,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>72</v>
+      <c r="P22" s="3">
+        <v>50</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>7</v>
@@ -8282,14 +8475,14 @@
       <c r="X22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="5">
         <v>10</v>
       </c>
-      <c r="Z22" s="5">
-        <v>0</v>
-      </c>
       <c r="AA22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -8312,14 +8505,17 @@
       <c r="AH22" s="5">
         <v>0</v>
       </c>
-      <c r="AI22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ22" s="5">
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>1021</v>
@@ -8367,14 +8563,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>7</v>
+      <c r="P23" s="3">
+        <v>50</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>7</v>
@@ -8394,14 +8590,14 @@
       <c r="X23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" s="5">
-        <v>0</v>
+      <c r="Y23" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -8424,14 +8620,17 @@
       <c r="AH23" s="5">
         <v>0</v>
       </c>
-      <c r="AI23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ23" s="5">
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>1022</v>
@@ -8444,7 +8643,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -8479,8 +8678,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>7</v>
+      <c r="P24" s="3">
+        <v>50</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>7</v>
@@ -8506,8 +8705,8 @@
       <c r="X24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" s="5">
-        <v>0</v>
+      <c r="Y24" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z24" s="5">
         <v>0</v>
@@ -8536,14 +8735,17 @@
       <c r="AH24" s="5">
         <v>0</v>
       </c>
-      <c r="AI24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ24" s="5">
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>1023</v>
@@ -8577,23 +8779,23 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
+        <v>80</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
         <v>50</v>
       </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="Q25" s="5" t="s">
         <v>7</v>
       </c>
@@ -8618,8 +8820,8 @@
       <c r="X25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" s="5">
-        <v>0</v>
+      <c r="Y25" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z25" s="5">
         <v>0</v>
@@ -8648,14 +8850,17 @@
       <c r="AH25" s="5">
         <v>0</v>
       </c>
-      <c r="AI25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ25" s="5">
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -8689,23 +8894,23 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>80</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>50</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="Q26" s="5" t="s">
         <v>7</v>
       </c>
@@ -8730,8 +8935,8 @@
       <c r="X26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="5">
-        <v>0</v>
+      <c r="Y26" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z26" s="5">
         <v>0</v>
@@ -8760,14 +8965,17 @@
       <c r="AH26" s="5">
         <v>0</v>
       </c>
-      <c r="AI26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ26" s="5">
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>1025</v>
@@ -8780,7 +8988,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -8789,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -8801,23 +9009,23 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>80</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>50</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="Q27" s="5" t="s">
         <v>7</v>
       </c>
@@ -8842,8 +9050,8 @@
       <c r="X27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="5">
-        <v>0</v>
+      <c r="Y27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z27" s="5">
         <v>0</v>
@@ -8872,14 +9080,17 @@
       <c r="AH27" s="5">
         <v>0</v>
       </c>
-      <c r="AI27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ27" s="5">
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>1026</v>
@@ -8901,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -8913,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -8927,8 +9138,8 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>7</v>
+      <c r="P28" s="3">
+        <v>50</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>7</v>
@@ -8954,8 +9165,8 @@
       <c r="X28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" s="5">
-        <v>0</v>
+      <c r="Y28" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z28" s="5">
         <v>0</v>
@@ -8984,14 +9195,17 @@
       <c r="AH28" s="5">
         <v>0</v>
       </c>
-      <c r="AI28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ28" s="5">
+      <c r="AI28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>1027</v>
@@ -9013,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -9039,8 +9253,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>7</v>
+      <c r="P29" s="3">
+        <v>50</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>7</v>
@@ -9066,8 +9280,8 @@
       <c r="X29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y29" s="5">
-        <v>0</v>
+      <c r="Y29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z29" s="5">
         <v>0</v>
@@ -9096,14 +9310,17 @@
       <c r="AH29" s="5">
         <v>0</v>
       </c>
-      <c r="AI29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ29" s="5">
+      <c r="AI29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>1028</v>
@@ -9116,7 +9333,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -9151,8 +9368,8 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>7</v>
+      <c r="P30" s="3">
+        <v>50</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>7</v>
@@ -9178,8 +9395,8 @@
       <c r="X30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y30" s="5">
-        <v>0</v>
+      <c r="Y30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z30" s="5">
         <v>0</v>
@@ -9208,14 +9425,17 @@
       <c r="AH30" s="5">
         <v>0</v>
       </c>
-      <c r="AI30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ30" s="5">
+      <c r="AI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>1029</v>
@@ -9263,8 +9483,8 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>7</v>
+      <c r="P31" s="3">
+        <v>50</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>7</v>
@@ -9290,8 +9510,8 @@
       <c r="X31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y31" s="5">
-        <v>0</v>
+      <c r="Y31" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z31" s="5">
         <v>0</v>
@@ -9320,14 +9540,17 @@
       <c r="AH31" s="5">
         <v>0</v>
       </c>
-      <c r="AI31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ31" s="5">
+      <c r="AI31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>1030</v>
@@ -9375,8 +9598,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="5" t="s">
-        <v>7</v>
+      <c r="P32" s="3">
+        <v>50</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>7</v>
@@ -9402,8 +9625,8 @@
       <c r="X32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y32" s="5">
-        <v>0</v>
+      <c r="Y32" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z32" s="5">
         <v>0</v>
@@ -9432,14 +9655,17 @@
       <c r="AH32" s="5">
         <v>0</v>
       </c>
-      <c r="AI32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ32" s="5">
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>1031</v>
@@ -9452,7 +9678,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -9487,8 +9713,8 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>7</v>
+      <c r="P33" s="3">
+        <v>50</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>7</v>
@@ -9514,8 +9740,8 @@
       <c r="X33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y33" s="5">
-        <v>0</v>
+      <c r="Y33" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z33" s="5">
         <v>0</v>
@@ -9544,14 +9770,17 @@
       <c r="AH33" s="5">
         <v>0</v>
       </c>
-      <c r="AI33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ33" s="5">
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>1032</v>
@@ -9599,8 +9828,8 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="5" t="s">
-        <v>7</v>
+      <c r="P34" s="3">
+        <v>50</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>7</v>
@@ -9626,8 +9855,8 @@
       <c r="X34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y34" s="5">
-        <v>0</v>
+      <c r="Y34" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z34" s="5">
         <v>0</v>
@@ -9656,14 +9885,17 @@
       <c r="AH34" s="5">
         <v>0</v>
       </c>
-      <c r="AI34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ34" s="5">
+      <c r="AI34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>1033</v>
@@ -9711,8 +9943,8 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>7</v>
+      <c r="P35" s="3">
+        <v>50</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>7</v>
@@ -9738,8 +9970,8 @@
       <c r="X35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y35" s="5">
-        <v>0</v>
+      <c r="Y35" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z35" s="5">
         <v>0</v>
@@ -9768,14 +10000,17 @@
       <c r="AH35" s="5">
         <v>0</v>
       </c>
-      <c r="AI35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ35" s="5">
+      <c r="AI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>1034</v>
@@ -9788,7 +10023,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -9797,65 +10032,65 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
+        <v>85</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>80</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="5">
         <v>20</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>60</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" s="5">
-        <v>20</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>0</v>
-      </c>
       <c r="AA36" s="5">
         <v>0</v>
       </c>
@@ -9880,14 +10115,17 @@
       <c r="AH36" s="5">
         <v>0</v>
       </c>
-      <c r="AI36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ36" s="5">
+      <c r="AI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>1035</v>
@@ -9909,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -9935,11 +10173,11 @@
       <c r="O37" s="3">
         <v>0</v>
       </c>
-      <c r="P37" s="5" t="s">
-        <v>7</v>
+      <c r="P37" s="3">
+        <v>50</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>7</v>
@@ -9962,11 +10200,11 @@
       <c r="X37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y37" s="5">
-        <v>0</v>
+      <c r="Y37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z37" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA37" s="5">
         <v>0</v>
@@ -9992,14 +10230,17 @@
       <c r="AH37" s="5">
         <v>0</v>
       </c>
-      <c r="AI37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ37" s="5">
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK37" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>1036</v>
@@ -10021,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -10033,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -10047,11 +10288,11 @@
       <c r="O38" s="3">
         <v>0</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>7</v>
+      <c r="P38" s="3">
+        <v>50</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>7</v>
@@ -10074,11 +10315,11 @@
       <c r="X38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y38" s="5">
-        <v>0</v>
+      <c r="Y38" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z38" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA38" s="5">
         <v>0</v>
@@ -10104,14 +10345,17 @@
       <c r="AH38" s="5">
         <v>0</v>
       </c>
-      <c r="AI38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ38" s="5">
+      <c r="AI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>1037</v>
@@ -10124,7 +10368,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -10159,8 +10403,8 @@
       <c r="O39" s="3">
         <v>0</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>7</v>
+      <c r="P39" s="3">
+        <v>50</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>7</v>
@@ -10186,8 +10430,8 @@
       <c r="X39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y39" s="5">
-        <v>0</v>
+      <c r="Y39" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z39" s="5">
         <v>0</v>
@@ -10216,14 +10460,17 @@
       <c r="AH39" s="5">
         <v>0</v>
       </c>
-      <c r="AI39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ39" s="5">
+      <c r="AI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK39" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>1038</v>
@@ -10239,7 +10486,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="3">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -10271,8 +10518,8 @@
       <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>7</v>
+      <c r="P40" s="3">
+        <v>50</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>7</v>
@@ -10298,8 +10545,8 @@
       <c r="X40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y40" s="5">
-        <v>0</v>
+      <c r="Y40" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z40" s="5">
         <v>0</v>
@@ -10328,14 +10575,17 @@
       <c r="AH40" s="5">
         <v>0</v>
       </c>
-      <c r="AI40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ40" s="5">
+      <c r="AI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>1039</v>
@@ -10383,11 +10633,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="5" t="s">
-        <v>96</v>
+      <c r="P41" s="3">
+        <v>50</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>7</v>
@@ -10410,12 +10660,12 @@
       <c r="X41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y41" s="5">
+      <c r="Y41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="5">
         <v>100</v>
       </c>
-      <c r="Z41" s="5">
-        <v>0</v>
-      </c>
       <c r="AA41" s="5">
         <v>0</v>
       </c>
@@ -10440,14 +10690,17 @@
       <c r="AH41" s="5">
         <v>0</v>
       </c>
-      <c r="AI41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ41" s="5">
+      <c r="AI41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK41" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>1040</v>
@@ -10460,7 +10713,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -10495,8 +10748,8 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>7</v>
+      <c r="P42" s="3">
+        <v>50</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>7</v>
@@ -10522,8 +10775,8 @@
       <c r="X42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y42" s="5">
-        <v>0</v>
+      <c r="Y42" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z42" s="5">
         <v>0</v>
@@ -10552,14 +10805,17 @@
       <c r="AH42" s="5">
         <v>0</v>
       </c>
-      <c r="AI42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ42" s="5">
+      <c r="AI42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK42" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>1041</v>
@@ -10607,8 +10863,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>7</v>
+      <c r="P43" s="3">
+        <v>50</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>7</v>
@@ -10634,8 +10890,8 @@
       <c r="X43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y43" s="5">
-        <v>0</v>
+      <c r="Y43" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z43" s="5">
         <v>0</v>
@@ -10664,14 +10920,17 @@
       <c r="AH43" s="5">
         <v>0</v>
       </c>
-      <c r="AI43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ43" s="5">
+      <c r="AI43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK43" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>1042</v>
@@ -10719,8 +10978,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="5" t="s">
-        <v>7</v>
+      <c r="P44" s="3">
+        <v>50</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>7</v>
@@ -10746,8 +11005,8 @@
       <c r="X44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y44" s="5">
-        <v>0</v>
+      <c r="Y44" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z44" s="5">
         <v>0</v>
@@ -10776,14 +11035,17 @@
       <c r="AH44" s="5">
         <v>0</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ44" s="5">
+      <c r="AI44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK44" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>1043</v>
@@ -10796,7 +11058,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -10831,8 +11093,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>7</v>
+      <c r="P45" s="3">
+        <v>50</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>7</v>
@@ -10858,8 +11120,8 @@
       <c r="X45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y45" s="5">
-        <v>0</v>
+      <c r="Y45" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z45" s="5">
         <v>0</v>
@@ -10888,14 +11150,17 @@
       <c r="AH45" s="5">
         <v>0</v>
       </c>
-      <c r="AI45" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ45" s="5">
+      <c r="AI45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK45" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>1044</v>
@@ -10943,8 +11208,8 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="5" t="s">
-        <v>7</v>
+      <c r="P46" s="3">
+        <v>50</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>7</v>
@@ -10970,8 +11235,8 @@
       <c r="X46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y46" s="5">
-        <v>0</v>
+      <c r="Y46" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z46" s="5">
         <v>0</v>
@@ -11000,14 +11265,17 @@
       <c r="AH46" s="5">
         <v>0</v>
       </c>
-      <c r="AI46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ46" s="5">
+      <c r="AI46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK46" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>1045</v>
@@ -11055,8 +11323,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>7</v>
+      <c r="P47" s="3">
+        <v>50</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>7</v>
@@ -11082,8 +11350,8 @@
       <c r="X47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y47" s="5">
-        <v>0</v>
+      <c r="Y47" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z47" s="5">
         <v>0</v>
@@ -11112,14 +11380,17 @@
       <c r="AH47" s="5">
         <v>0</v>
       </c>
-      <c r="AI47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ47" s="5">
+      <c r="AI47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK47" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>1046</v>
@@ -11132,7 +11403,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -11167,8 +11438,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>7</v>
+      <c r="P48" s="3">
+        <v>50</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>7</v>
@@ -11194,8 +11465,8 @@
       <c r="X48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y48" s="5">
-        <v>0</v>
+      <c r="Y48" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z48" s="5">
         <v>0</v>
@@ -11224,14 +11495,17 @@
       <c r="AH48" s="5">
         <v>0</v>
       </c>
-      <c r="AI48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ48" s="5">
+      <c r="AI48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK48" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>1047</v>
@@ -11279,8 +11553,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="5" t="s">
-        <v>7</v>
+      <c r="P49" s="3">
+        <v>50</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>7</v>
@@ -11306,8 +11580,8 @@
       <c r="X49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y49" s="5">
-        <v>0</v>
+      <c r="Y49" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z49" s="5">
         <v>0</v>
@@ -11336,14 +11610,17 @@
       <c r="AH49" s="5">
         <v>0</v>
       </c>
-      <c r="AI49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ49" s="5">
+      <c r="AI49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK49" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>1048</v>
@@ -11391,8 +11668,8 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="5" t="s">
-        <v>7</v>
+      <c r="P50" s="3">
+        <v>50</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>7</v>
@@ -11418,8 +11695,8 @@
       <c r="X50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y50" s="5">
-        <v>0</v>
+      <c r="Y50" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z50" s="5">
         <v>0</v>
@@ -11448,14 +11725,17 @@
       <c r="AH50" s="5">
         <v>0</v>
       </c>
-      <c r="AI50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ50" s="5">
+      <c r="AI50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK50" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>1049</v>
@@ -11468,7 +11748,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -11503,11 +11783,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="5" t="s">
-        <v>128</v>
+      <c r="P51" s="3">
+        <v>50</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>7</v>
@@ -11530,11 +11810,11 @@
       <c r="X51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y51" s="5">
-        <v>30</v>
+      <c r="Y51" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z51" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA51" s="5">
         <v>0</v>
@@ -11560,14 +11840,17 @@
       <c r="AH51" s="5">
         <v>0</v>
       </c>
-      <c r="AI51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ51" s="5">
+      <c r="AI51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK51" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>1050</v>
@@ -11615,11 +11898,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="5" t="s">
-        <v>128</v>
+      <c r="P52" s="3">
+        <v>50</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="R52" s="5" t="s">
         <v>7</v>
@@ -11642,11 +11925,11 @@
       <c r="X52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y52" s="5">
-        <v>30</v>
+      <c r="Y52" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z52" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA52" s="5">
         <v>0</v>
@@ -11672,14 +11955,17 @@
       <c r="AH52" s="5">
         <v>0</v>
       </c>
-      <c r="AI52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ52" s="5">
+      <c r="AI52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK52" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>1051</v>
@@ -11727,11 +12013,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="5" t="s">
-        <v>128</v>
+      <c r="P53" s="3">
+        <v>50</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="R53" s="5" t="s">
         <v>7</v>
@@ -11754,11 +12040,11 @@
       <c r="X53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y53" s="5">
-        <v>30</v>
+      <c r="Y53" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z53" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA53" s="5">
         <v>0</v>
@@ -11784,10 +12070,13 @@
       <c r="AH53" s="5">
         <v>0</v>
       </c>
-      <c r="AI53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ53" s="5">
+      <c r="AI53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11803,12 +12092,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11820,31 +12109,31 @@
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="20" width="9" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" customWidth="1"/>
-    <col min="25" max="34" width="10" customWidth="1"/>
-    <col min="35" max="35" width="60.28515625" customWidth="1"/>
+    <col min="14" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="21" width="9" customWidth="1"/>
+    <col min="22" max="25" width="9.28515625" customWidth="1"/>
+    <col min="26" max="35" width="10" customWidth="1"/>
+    <col min="36" max="36" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -11862,82 +12151,85 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A7" si="0">ROW()-2+1500</f>
         <v>1500</v>
@@ -11984,8 +12276,8 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
+      <c r="P2" s="3">
+        <v>50</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>7</v>
@@ -12011,8 +12303,8 @@
       <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="5">
-        <v>0</v>
+      <c r="Y2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z2" s="5">
         <v>0</v>
@@ -12041,14 +12333,17 @@
       <c r="AH2" s="5">
         <v>0</v>
       </c>
-      <c r="AI2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="5">
+      <c r="AI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1501</v>
@@ -12060,7 +12355,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3">
         <v>50</v>
@@ -12095,8 +12390,8 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
+      <c r="P3" s="3">
+        <v>50</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>7</v>
@@ -12122,8 +12417,8 @@
       <c r="X3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="5">
-        <v>0</v>
+      <c r="Y3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z3" s="5">
         <v>0</v>
@@ -12152,14 +12447,17 @@
       <c r="AH3" s="5">
         <v>0</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" s="5">
+      <c r="AI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>1502</v>
@@ -12171,7 +12469,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -12206,8 +12504,8 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>7</v>
+      <c r="P4" s="3">
+        <v>50</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>7</v>
@@ -12233,8 +12531,8 @@
       <c r="X4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="5">
-        <v>0</v>
+      <c r="Y4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z4" s="5">
         <v>0</v>
@@ -12263,14 +12561,17 @@
       <c r="AH4" s="5">
         <v>0</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ4" s="5">
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>1503</v>
@@ -12282,7 +12583,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -12317,8 +12618,8 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>7</v>
+      <c r="P5" s="3">
+        <v>50</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -12344,8 +12645,8 @@
       <c r="X5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="5">
-        <v>0</v>
+      <c r="Y5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z5" s="5">
         <v>0</v>
@@ -12374,14 +12675,17 @@
       <c r="AH5" s="5">
         <v>0</v>
       </c>
-      <c r="AI5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ5" s="5">
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>1504</v>
@@ -12393,7 +12697,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -12428,11 +12732,11 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>37</v>
+      <c r="P6" s="3">
+        <v>50</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>7</v>
@@ -12455,8 +12759,8 @@
       <c r="X6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="5">
-        <v>0</v>
+      <c r="Y6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z6" s="5">
         <v>0</v>
@@ -12485,14 +12789,17 @@
       <c r="AH6" s="5">
         <v>0</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ6" s="5">
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>1505</v>
@@ -12504,7 +12811,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -12539,8 +12846,8 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>7</v>
+      <c r="P7" s="3">
+        <v>50</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>7</v>
@@ -12566,8 +12873,8 @@
       <c r="X7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="5">
-        <v>0</v>
+      <c r="Y7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="Z7" s="5">
         <v>0</v>
@@ -12596,14 +12903,17 @@
       <c r="AH7" s="5">
         <v>0</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ7" s="5">
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -12619,7 +12929,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -12638,10 +12948,11 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12657,7 +12968,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -12676,10 +12987,11 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -12695,7 +13007,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -12714,10 +13026,11 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="5"/>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -12733,7 +13046,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -12752,10 +13065,11 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="5"/>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -12771,7 +13085,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="5"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -12790,10 +13104,11 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12809,7 +13124,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="5"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -12828,10 +13143,11 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
     </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12847,7 +13163,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -12866,10 +13182,11 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="5"/>
     </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -12885,7 +13202,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -12904,10 +13221,11 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="5"/>
     </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -12923,7 +13241,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -12942,10 +13260,11 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="5"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -12961,7 +13280,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="5"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -12980,8 +13299,9 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0C1D8-C0E2-4C06-A50E-F0D7987A068C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7AC10-0903-4252-9FD9-A62B526F6482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1139,10 +1139,10 @@
   </sheetPr>
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2618,25 +2618,25 @@
         <v>10</v>
       </c>
       <c r="AB13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="5">
         <v>20</v>
       </c>
       <c r="AG13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI13" s="5">
         <v>-30</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K21" s="3">
         <v>20</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3">
         <v>20</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3">
         <v>100</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -5968,7 +5968,7 @@
   </sheetPr>
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="Z54" sqref="Z54"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7AC10-0903-4252-9FD9-A62B526F6482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51182045-19AA-4869-8960-F2C92F4B8C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="3105" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51182045-19AA-4869-8960-F2C92F4B8C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF724F68-D60E-4867-B23E-328C268F2AAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3105" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2760" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2108,7 @@
         <v>55</v>
       </c>
       <c r="J9" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         <v>5</v>
       </c>
       <c r="AA9" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB9" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC9" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE9" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AF9" s="5">
         <v>50</v>
       </c>
       <c r="AG9" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH9" s="5">
         <v>0</v>
       </c>
       <c r="AI9" s="5">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="4" t="s">
         <v>92</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>45</v>
@@ -2840,10 +2840,10 @@
         <v>7</v>
       </c>
       <c r="Z15" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="5">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="4" t="s">
         <v>49</v>
@@ -2954,16 +2954,16 @@
         <v>7</v>
       </c>
       <c r="Z16" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA16" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="5">
         <v>10</v>
       </c>
-      <c r="AB16" s="5">
-        <v>40</v>
-      </c>
       <c r="AC16" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="5">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="4" t="s">
         <v>50</v>
@@ -3068,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="Z17" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="5">
         <v>20</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF724F68-D60E-4867-B23E-328C268F2AAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CCC0FC-DB23-4086-B794-FBB931F6A78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2760" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
   </sheetPr>
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
@@ -5968,10 +5968,10 @@
   </sheetPr>
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z54" sqref="Z54"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CCC0FC-DB23-4086-B794-FBB931F6A78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53812045-6EA1-4D01-8269-3B5B92B2C555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -2099,16 +2099,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>27</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>45</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H14" s="10">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>45</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>47</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3">
         <v>20</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25" s="3">
         <v>100</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H41" s="3">
         <v>60</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -5971,7 +5971,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6927,34 +6927,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>70</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
         <v>60</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>100</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>73</v>
@@ -7042,17 +7042,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>80</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>30</v>
-      </c>
-      <c r="J10" s="3">
-        <v>120</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>74</v>
@@ -7084,7 +7084,7 @@
         <v>29</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>7</v>
@@ -7105,13 +7105,13 @@
         <v>20</v>
       </c>
       <c r="AB10" s="5">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="5">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="5">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="AE10" s="5">
         <v>0</v>
@@ -7157,34 +7157,34 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>90</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
         <v>60</v>
-      </c>
-      <c r="H11" s="3">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>100</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>50</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>76</v>
@@ -7220,7 +7220,7 @@
         <v>70</v>
       </c>
       <c r="AB11" s="5">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AC11" s="5">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>86</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53812045-6EA1-4D01-8269-3B5B92B2C555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E505B-7BD8-4262-8412-5B65647414BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="157">
   <si>
     <t>desc</t>
   </si>
@@ -724,6 +724,45 @@
   </si>
   <si>
     <t>beauty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cookie_nonsuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノンシュガークッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員１ クッキー系</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>審査員１ ラスク系</t>
+    <rPh sb="0" eb="3">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュー生地のみ</t>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1137,12 +1176,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK42"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1321,7 @@
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A43" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -4136,10 +4175,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -4160,28 +4199,28 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>80</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>50</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>20</v>
-      </c>
       <c r="Q27" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>7</v>
@@ -4208,7 +4247,7 @@
         <v>7</v>
       </c>
       <c r="Z27" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA27" s="5">
         <v>0</v>
@@ -4238,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="AK27" s="5">
         <v>0</v>
@@ -4250,10 +4289,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -4265,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
         <v>50</v>
@@ -4352,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AK28" s="5">
         <v>0</v>
@@ -4364,10 +4403,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -4385,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3">
         <v>50</v>
@@ -4466,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AK29" s="5">
         <v>0</v>
@@ -4478,10 +4517,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -4493,13 +4532,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3">
         <v>50</v>
@@ -4580,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK30" s="5">
         <v>0</v>
@@ -4592,10 +4631,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
@@ -4613,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <v>50</v>
@@ -4694,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AK31" s="5">
         <v>0</v>
@@ -4706,10 +4745,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -4808,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK32" s="5">
         <v>0</v>
@@ -4820,10 +4859,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -4835,16 +4874,16 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -4862,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>7</v>
@@ -4922,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK33" s="5">
         <v>0</v>
@@ -4934,10 +4973,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -4955,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -4979,7 +5018,7 @@
         <v>50</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>7</v>
@@ -5006,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="Z34" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="5">
         <v>0</v>
@@ -5033,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AK34" s="5">
         <v>0</v>
@@ -5048,16 +5087,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -5072,7 +5111,7 @@
         <v>30</v>
       </c>
       <c r="J35" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -5093,7 +5132,7 @@
         <v>50</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>7</v>
@@ -5120,7 +5159,7 @@
         <v>7</v>
       </c>
       <c r="Z35" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA35" s="5">
         <v>0</v>
@@ -5150,7 +5189,7 @@
         <v>-15</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK35" s="5">
         <v>0</v>
@@ -5162,34 +5201,34 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K36" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -5207,7 +5246,7 @@
         <v>50</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>7</v>
@@ -5234,7 +5273,7 @@
         <v>7</v>
       </c>
       <c r="Z36" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA36" s="5">
         <v>0</v>
@@ -5261,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="AI36" s="5">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AK36" s="5">
         <v>0</v>
@@ -5276,13 +5315,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -5291,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -5303,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -5378,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK37" s="5">
         <v>0</v>
@@ -5390,13 +5429,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -5411,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -5492,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="AK38" s="5">
         <v>0</v>
@@ -5504,10 +5543,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -5519,19 +5558,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K39" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -5606,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AK39" s="5">
         <v>0</v>
@@ -5618,10 +5657,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -5639,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -5720,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK40" s="5">
         <v>0</v>
@@ -5732,10 +5771,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -5747,19 +5786,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>60</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>60</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -5777,10 +5816,10 @@
         <v>50</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>7</v>
@@ -5804,10 +5843,10 @@
         <v>7</v>
       </c>
       <c r="Z41" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="5">
         <v>0</v>
@@ -5834,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AK41" s="5">
         <v>0</v>
@@ -5846,10 +5885,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
@@ -5861,16 +5900,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -5891,10 +5930,10 @@
         <v>50</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>7</v>
@@ -5918,10 +5957,10 @@
         <v>7</v>
       </c>
       <c r="Z42" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA42" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB42" s="5">
         <v>0</v>
@@ -5948,9 +5987,123 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>601</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>54</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>40</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AK42" s="5">
+      <c r="AK43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5966,12 +6119,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK53"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5985,9 +6138,10 @@
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="16" width="6.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="21" max="25" width="14.42578125" customWidth="1"/>
+    <col min="18" max="25" width="11.28515625" customWidth="1"/>
     <col min="26" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="60.28515625" customWidth="1"/>
+    <col min="36" max="36" width="24.42578125" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6219,7 +6373,7 @@
     </row>
     <row r="3" spans="1:37" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A53" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A3:A56" si="0">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="B3" s="6">
@@ -6906,117 +7060,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="B9" s="6">
-        <v>1210</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>70</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="B9" s="3">
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1016</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>60</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="7">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="5">
         <v>20</v>
       </c>
-      <c r="AA9" s="7">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK9" s="7">
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7026,8 +7181,8 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B53" si="1">INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
-        <v>1211</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1017</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -7036,13 +7191,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -7051,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -7069,22 +7224,22 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>7</v>
@@ -7102,16 +7257,16 @@
         <v>20</v>
       </c>
       <c r="AA10" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="5">
         <v>0</v>
@@ -7126,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="AI10" s="5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="AK10" s="5">
         <v>0</v>
@@ -7141,8 +7296,8 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
-        <v>1212</v>
+        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <v>1018</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -7151,13 +7306,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -7166,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -7184,16 +7339,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>7</v>
@@ -7214,13 +7369,13 @@
         <v>7</v>
       </c>
       <c r="Z11" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="5">
         <v>0</v>
@@ -7244,124 +7399,123 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="AK11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:37" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="1"/>
-        <v>1213</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="B12" s="6">
+        <v>1210</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>70</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>60</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="5">
-        <v>-10</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK12" s="5">
+      <c r="Q12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7371,8 +7525,8 @@
         <v>1011</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
-        <v>1214</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1211</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -7387,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -7396,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -7414,22 +7568,22 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="T13" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>7</v>
@@ -7444,19 +7598,19 @@
         <v>7</v>
       </c>
       <c r="Z13" s="5">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="5">
         <v>30</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>-30</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>0</v>
       </c>
       <c r="AE13" s="5">
         <v>0</v>
@@ -7486,8 +7640,8 @@
         <v>1012</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
-        <v>1215</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1212</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -7502,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -7511,61 +7665,61 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>90</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="5">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>0</v>
-      </c>
       <c r="AA14" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB14" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC14" s="5">
         <v>0</v>
@@ -7601,14 +7755,14 @@
         <v>1013</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
-        <v>1216</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1213</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -7617,19 +7771,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K15" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -7647,13 +7801,13 @@
         <v>50</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>7</v>
@@ -7674,13 +7828,13 @@
         <v>7</v>
       </c>
       <c r="Z15" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AA15" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB15" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="5">
         <v>0</v>
@@ -7701,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AI15" s="5">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="AK15" s="5">
         <v>0</v>
@@ -7716,8 +7870,8 @@
         <v>1014</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
-        <v>1217</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1214</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -7732,19 +7886,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K16" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -7759,22 +7913,22 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="R16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="U16" s="5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>7</v>
@@ -7789,19 +7943,19 @@
         <v>7</v>
       </c>
       <c r="Z16" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA16" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC16" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AD16" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="5">
         <v>0</v>
@@ -7816,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="5">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="AJ16" s="4" t="s">
         <v>55</v>
@@ -7831,8 +7985,8 @@
         <v>1015</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="1"/>
-        <v>1218</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1215</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -7847,19 +8001,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K17" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -7877,10 +8031,10 @@
         <v>50</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>7</v>
@@ -7904,10 +8058,10 @@
         <v>7</v>
       </c>
       <c r="Z17" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -7931,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="4" t="s">
         <v>56</v>
@@ -7946,14 +8100,14 @@
         <v>1016</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="1"/>
-        <v>1219</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1216</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -7962,20 +8116,20 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>88</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>85</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>60</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -7989,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>7</v>
@@ -8019,13 +8173,13 @@
         <v>7</v>
       </c>
       <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
         <v>10</v>
       </c>
-      <c r="AA18" s="5">
-        <v>20</v>
-      </c>
       <c r="AB18" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC18" s="5">
         <v>0</v>
@@ -8046,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AJ18" s="4" t="s">
         <v>54</v>
@@ -8061,8 +8215,8 @@
         <v>1017</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="1"/>
-        <v>1220</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1217</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -8077,49 +8231,49 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
+        <v>88</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>30</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>85</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="T19" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>7</v>
@@ -8134,16 +8288,16 @@
         <v>7</v>
       </c>
       <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="5">
         <v>10</v>
       </c>
-      <c r="AA19" s="5">
-        <v>20</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>0</v>
-      </c>
       <c r="AC19" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD19" s="5">
         <v>0</v>
@@ -8161,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AJ19" s="4" t="s">
         <v>55</v>
@@ -8176,8 +8330,8 @@
         <v>1018</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="1"/>
-        <v>1221</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1218</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -8192,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -8204,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -8219,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>7</v>
@@ -8249,10 +8403,10 @@
         <v>7</v>
       </c>
       <c r="Z20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -8276,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AJ20" s="4" t="s">
         <v>56</v>
@@ -8291,14 +8445,14 @@
         <v>1019</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="1"/>
-        <v>1222</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1219</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -8307,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -8316,11 +8470,11 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>60</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -8334,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>71</v>
@@ -8364,10 +8518,10 @@
         <v>7</v>
       </c>
       <c r="Z21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -8391,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="5">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="AJ21" s="4" t="s">
         <v>54</v>
@@ -8406,8 +8560,8 @@
         <v>1020</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="1"/>
-        <v>1223</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1220</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -8422,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -8431,10 +8585,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -8449,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>71</v>
@@ -8479,10 +8633,10 @@
         <v>7</v>
       </c>
       <c r="Z22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -8506,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AJ22" s="4" t="s">
         <v>55</v>
@@ -8521,8 +8675,8 @@
         <v>1021</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="1"/>
-        <v>1224</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1221</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -8537,37 +8691,37 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>88</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>85</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>80</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>50</v>
-      </c>
       <c r="Q23" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>71</v>
@@ -8594,10 +8748,10 @@
         <v>7</v>
       </c>
       <c r="Z23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB23" s="5">
         <v>0</v>
@@ -8621,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AJ23" s="4" t="s">
         <v>56</v>
@@ -8636,14 +8790,14 @@
         <v>1022</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="1"/>
-        <v>1225</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1222</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -8652,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -8661,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K24" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -8679,13 +8833,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>7</v>
@@ -8712,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
@@ -8736,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AJ24" s="4" t="s">
         <v>54</v>
@@ -8751,8 +8905,8 @@
         <v>1023</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="1"/>
-        <v>1226</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1223</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -8767,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -8776,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K25" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -8794,13 +8948,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>7</v>
@@ -8827,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -8866,8 +9020,8 @@
         <v>1024</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="1"/>
-        <v>1227</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1224</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -8882,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -8891,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K26" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -8909,13 +9063,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>7</v>
@@ -8942,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -8981,14 +9135,14 @@
         <v>1025</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="1"/>
-        <v>1228</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1225</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -8997,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -9009,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -9096,8 +9250,8 @@
         <v>1026</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="1"/>
-        <v>1229</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1226</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -9112,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -9124,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -9211,8 +9365,8 @@
         <v>1027</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="1"/>
-        <v>1230</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1227</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -9227,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -9239,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -9326,14 +9480,14 @@
         <v>1028</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="1"/>
-        <v>1231</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1228</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -9342,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -9351,10 +9505,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -9441,8 +9595,8 @@
         <v>1029</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="1"/>
-        <v>1232</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1229</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -9457,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -9466,10 +9620,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -9556,8 +9710,8 @@
         <v>1030</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="1"/>
-        <v>1233</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1230</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -9572,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -9581,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>80</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -9671,14 +9825,14 @@
         <v>1031</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="1"/>
-        <v>1234</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1231</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -9696,13 +9850,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -9786,8 +9940,8 @@
         <v>1032</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="1"/>
-        <v>1235</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1232</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -9811,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -9901,8 +10055,8 @@
         <v>1033</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="1"/>
-        <v>1236</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1233</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -9926,13 +10080,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -10016,14 +10170,14 @@
         <v>1034</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="1"/>
-        <v>1237</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1234</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -10032,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -10044,10 +10198,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
@@ -10062,7 +10216,7 @@
         <v>50</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>7</v>
@@ -10089,7 +10243,7 @@
         <v>7</v>
       </c>
       <c r="Z36" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="5">
         <v>0</v>
@@ -10131,8 +10285,8 @@
         <v>1035</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="1"/>
-        <v>1238</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1235</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -10147,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -10159,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M37" s="3">
         <v>0</v>
@@ -10177,7 +10331,7 @@
         <v>50</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>7</v>
@@ -10204,7 +10358,7 @@
         <v>7</v>
       </c>
       <c r="Z37" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="5">
         <v>0</v>
@@ -10246,8 +10400,8 @@
         <v>1036</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="1"/>
-        <v>1239</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1236</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -10262,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -10274,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <v>80</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
       </c>
       <c r="M38" s="3">
         <v>0</v>
@@ -10292,7 +10446,7 @@
         <v>50</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>7</v>
@@ -10319,7 +10473,7 @@
         <v>7</v>
       </c>
       <c r="Z38" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="5">
         <v>0</v>
@@ -10361,14 +10515,14 @@
         <v>1037</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="1"/>
-        <v>1240</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1237</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -10377,19 +10531,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
+        <v>85</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
         <v>80</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>120</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -10407,7 +10561,7 @@
         <v>50</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>7</v>
@@ -10434,7 +10588,7 @@
         <v>7</v>
       </c>
       <c r="Z39" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA39" s="5">
         <v>0</v>
@@ -10476,8 +10630,8 @@
         <v>1038</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="1"/>
-        <v>1241</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1238</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -10492,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -10522,7 +10676,7 @@
         <v>50</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>7</v>
@@ -10549,7 +10703,7 @@
         <v>7</v>
       </c>
       <c r="Z40" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA40" s="5">
         <v>0</v>
@@ -10591,8 +10745,8 @@
         <v>1039</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="1"/>
-        <v>1242</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1239</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -10607,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -10637,7 +10791,7 @@
         <v>50</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>7</v>
@@ -10664,7 +10818,7 @@
         <v>7</v>
       </c>
       <c r="Z41" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AA41" s="5">
         <v>0</v>
@@ -10706,14 +10860,14 @@
         <v>1040</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="1"/>
-        <v>1243</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1240</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -10722,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -10734,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -10821,8 +10975,8 @@
         <v>1041</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="1"/>
-        <v>1244</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1241</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -10849,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -10936,8 +11090,8 @@
         <v>1042</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="1"/>
-        <v>1245</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1242</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -10982,7 +11136,7 @@
         <v>50</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>7</v>
@@ -11009,7 +11163,7 @@
         <v>7</v>
       </c>
       <c r="Z44" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA44" s="5">
         <v>0</v>
@@ -11051,14 +11205,14 @@
         <v>1043</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="1"/>
-        <v>1246</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1243</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -11079,13 +11233,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -11166,8 +11320,8 @@
         <v>1044</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="1"/>
-        <v>1247</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1244</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -11194,13 +11348,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -11281,8 +11435,8 @@
         <v>1045</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="1"/>
-        <v>1248</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1245</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -11309,13 +11463,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -11396,14 +11550,14 @@
         <v>1046</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="1"/>
-        <v>1249</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1246</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -11412,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -11421,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -11430,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -11511,8 +11665,8 @@
         <v>1047</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="1"/>
-        <v>1250</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1247</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -11527,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -11536,16 +11690,16 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>40</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -11626,8 +11780,8 @@
         <v>1048</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="1"/>
-        <v>1251</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1248</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -11642,25 +11796,25 @@
         <v>0</v>
       </c>
       <c r="G50" s="3">
+        <v>40</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
         <v>80</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>80</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3">
-        <v>0</v>
       </c>
       <c r="N50" s="3">
         <v>0</v>
@@ -11741,14 +11895,14 @@
         <v>1049</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="1"/>
-        <v>1252</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1249</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -11757,22 +11911,22 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
         <v>20</v>
       </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M51" s="3">
         <v>0</v>
@@ -11787,7 +11941,7 @@
         <v>50</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>7</v>
@@ -11814,7 +11968,7 @@
         <v>7</v>
       </c>
       <c r="Z51" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="5">
         <v>0</v>
@@ -11856,8 +12010,8 @@
         <v>1050</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="1"/>
-        <v>1253</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1250</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -11872,22 +12026,22 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -11902,7 +12056,7 @@
         <v>50</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="R52" s="5" t="s">
         <v>7</v>
@@ -11929,7 +12083,7 @@
         <v>7</v>
       </c>
       <c r="Z52" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="5">
         <v>0</v>
@@ -11971,8 +12125,8 @@
         <v>1051</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="1"/>
-        <v>1254</v>
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1251</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -11996,13 +12150,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M53" s="3">
         <v>0</v>
@@ -12017,7 +12171,7 @@
         <v>50</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="R53" s="5" t="s">
         <v>7</v>
@@ -12044,7 +12198,7 @@
         <v>7</v>
       </c>
       <c r="Z53" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="5">
         <v>0</v>
@@ -12077,6 +12231,351 @@
         <v>56</v>
       </c>
       <c r="AK53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>1052</v>
+      </c>
+      <c r="B54" s="3">
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1252</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>60</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>50</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>1053</v>
+      </c>
+      <c r="B55" s="3">
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1253</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>80</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>20</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>70</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>1054</v>
+      </c>
+      <c r="B56" s="3">
+        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <v>1254</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>80</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>40</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK56" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E505B-7BD8-4262-8412-5B65647414BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCCFB9C-A049-4380-A785-79037CA7927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -6122,9 +6122,9 @@
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6491,7 +6491,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" ref="B4:B11" si="1">INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
         <v>1011</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6606,7 +6606,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -6721,7 +6721,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1013</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -6836,7 +6836,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1014</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -6951,7 +6951,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7066,7 +7066,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1016</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -7181,7 +7181,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1017</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -7296,7 +7296,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3">
-        <f>INDEX(B:B,MATCH(1010,B:B,0),1)+(ROW()-MATCH(1010,B:B,0))</f>
+        <f t="shared" si="1"/>
         <v>1018</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -7525,7 +7525,7 @@
         <v>1011</v>
       </c>
       <c r="B13" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" ref="B13:B56" si="2">INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
         <v>1211</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7640,7 +7640,7 @@
         <v>1012</v>
       </c>
       <c r="B14" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1212</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -7755,7 +7755,7 @@
         <v>1013</v>
       </c>
       <c r="B15" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1213</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -7870,7 +7870,7 @@
         <v>1014</v>
       </c>
       <c r="B16" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1214</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7985,7 +7985,7 @@
         <v>1015</v>
       </c>
       <c r="B17" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1215</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -8100,7 +8100,7 @@
         <v>1016</v>
       </c>
       <c r="B18" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1216</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -8215,7 +8215,7 @@
         <v>1017</v>
       </c>
       <c r="B19" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1217</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -8330,7 +8330,7 @@
         <v>1018</v>
       </c>
       <c r="B20" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1218</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -8445,7 +8445,7 @@
         <v>1019</v>
       </c>
       <c r="B21" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1219</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -8560,7 +8560,7 @@
         <v>1020</v>
       </c>
       <c r="B22" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1220</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -8675,7 +8675,7 @@
         <v>1021</v>
       </c>
       <c r="B23" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1221</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -8790,7 +8790,7 @@
         <v>1022</v>
       </c>
       <c r="B24" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1222</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -8905,7 +8905,7 @@
         <v>1023</v>
       </c>
       <c r="B25" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1223</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -9020,7 +9020,7 @@
         <v>1024</v>
       </c>
       <c r="B26" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1224</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -9135,7 +9135,7 @@
         <v>1025</v>
       </c>
       <c r="B27" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1225</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -9250,7 +9250,7 @@
         <v>1026</v>
       </c>
       <c r="B28" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1226</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -9365,7 +9365,7 @@
         <v>1027</v>
       </c>
       <c r="B29" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1227</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -9480,7 +9480,7 @@
         <v>1028</v>
       </c>
       <c r="B30" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1228</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -9595,7 +9595,7 @@
         <v>1029</v>
       </c>
       <c r="B31" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1229</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -9710,7 +9710,7 @@
         <v>1030</v>
       </c>
       <c r="B32" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1230</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -9825,7 +9825,7 @@
         <v>1031</v>
       </c>
       <c r="B33" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1231</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -9940,7 +9940,7 @@
         <v>1032</v>
       </c>
       <c r="B34" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1232</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -10055,7 +10055,7 @@
         <v>1033</v>
       </c>
       <c r="B35" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1233</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -10170,7 +10170,7 @@
         <v>1034</v>
       </c>
       <c r="B36" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1234</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -10285,7 +10285,7 @@
         <v>1035</v>
       </c>
       <c r="B37" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1235</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -10400,7 +10400,7 @@
         <v>1036</v>
       </c>
       <c r="B38" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1236</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -10515,7 +10515,7 @@
         <v>1037</v>
       </c>
       <c r="B39" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1237</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -10630,7 +10630,7 @@
         <v>1038</v>
       </c>
       <c r="B40" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1238</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -10745,7 +10745,7 @@
         <v>1039</v>
       </c>
       <c r="B41" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1239</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -10860,7 +10860,7 @@
         <v>1040</v>
       </c>
       <c r="B42" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1240</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -10975,7 +10975,7 @@
         <v>1041</v>
       </c>
       <c r="B43" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1241</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -11090,7 +11090,7 @@
         <v>1042</v>
       </c>
       <c r="B44" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1242</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -11205,7 +11205,7 @@
         <v>1043</v>
       </c>
       <c r="B45" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1243</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -11320,7 +11320,7 @@
         <v>1044</v>
       </c>
       <c r="B46" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1244</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -11435,7 +11435,7 @@
         <v>1045</v>
       </c>
       <c r="B47" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1245</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -11550,7 +11550,7 @@
         <v>1046</v>
       </c>
       <c r="B48" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1246</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -11665,7 +11665,7 @@
         <v>1047</v>
       </c>
       <c r="B49" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1247</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -11780,7 +11780,7 @@
         <v>1048</v>
       </c>
       <c r="B50" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1248</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -11895,7 +11895,7 @@
         <v>1049</v>
       </c>
       <c r="B51" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1249</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -12010,7 +12010,7 @@
         <v>1050</v>
       </c>
       <c r="B52" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -12125,7 +12125,7 @@
         <v>1051</v>
       </c>
       <c r="B53" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1251</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -12240,7 +12240,7 @@
         <v>1052</v>
       </c>
       <c r="B54" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1252</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -12355,7 +12355,7 @@
         <v>1053</v>
       </c>
       <c r="B55" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1253</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -12470,7 +12470,7 @@
         <v>1054</v>
       </c>
       <c r="B56" s="3">
-        <f>INDEX(B:B,MATCH(1210,B:B,0),1)+(ROW()-MATCH(1210,B:B,0))</f>
+        <f t="shared" si="2"/>
         <v>1254</v>
       </c>
       <c r="C56" s="3" t="s">

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9EE460-F257-4EF3-BDFF-F83FF9BB08E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774B8B3-8671-4F47-A8D9-F8D402625151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43650" yWindow="1770" windowWidth="13035" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1527,9 +1527,9 @@
   <dimension ref="A1:AL121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomLeft" activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9803,7 +9803,7 @@
         <v>127</v>
       </c>
       <c r="T71" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="U71" s="15" t="s">
         <v>7</v>
@@ -9830,7 +9830,7 @@
         <v>20</v>
       </c>
       <c r="AC71" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AD71" s="15">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>50</v>
       </c>
       <c r="R72" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S72" s="15" t="s">
         <v>7</v>
@@ -9941,7 +9941,7 @@
         <v>7</v>
       </c>
       <c r="AA72" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB72" s="15">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>50</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S73" s="15" t="s">
         <v>7</v>
@@ -10058,7 +10058,7 @@
         <v>7</v>
       </c>
       <c r="AA73" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB73" s="15">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>50</v>
       </c>
       <c r="R74" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S74" s="15" t="s">
         <v>7</v>
@@ -10175,7 +10175,7 @@
         <v>7</v>
       </c>
       <c r="AA74" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB74" s="15">
         <v>0</v>
@@ -10265,7 +10265,7 @@
         <v>50</v>
       </c>
       <c r="R75" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S75" s="15" t="s">
         <v>7</v>
@@ -10292,7 +10292,7 @@
         <v>7</v>
       </c>
       <c r="AA75" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB75" s="15">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>50</v>
       </c>
       <c r="R76" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S76" s="15" t="s">
         <v>7</v>
@@ -10409,7 +10409,7 @@
         <v>7</v>
       </c>
       <c r="AA76" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB76" s="15">
         <v>0</v>
@@ -10499,7 +10499,7 @@
         <v>50</v>
       </c>
       <c r="R77" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S77" s="15" t="s">
         <v>7</v>
@@ -10526,7 +10526,7 @@
         <v>7</v>
       </c>
       <c r="AA77" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB77" s="15">
         <v>0</v>
@@ -10616,7 +10616,7 @@
         <v>50</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S78" s="15" t="s">
         <v>7</v>
@@ -10643,7 +10643,7 @@
         <v>7</v>
       </c>
       <c r="AA78" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB78" s="15">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774B8B3-8671-4F47-A8D9-F8D402625151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6FB5B-7C3B-4A7E-A6E3-8400F6239E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3450" windowWidth="21270" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="2265" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1526,10 +1526,10 @@
   </sheetPr>
   <dimension ref="A1:AL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="S68" sqref="S68"/>
+      <selection pane="bottomLeft" activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1958,7 +1958,7 @@
         <v>50</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>7</v>
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="AA4" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>91</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="Y6" s="5" t="s">
         <v>7</v>
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="AG6" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AH6" s="5">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>29</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>7</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AC29" s="5">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>34</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>7</v>
@@ -5039,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="AE30" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AF30" s="5">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>50</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>7</v>
@@ -5261,7 +5261,7 @@
         <v>7</v>
       </c>
       <c r="AA32" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6FB5B-7C3B-4A7E-A6E3-8400F6239E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC23031-34E1-4F0C-B545-FBB02CB767DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2265" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1770" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="245">
   <si>
     <t>desc</t>
   </si>
@@ -1107,6 +1107,14 @@
   </si>
   <si>
     <t>strawberry_parfe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sumire_suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_drygrape</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1524,12 +1532,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL121"/>
+  <dimension ref="A1:AL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AG7" sqref="AG7"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1680,7 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A121" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A123" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -7637,237 +7645,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="3">
-        <v>561</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>88</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
+      <c r="B53" s="14">
+        <v>538</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>80</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>30</v>
+      </c>
+      <c r="J53" s="14">
+        <v>70</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0</v>
+      </c>
+      <c r="P53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="14">
         <v>50</v>
       </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>50</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL53" s="5">
+      <c r="R53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL53" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="14">
-        <v>562</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14">
-        <v>0</v>
-      </c>
-      <c r="G54" s="14">
-        <v>100</v>
-      </c>
-      <c r="H54" s="14">
-        <v>0</v>
-      </c>
-      <c r="I54" s="14">
-        <v>30</v>
-      </c>
-      <c r="J54" s="14">
-        <v>0</v>
-      </c>
-      <c r="K54" s="14">
-        <v>85</v>
-      </c>
-      <c r="L54" s="14">
-        <v>0</v>
-      </c>
-      <c r="M54" s="14">
-        <v>0</v>
-      </c>
-      <c r="N54" s="14">
-        <v>0</v>
-      </c>
-      <c r="O54" s="14">
-        <v>0</v>
-      </c>
-      <c r="P54" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>110</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S54" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="T54" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="U54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z54" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="15">
-        <v>10</v>
-      </c>
-      <c r="AC54" s="15">
+      <c r="B54" s="3">
+        <v>561</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>88</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>50</v>
       </c>
-      <c r="AD54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="15">
-        <v>-30</v>
-      </c>
-      <c r="AK54" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL54" s="15">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>50</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL54" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7877,10 +7885,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="14">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>7</v>
@@ -7931,7 +7939,7 @@
         <v>127</v>
       </c>
       <c r="T55" s="15" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="U55" s="15" t="s">
         <v>7</v>
@@ -7958,7 +7966,7 @@
         <v>10</v>
       </c>
       <c r="AC55" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AD55" s="15">
         <v>0</v>
@@ -7994,10 +8002,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="14">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>7</v>
@@ -8009,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H56" s="14">
         <v>0</v>
@@ -8048,10 +8056,10 @@
         <v>127</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="U56" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V56" s="15" t="s">
         <v>7</v>
@@ -8074,11 +8082,11 @@
       <c r="AB56" s="15">
         <v>10</v>
       </c>
-      <c r="AC56" s="17">
+      <c r="AC56" s="15">
         <v>30</v>
       </c>
       <c r="AD56" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="15">
         <v>0</v>
@@ -8111,10 +8119,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="14">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>7</v>
@@ -8132,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J57" s="14">
         <v>0</v>
@@ -8168,7 +8176,7 @@
         <v>178</v>
       </c>
       <c r="U57" s="15" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="V57" s="15" t="s">
         <v>7</v>
@@ -8228,10 +8236,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="14">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>7</v>
@@ -8243,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="14">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H58" s="14">
         <v>0</v>
@@ -8282,10 +8290,10 @@
         <v>127</v>
       </c>
       <c r="T58" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>7</v>
@@ -8308,11 +8316,11 @@
       <c r="AB58" s="15">
         <v>10</v>
       </c>
-      <c r="AC58" s="15">
+      <c r="AC58" s="17">
         <v>30</v>
       </c>
       <c r="AD58" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE58" s="15">
         <v>0</v>
@@ -8345,10 +8353,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="14">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>7</v>
@@ -8360,13 +8368,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="14">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H59" s="14">
         <v>0</v>
       </c>
       <c r="I59" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J59" s="14">
         <v>0</v>
@@ -8399,10 +8407,10 @@
         <v>127</v>
       </c>
       <c r="T59" s="15" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="V59" s="15" t="s">
         <v>7</v>
@@ -8429,7 +8437,7 @@
         <v>30</v>
       </c>
       <c r="AD59" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="15">
         <v>0</v>
@@ -8462,10 +8470,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="14">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>7</v>
@@ -8579,10 +8587,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="14">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>7</v>
@@ -8594,19 +8602,19 @@
         <v>0</v>
       </c>
       <c r="G61" s="14">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H61" s="14">
         <v>0</v>
       </c>
       <c r="I61" s="14">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J61" s="14">
         <v>0</v>
       </c>
       <c r="K61" s="14">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L61" s="14">
         <v>0</v>
@@ -8636,7 +8644,7 @@
         <v>129</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V61" s="15" t="s">
         <v>7</v>
@@ -8696,10 +8704,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="14">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>7</v>
@@ -8711,19 +8719,19 @@
         <v>0</v>
       </c>
       <c r="G62" s="14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J62" s="14">
         <v>0</v>
       </c>
       <c r="K62" s="14">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L62" s="14">
         <v>0</v>
@@ -8753,7 +8761,7 @@
         <v>129</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="V62" s="15" t="s">
         <v>7</v>
@@ -8780,7 +8788,7 @@
         <v>30</v>
       </c>
       <c r="AD62" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE62" s="15">
         <v>0</v>
@@ -8813,10 +8821,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="14">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>7</v>
@@ -8930,16 +8938,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="14">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F64" s="14">
         <v>0</v>
@@ -9047,28 +9055,28 @@
         <v>63</v>
       </c>
       <c r="B65" s="14">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F65" s="14">
         <v>0</v>
       </c>
       <c r="G65" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
       </c>
       <c r="I65" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J65" s="14">
         <v>0</v>
@@ -9092,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>45</v>
@@ -9164,10 +9172,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="14">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>7</v>
@@ -9179,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H66" s="14">
         <v>0</v>
       </c>
       <c r="I66" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
@@ -9209,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>45</v>
@@ -9281,10 +9289,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="14">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>7</v>
@@ -9296,13 +9304,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="H67" s="14">
         <v>0</v>
       </c>
       <c r="I67" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
@@ -9326,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>45</v>
@@ -9398,10 +9406,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="14">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>7</v>
@@ -9413,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H68" s="14">
         <v>0</v>
       </c>
       <c r="I68" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J68" s="14">
         <v>0</v>
@@ -9443,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>45</v>
@@ -9515,10 +9523,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="14">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>7</v>
@@ -9530,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="14">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H69" s="14">
         <v>0</v>
@@ -9632,10 +9640,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="14">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>7</v>
@@ -9647,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="14">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H70" s="14">
         <v>0</v>
@@ -9749,10 +9757,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="14">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>7</v>
@@ -9764,19 +9772,19 @@
         <v>0</v>
       </c>
       <c r="G71" s="14">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="H71" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I71" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J71" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K71" s="14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L71" s="14">
         <v>0</v>
@@ -9794,16 +9802,16 @@
         <v>0</v>
       </c>
       <c r="Q71" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R71" s="15" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="S71" s="15" t="s">
         <v>127</v>
       </c>
       <c r="T71" s="15" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="U71" s="15" t="s">
         <v>7</v>
@@ -9824,13 +9832,13 @@
         <v>7</v>
       </c>
       <c r="AA71" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC71" s="15">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="AD71" s="15">
         <v>0</v>
@@ -9851,10 +9859,10 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="15">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK71" s="16" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AL71" s="15">
         <v>0</v>
@@ -9866,10 +9874,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="14">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>7</v>
@@ -9884,13 +9892,13 @@
         <v>32</v>
       </c>
       <c r="H72" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I72" s="14">
         <v>0</v>
       </c>
       <c r="J72" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K72" s="14">
         <v>0</v>
@@ -9914,14 +9922,14 @@
         <v>50</v>
       </c>
       <c r="R72" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S72" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T72" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="U72" s="15" t="s">
         <v>7</v>
       </c>
@@ -9941,14 +9949,14 @@
         <v>7</v>
       </c>
       <c r="AA72" s="15">
+        <v>50</v>
+      </c>
+      <c r="AB72" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC72" s="15">
         <v>-50</v>
       </c>
-      <c r="AB72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="15">
-        <v>0</v>
-      </c>
       <c r="AD72" s="15">
         <v>0</v>
       </c>
@@ -9971,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL72" s="15">
         <v>0</v>
@@ -9983,10 +9991,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="14">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>7</v>
@@ -10007,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K73" s="14">
         <v>0</v>
@@ -10100,10 +10108,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="14">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>7</v>
@@ -10124,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K74" s="14">
         <v>0</v>
@@ -10217,10 +10225,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="14">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>7</v>
@@ -10241,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K75" s="14">
         <v>0</v>
@@ -10334,10 +10342,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="14">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>7</v>
@@ -10451,10 +10459,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="14">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>7</v>
@@ -10568,10 +10576,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="14">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>7</v>
@@ -10583,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="14">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H78" s="14">
         <v>0</v>
@@ -10592,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K78" s="14">
         <v>0</v>
@@ -10685,10 +10693,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="14">
-        <v>650</v>
+        <v>607</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>7</v>
@@ -10709,10 +10717,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K79" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L79" s="14">
         <v>0</v>
@@ -10730,10 +10738,10 @@
         <v>0</v>
       </c>
       <c r="Q79" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R79" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S79" s="15" t="s">
         <v>7</v>
@@ -10760,7 +10768,7 @@
         <v>7</v>
       </c>
       <c r="AA79" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB79" s="15">
         <v>0</v>
@@ -10790,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="AK79" s="16" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="AL79" s="15">
         <v>0</v>
@@ -10802,10 +10810,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="14">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>7</v>
@@ -10817,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="14">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H80" s="14">
         <v>0</v>
@@ -10847,19 +10855,19 @@
         <v>0</v>
       </c>
       <c r="Q80" s="14">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="S80" s="15" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="T80" s="15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V80" s="15" t="s">
         <v>7</v>
@@ -10877,16 +10885,16 @@
         <v>7</v>
       </c>
       <c r="AA80" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD80" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="15">
         <v>0</v>
@@ -10919,10 +10927,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="14">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>7</v>
@@ -10967,16 +10975,16 @@
         <v>130</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="S81" s="15" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="T81" s="15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V81" s="15" t="s">
         <v>7</v>
@@ -10994,16 +11002,16 @@
         <v>7</v>
       </c>
       <c r="AA81" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB81" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC81" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD81" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE81" s="15">
         <v>0</v>
@@ -11036,10 +11044,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="14">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>7</v>
@@ -11051,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="14">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H82" s="14">
         <v>0</v>
@@ -11081,10 +11089,10 @@
         <v>0</v>
       </c>
       <c r="Q82" s="14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="S82" s="15" t="s">
         <v>7</v>
@@ -11111,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="AA82" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="15">
         <v>0</v>
@@ -11147,471 +11155,471 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="B83" s="3">
-        <v>680</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="B83" s="14">
+        <v>653</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0</v>
+      </c>
+      <c r="G83" s="14">
         <v>54</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>30</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="H83" s="14">
+        <v>0</v>
+      </c>
+      <c r="I83" s="14">
+        <v>0</v>
+      </c>
+      <c r="J83" s="14">
+        <v>0</v>
+      </c>
+      <c r="K83" s="14">
+        <v>80</v>
+      </c>
+      <c r="L83" s="14">
+        <v>0</v>
+      </c>
+      <c r="M83" s="14">
+        <v>0</v>
+      </c>
+      <c r="N83" s="14">
+        <v>0</v>
+      </c>
+      <c r="O83" s="14">
+        <v>0</v>
+      </c>
+      <c r="P83" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="14">
         <v>50</v>
       </c>
-      <c r="R83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK83" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL83" s="5">
+      <c r="R83" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z83" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA83" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL83" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14">
+    <row r="84" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B84" s="14">
-        <v>700</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="14">
-        <v>0</v>
-      </c>
-      <c r="F84" s="14">
-        <v>0</v>
-      </c>
-      <c r="G84" s="14">
-        <v>77</v>
-      </c>
-      <c r="H84" s="14">
-        <v>0</v>
-      </c>
-      <c r="I84" s="14">
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
-        <v>0</v>
-      </c>
-      <c r="K84" s="14">
-        <v>60</v>
-      </c>
-      <c r="L84" s="14">
-        <v>0</v>
-      </c>
-      <c r="M84" s="14">
-        <v>0</v>
-      </c>
-      <c r="N84" s="14">
-        <v>0</v>
-      </c>
-      <c r="O84" s="14">
-        <v>0</v>
-      </c>
-      <c r="P84" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="14">
+      <c r="B84" s="3">
+        <v>680</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>54</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>30</v>
+      </c>
+      <c r="J84" s="3">
+        <v>100</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
         <v>50</v>
       </c>
-      <c r="R84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z84" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL84" s="15">
+      <c r="R84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL84" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B85" s="3">
-        <v>701</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
+      <c r="B85" s="14">
+        <v>700</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
         <v>77</v>
       </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>10</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="14">
         <v>60</v>
       </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3">
-        <v>0</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
+      <c r="L85" s="14">
+        <v>0</v>
+      </c>
+      <c r="M85" s="14">
+        <v>0</v>
+      </c>
+      <c r="N85" s="14">
+        <v>0</v>
+      </c>
+      <c r="O85" s="14">
+        <v>0</v>
+      </c>
+      <c r="P85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="14">
         <v>50</v>
       </c>
-      <c r="R85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK85" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL85" s="5">
+      <c r="R85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL85" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14">
+    <row r="86" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="B86" s="14">
-        <v>720</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="14">
-        <v>0</v>
-      </c>
-      <c r="F86" s="14">
-        <v>0</v>
-      </c>
-      <c r="G86" s="14">
-        <v>88</v>
-      </c>
-      <c r="H86" s="14">
-        <v>0</v>
-      </c>
-      <c r="I86" s="14">
-        <v>0</v>
-      </c>
-      <c r="J86" s="14">
-        <v>0</v>
-      </c>
-      <c r="K86" s="14">
-        <v>0</v>
-      </c>
-      <c r="L86" s="14">
-        <v>0</v>
-      </c>
-      <c r="M86" s="14">
+      <c r="B86" s="3">
+        <v>701</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>77</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>10</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
         <v>60</v>
       </c>
-      <c r="N86" s="14">
-        <v>0</v>
-      </c>
-      <c r="O86" s="14">
-        <v>0</v>
-      </c>
-      <c r="P86" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="14">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
         <v>50</v>
       </c>
-      <c r="R86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z86" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL86" s="15">
+      <c r="R86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL86" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11621,10 +11629,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="14">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>7</v>
@@ -11636,10 +11644,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="14">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H87" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I87" s="14">
         <v>0</v>
@@ -11669,7 +11677,7 @@
         <v>50</v>
       </c>
       <c r="R87" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S87" s="15" t="s">
         <v>7</v>
@@ -11696,7 +11704,7 @@
         <v>7</v>
       </c>
       <c r="AA87" s="15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB87" s="15">
         <v>0</v>
@@ -11738,10 +11746,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="14">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>7</v>
@@ -11753,10 +11761,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H88" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I88" s="14">
         <v>0</v>
@@ -11765,13 +11773,13 @@
         <v>0</v>
       </c>
       <c r="K88" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L88" s="14">
         <v>0</v>
       </c>
       <c r="M88" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N88" s="14">
         <v>0</v>
@@ -11786,7 +11794,7 @@
         <v>50</v>
       </c>
       <c r="R88" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S88" s="15" t="s">
         <v>7</v>
@@ -11813,7 +11821,7 @@
         <v>7</v>
       </c>
       <c r="AA88" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB88" s="15">
         <v>0</v>
@@ -11843,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="AK88" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AL88" s="15">
         <v>0</v>
@@ -11855,10 +11863,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="14">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>7</v>
@@ -11870,10 +11878,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="14">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H89" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I89" s="14">
         <v>0</v>
@@ -11882,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L89" s="14">
         <v>0</v>
@@ -11900,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R89" s="15" t="s">
         <v>7</v>
@@ -11972,10 +11980,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="14">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>7</v>
@@ -11987,10 +11995,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H90" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I90" s="14">
         <v>0</v>
@@ -11999,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L90" s="14">
         <v>0</v>
@@ -12017,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R90" s="15" t="s">
         <v>7</v>
@@ -12089,10 +12097,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="14">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>7</v>
@@ -12206,10 +12214,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="14">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>7</v>
@@ -12221,40 +12229,40 @@
         <v>0</v>
       </c>
       <c r="G92" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H92" s="14">
         <v>0</v>
       </c>
       <c r="I92" s="14">
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
+        <v>0</v>
+      </c>
+      <c r="K92" s="14">
+        <v>100</v>
+      </c>
+      <c r="L92" s="14">
+        <v>0</v>
+      </c>
+      <c r="M92" s="14">
+        <v>0</v>
+      </c>
+      <c r="N92" s="14">
+        <v>0</v>
+      </c>
+      <c r="O92" s="14">
+        <v>0</v>
+      </c>
+      <c r="P92" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="14">
         <v>50</v>
       </c>
-      <c r="J92" s="14">
-        <v>0</v>
-      </c>
-      <c r="K92" s="14">
-        <v>130</v>
-      </c>
-      <c r="L92" s="14">
-        <v>0</v>
-      </c>
-      <c r="M92" s="14">
-        <v>0</v>
-      </c>
-      <c r="N92" s="14">
-        <v>0</v>
-      </c>
-      <c r="O92" s="14">
-        <v>0</v>
-      </c>
-      <c r="P92" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="14">
-        <v>130</v>
-      </c>
       <c r="R92" s="15" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="S92" s="15" t="s">
         <v>7</v>
@@ -12281,7 +12289,7 @@
         <v>7</v>
       </c>
       <c r="AA92" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB92" s="15">
         <v>0</v>
@@ -12323,10 +12331,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="14">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>7</v>
@@ -12338,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="14">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H93" s="14">
         <v>0</v>
@@ -12350,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="14">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L93" s="14">
         <v>0</v>
@@ -12368,10 +12376,10 @@
         <v>0</v>
       </c>
       <c r="Q93" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="R93" s="15" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="S93" s="15" t="s">
         <v>7</v>
@@ -12398,7 +12406,7 @@
         <v>7</v>
       </c>
       <c r="AA93" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB93" s="15">
         <v>0</v>
@@ -12440,10 +12448,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="14">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>7</v>
@@ -12455,10 +12463,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="14">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="H94" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I94" s="14">
         <v>0</v>
@@ -12467,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L94" s="14">
         <v>0</v>
@@ -12488,7 +12496,7 @@
         <v>50</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="S94" s="15" t="s">
         <v>7</v>
@@ -12515,7 +12523,7 @@
         <v>7</v>
       </c>
       <c r="AA94" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB94" s="15">
         <v>0</v>
@@ -12557,10 +12565,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="14">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>7</v>
@@ -12578,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J95" s="14">
         <v>0</v>
@@ -12602,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R95" s="15" t="s">
         <v>45</v>
@@ -12674,10 +12682,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="14">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>7</v>
@@ -12701,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L96" s="14">
         <v>0</v>
@@ -12791,10 +12799,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="14">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>7</v>
@@ -12806,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H97" s="14">
         <v>0</v>
@@ -12818,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L97" s="14">
         <v>0</v>
@@ -12836,19 +12844,19 @@
         <v>0</v>
       </c>
       <c r="Q97" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T97" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U97" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V97" s="15" t="s">
         <v>7</v>
@@ -12866,16 +12874,16 @@
         <v>7</v>
       </c>
       <c r="AA97" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB97" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC97" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD97" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE97" s="15">
         <v>0</v>
@@ -12908,10 +12916,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="14">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>7</v>
@@ -12923,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H98" s="14">
         <v>0</v>
@@ -12935,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L98" s="14">
         <v>0</v>
@@ -12953,19 +12961,19 @@
         <v>0</v>
       </c>
       <c r="Q98" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T98" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U98" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V98" s="15" t="s">
         <v>7</v>
@@ -12983,16 +12991,16 @@
         <v>7</v>
       </c>
       <c r="AA98" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB98" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC98" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD98" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE98" s="15">
         <v>0</v>
@@ -13025,10 +13033,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="14">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>7</v>
@@ -13052,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L99" s="14">
         <v>0</v>
@@ -13073,16 +13081,16 @@
         <v>110</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="T99" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>7</v>
@@ -13100,16 +13108,16 @@
         <v>7</v>
       </c>
       <c r="AA99" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB99" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC99" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD99" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE99" s="15">
         <v>0</v>
@@ -13130,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="AK99" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL99" s="15">
         <v>0</v>
@@ -13142,10 +13150,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="14">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>7</v>
@@ -13169,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L100" s="14">
         <v>0</v>
@@ -13190,16 +13198,16 @@
         <v>110</v>
       </c>
       <c r="R100" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S100" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T100" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S100" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="T100" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="U100" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>7</v>
@@ -13217,16 +13225,16 @@
         <v>7</v>
       </c>
       <c r="AA100" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB100" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="15">
         <v>10</v>
       </c>
-      <c r="AC100" s="15">
-        <v>0</v>
-      </c>
       <c r="AD100" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE100" s="15">
         <v>0</v>
@@ -13247,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="AK100" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL100" s="15">
         <v>0</v>
@@ -13259,10 +13267,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="14">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>7</v>
@@ -13307,10 +13315,10 @@
         <v>110</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="T101" s="15" t="s">
         <v>7</v>
@@ -13337,7 +13345,7 @@
         <v>5</v>
       </c>
       <c r="AB101" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="15">
         <v>0</v>
@@ -13376,10 +13384,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="14">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>7</v>
@@ -13403,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L102" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M102" s="14">
         <v>0</v>
@@ -13421,13 +13429,13 @@
         <v>0</v>
       </c>
       <c r="Q102" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T102" s="15" t="s">
         <v>7</v>
@@ -13451,10 +13459,10 @@
         <v>7</v>
       </c>
       <c r="AA102" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB102" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC102" s="15">
         <v>0</v>
@@ -13493,10 +13501,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="14">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>7</v>
@@ -13520,10 +13528,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L103" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M103" s="14">
         <v>0</v>
@@ -13538,13 +13546,13 @@
         <v>0</v>
       </c>
       <c r="Q103" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="T103" s="15" t="s">
         <v>7</v>
@@ -13568,10 +13576,10 @@
         <v>7</v>
       </c>
       <c r="AA103" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB103" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC103" s="15">
         <v>0</v>
@@ -13610,10 +13618,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="14">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>7</v>
@@ -13640,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M104" s="14">
         <v>0</v>
@@ -13658,10 +13666,10 @@
         <v>50</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="T104" s="15" t="s">
         <v>7</v>
@@ -13685,10 +13693,10 @@
         <v>7</v>
       </c>
       <c r="AA104" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC104" s="15">
         <v>0</v>
@@ -13727,10 +13735,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="14">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>7</v>
@@ -13757,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M105" s="14">
         <v>0</v>
@@ -13775,10 +13783,10 @@
         <v>50</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="T105" s="15" t="s">
         <v>7</v>
@@ -13802,10 +13810,10 @@
         <v>7</v>
       </c>
       <c r="AA105" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB105" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC105" s="15">
         <v>0</v>
@@ -13844,10 +13852,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="14">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>7</v>
@@ -13895,7 +13903,7 @@
         <v>127</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="T106" s="15" t="s">
         <v>7</v>
@@ -13961,10 +13969,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="14">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>7</v>
@@ -14012,7 +14020,7 @@
         <v>127</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="T107" s="15" t="s">
         <v>7</v>
@@ -14078,10 +14086,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="14">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>7</v>
@@ -14129,7 +14137,7 @@
         <v>127</v>
       </c>
       <c r="S108" s="15" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="T108" s="15" t="s">
         <v>7</v>
@@ -14195,10 +14203,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="14">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>7</v>
@@ -14246,7 +14254,7 @@
         <v>127</v>
       </c>
       <c r="S109" s="15" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="T109" s="15" t="s">
         <v>7</v>
@@ -14312,10 +14320,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="14">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>7</v>
@@ -14363,7 +14371,7 @@
         <v>127</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="T110" s="15" t="s">
         <v>7</v>
@@ -14387,7 +14395,7 @@
         <v>7</v>
       </c>
       <c r="AA110" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB110" s="15">
         <v>20</v>
@@ -14429,10 +14437,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="14">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>7</v>
@@ -14444,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="14">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H111" s="14">
         <v>0</v>
@@ -14459,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M111" s="14">
         <v>0</v>
@@ -14471,16 +14479,16 @@
         <v>0</v>
       </c>
       <c r="P111" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="14">
         <v>50</v>
       </c>
       <c r="R111" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S111" s="15" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="T111" s="15" t="s">
         <v>7</v>
@@ -14504,10 +14512,10 @@
         <v>7</v>
       </c>
       <c r="AA111" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB111" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC111" s="15">
         <v>0</v>
@@ -14534,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="AK111" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL111" s="15">
         <v>0</v>
@@ -14546,10 +14554,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="14">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>7</v>
@@ -14561,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="14">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H112" s="14">
         <v>0</v>
@@ -14576,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M112" s="14">
         <v>0</v>
@@ -14588,16 +14596,16 @@
         <v>0</v>
       </c>
       <c r="P112" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="14">
         <v>50</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T112" s="15" t="s">
         <v>7</v>
@@ -14621,10 +14629,10 @@
         <v>7</v>
       </c>
       <c r="AA112" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB112" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC112" s="15">
         <v>0</v>
@@ -14651,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="AK112" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL112" s="15">
         <v>0</v>
@@ -14663,10 +14671,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="14">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>7</v>
@@ -14780,10 +14788,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="14">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>7</v>
@@ -14897,10 +14905,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="14">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>7</v>
@@ -15014,10 +15022,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="14">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>7</v>
@@ -15131,10 +15139,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="14">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>7</v>
@@ -15248,10 +15256,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="14">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>7</v>
@@ -15365,10 +15373,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="14">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>7</v>
@@ -15482,10 +15490,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="14">
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>7</v>
@@ -15497,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="14">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="H120" s="14">
         <v>0</v>
@@ -15509,10 +15517,10 @@
         <v>0</v>
       </c>
       <c r="K120" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L120" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M120" s="14">
         <v>0</v>
@@ -15524,13 +15532,13 @@
         <v>0</v>
       </c>
       <c r="P120" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q120" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S120" s="15" t="s">
         <v>7</v>
@@ -15557,7 +15565,7 @@
         <v>7</v>
       </c>
       <c r="AA120" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB120" s="15">
         <v>0</v>
@@ -15599,10 +15607,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="14">
-        <v>951</v>
+        <v>908</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>7</v>
@@ -15614,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="14">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="H121" s="14">
         <v>0</v>
@@ -15626,10 +15634,10 @@
         <v>0</v>
       </c>
       <c r="K121" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L121" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M121" s="14">
         <v>0</v>
@@ -15641,13 +15649,13 @@
         <v>0</v>
       </c>
       <c r="P121" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q121" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R121" s="15" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="S121" s="15" t="s">
         <v>7</v>
@@ -15674,7 +15682,7 @@
         <v>7</v>
       </c>
       <c r="AA121" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB121" s="15">
         <v>0</v>
@@ -15707,6 +15715,240 @@
         <v>231</v>
       </c>
       <c r="AL121" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="14">
+        <v>950</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="14">
+        <v>0</v>
+      </c>
+      <c r="F122" s="14">
+        <v>0</v>
+      </c>
+      <c r="G122" s="14">
+        <v>88</v>
+      </c>
+      <c r="H122" s="14">
+        <v>0</v>
+      </c>
+      <c r="I122" s="14">
+        <v>0</v>
+      </c>
+      <c r="J122" s="14">
+        <v>0</v>
+      </c>
+      <c r="K122" s="14">
+        <v>60</v>
+      </c>
+      <c r="L122" s="14">
+        <v>60</v>
+      </c>
+      <c r="M122" s="14">
+        <v>0</v>
+      </c>
+      <c r="N122" s="14">
+        <v>0</v>
+      </c>
+      <c r="O122" s="14">
+        <v>0</v>
+      </c>
+      <c r="P122" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="14">
+        <v>110</v>
+      </c>
+      <c r="R122" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="S122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z122" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA122" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK122" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL122" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="14">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="14">
+        <v>951</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="14">
+        <v>0</v>
+      </c>
+      <c r="F123" s="14">
+        <v>0</v>
+      </c>
+      <c r="G123" s="14">
+        <v>88</v>
+      </c>
+      <c r="H123" s="14">
+        <v>0</v>
+      </c>
+      <c r="I123" s="14">
+        <v>0</v>
+      </c>
+      <c r="J123" s="14">
+        <v>0</v>
+      </c>
+      <c r="K123" s="14">
+        <v>60</v>
+      </c>
+      <c r="L123" s="14">
+        <v>60</v>
+      </c>
+      <c r="M123" s="14">
+        <v>0</v>
+      </c>
+      <c r="N123" s="14">
+        <v>0</v>
+      </c>
+      <c r="O123" s="14">
+        <v>0</v>
+      </c>
+      <c r="P123" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="14">
+        <v>110</v>
+      </c>
+      <c r="R123" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="S123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z123" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA123" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ123" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK123" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL123" s="15">
         <v>0</v>
       </c>
     </row>
@@ -15724,7 +15966,7 @@
   </sheetPr>
   <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC23031-34E1-4F0C-B545-FBB02CB767DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C5F63-FFFB-4AEB-9725-DC1B511849CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1770" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="246">
   <si>
     <t>desc</t>
   </si>
@@ -1117,12 +1117,33 @@
     <t>rusk_drygrape</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>きらきら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ラスク</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1150,6 +1171,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1196,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1215,6 +1248,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1532,12 +1566,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL123"/>
+  <dimension ref="A1:AL124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1680,7 +1714,7 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A123" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A124" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -2620,31 +2654,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2665,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>7</v>
@@ -2695,13 +2729,13 @@
         <v>7</v>
       </c>
       <c r="AA10" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="5">
         <v>0</v>
@@ -2724,8 +2758,8 @@
       <c r="AJ10" s="5">
         <v>0</v>
       </c>
-      <c r="AK10" s="4" t="s">
-        <v>31</v>
+      <c r="AK10" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="AL10" s="5">
         <v>0</v>
@@ -2737,13 +2771,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2752,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -2761,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2770,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2785,7 +2819,7 @@
         <v>50</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>7</v>
@@ -2812,7 +2846,7 @@
         <v>7</v>
       </c>
       <c r="AA11" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -2842,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="AL11" s="5">
         <v>0</v>
@@ -2854,13 +2888,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2869,25 +2903,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2899,43 +2933,43 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>50</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="5">
         <v>70</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>10</v>
-      </c>
       <c r="AB12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="5">
         <v>0</v>
@@ -2959,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AL12" s="5">
         <v>0</v>
@@ -2971,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -2992,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -3016,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>45</v>
@@ -3028,291 +3062,291 @@
         <v>71</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="5">
         <v>10</v>
       </c>
       <c r="AC13" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="AL13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="10">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="3">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>88</v>
       </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>40</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>85</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>110</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="10">
-        <v>30</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>50</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="11">
+      <c r="V14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
         <v>10</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AC14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="5">
         <v>20</v>
       </c>
-      <c r="AD14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="11">
-        <v>-40</v>
-      </c>
-      <c r="AK14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL14" s="11">
+      <c r="AH14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>-30</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:38" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="10">
+        <v>62</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>88</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>40</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>88</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>60</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>80</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="L15" s="10">
+        <v>30</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>50</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="5">
+      <c r="S15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
         <v>10</v>
       </c>
-      <c r="AC15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL15" s="5">
+      <c r="AC15" s="11">
+        <v>20</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>-40</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3322,13 +3356,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3367,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>7</v>
@@ -3397,16 +3431,16 @@
         <v>7</v>
       </c>
       <c r="AA16" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="5">
         <v>0</v>
@@ -3427,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL16" s="5">
         <v>0</v>
@@ -3439,13 +3473,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3454,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -3466,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -3484,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>7</v>
@@ -3514,16 +3548,16 @@
         <v>7</v>
       </c>
       <c r="AA17" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB17" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AC17" s="5">
         <v>10</v>
       </c>
       <c r="AD17" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="5">
         <v>0</v>
@@ -3544,477 +3578,477 @@
         <v>0</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="AL17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="14">
-        <v>100</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>88</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <v>0</v>
-      </c>
-      <c r="L18" s="14">
-        <v>60</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="14">
+      <c r="B18" s="3">
+        <v>90</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>35</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>50</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="R18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="T18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" s="15">
+      <c r="U18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="5">
         <v>10</v>
       </c>
-      <c r="AB18" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL18" s="15">
+      <c r="AD18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>54</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>40</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="B19" s="14">
+        <v>100</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>88</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>60</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
         <v>50</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL19" s="5">
+      <c r="R19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL19" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="14">
-        <v>160</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>58</v>
-      </c>
-      <c r="H20" s="14">
-        <v>60</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
-        <v>60</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
+      <c r="B20" s="3">
+        <v>150</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>54</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>40</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>50</v>
       </c>
-      <c r="R20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL20" s="15">
+      <c r="R20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>500</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>32</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="B21" s="14">
+        <v>160</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>58</v>
+      </c>
+      <c r="H21" s="14">
         <v>60</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>60</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
         <v>50</v>
       </c>
-      <c r="R21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="5">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>12</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>20</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>10</v>
-      </c>
-      <c r="AG21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL21" s="5">
+      <c r="R21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL21" s="15">
         <v>0</v>
       </c>
     </row>
@@ -4024,13 +4058,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -4045,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>60</v>
@@ -4072,22 +4106,22 @@
         <v>50</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>7</v>
@@ -4099,22 +4133,22 @@
         <v>7</v>
       </c>
       <c r="AA22" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC22" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE22" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG22" s="5">
         <v>0</v>
@@ -4129,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="4" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AL22" s="5">
         <v>0</v>
@@ -4141,10 +4175,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -4162,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J23" s="3">
         <v>60</v>
       </c>
       <c r="K23" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -4246,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AL23" s="5">
         <v>0</v>
@@ -4258,10 +4292,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -4276,7 +4310,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -4285,7 +4319,7 @@
         <v>60</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -4363,243 +4397,243 @@
         <v>0</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AL24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="14">
-        <v>504</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="B25" s="3">
+        <v>503</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
         <v>32</v>
       </c>
-      <c r="H25" s="14">
-        <v>10</v>
-      </c>
-      <c r="I25" s="14">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
-        <v>100</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>0</v>
-      </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
+      <c r="H25" s="3">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>60</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
         <v>50</v>
       </c>
-      <c r="R25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="16" t="s">
+      <c r="R25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AL25" s="15">
+      <c r="AL25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>505</v>
+      <c r="B26" s="14">
+        <v>504</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>80</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>80</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>32</v>
+      </c>
+      <c r="H26" s="14">
+        <v>10</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>100</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
         <v>50</v>
       </c>
-      <c r="R26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL26" s="5">
+      <c r="R26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL26" s="15">
         <v>0</v>
       </c>
     </row>
@@ -4609,10 +4643,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>7</v>
@@ -4624,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -4657,7 +4691,7 @@
         <v>50</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="S27" s="5" t="s">
         <v>7</v>
@@ -4684,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="AA27" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -4726,10 +4760,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>7</v>
@@ -4741,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J28" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -4843,12 +4877,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>508</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="3">
@@ -4858,16 +4892,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -4891,10 +4925,10 @@
         <v>50</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>7</v>
@@ -4921,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="5">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="5">
         <v>0</v>
@@ -4945,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="4" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AL29" s="5">
         <v>0</v>
@@ -4960,16 +4994,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -5008,19 +5042,19 @@
         <v>50</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>7</v>
@@ -5035,19 +5069,19 @@
         <v>7</v>
       </c>
       <c r="AA30" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="5">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="AC30" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="5">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="5">
         <v>0</v>
@@ -5062,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="5">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AL30" s="5">
         <v>0</v>
@@ -5077,16 +5111,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -5095,10 +5129,10 @@
         <v>32</v>
       </c>
       <c r="H31" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
         <v>60</v>
@@ -5125,19 +5159,19 @@
         <v>50</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>7</v>
@@ -5152,19 +5186,19 @@
         <v>7</v>
       </c>
       <c r="AA31" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB31" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC31" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD31" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE31" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AF31" s="5">
         <v>0</v>
@@ -5179,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK31" s="4" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AL31" s="5">
         <v>0</v>
@@ -5194,10 +5228,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -5212,10 +5246,10 @@
         <v>32</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>60</v>
@@ -5242,7 +5276,7 @@
         <v>50</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>7</v>
@@ -5269,7 +5303,7 @@
         <v>7</v>
       </c>
       <c r="AA32" s="5">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="AB32" s="5">
         <v>0</v>
@@ -5299,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="AL32" s="5">
         <v>0</v>
@@ -5311,10 +5345,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -5326,16 +5360,16 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J33" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -5359,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>7</v>
@@ -5386,7 +5420,7 @@
         <v>7</v>
       </c>
       <c r="AA33" s="5">
-        <v>15</v>
+        <v>-50</v>
       </c>
       <c r="AB33" s="5">
         <v>0</v>
@@ -5416,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AL33" s="5">
         <v>0</v>
@@ -5428,12 +5462,12 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>513</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3">
@@ -5443,16 +5477,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -5473,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>7</v>
@@ -5503,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="AA34" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -5533,126 +5567,126 @@
         <v>0</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="AL34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+    <row r="35" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="14">
-        <v>514</v>
+      <c r="B35" s="3">
+        <v>513</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="14">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>60</v>
       </c>
-      <c r="H35" s="14">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14">
-        <v>0</v>
-      </c>
-      <c r="J35" s="14">
-        <v>60</v>
-      </c>
-      <c r="K35" s="14">
-        <v>0</v>
-      </c>
-      <c r="L35" s="14">
-        <v>0</v>
-      </c>
-      <c r="M35" s="14">
-        <v>0</v>
-      </c>
-      <c r="N35" s="14">
-        <v>0</v>
-      </c>
-      <c r="O35" s="14">
-        <v>0</v>
-      </c>
-      <c r="P35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>50</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="16" t="s">
+      <c r="H35" s="3">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3">
+        <v>30</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>80</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AL35" s="15">
+      <c r="AL35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5662,10 +5696,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="14">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>7</v>
@@ -5677,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="14">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H36" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I36" s="14">
         <v>0</v>
@@ -5779,10 +5813,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="14">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>7</v>
@@ -5794,16 +5828,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="14">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H37" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I37" s="14">
         <v>0</v>
       </c>
       <c r="J37" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K37" s="14">
         <v>0</v>
@@ -5896,10 +5930,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="14">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>7</v>
@@ -5911,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H38" s="14">
         <v>0</v>
@@ -6013,10 +6047,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="14">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>7</v>
@@ -6028,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="H39" s="14">
         <v>0</v>
@@ -6124,120 +6158,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="3">
-        <v>520</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="B40" s="14">
+        <v>518</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>120</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>80</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0</v>
+      </c>
+      <c r="P40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="14">
         <v>50</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>20</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL40" s="5">
+      <c r="R40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL40" s="15">
         <v>0</v>
       </c>
     </row>
@@ -6247,10 +6281,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -6262,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>50</v>
@@ -6352,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL41" s="5">
         <v>0</v>
@@ -6364,10 +6398,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
@@ -6385,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J42" s="3">
         <v>50</v>
@@ -6469,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AL42" s="5">
         <v>0</v>
@@ -6481,10 +6515,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -6496,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J43" s="3">
         <v>50</v>
@@ -6586,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AL43" s="5">
         <v>0</v>
@@ -6598,10 +6632,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
@@ -6619,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>50</v>
@@ -6703,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AL44" s="5">
         <v>0</v>
@@ -6715,10 +6749,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
@@ -6820,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AL45" s="5">
         <v>0</v>
@@ -6832,10 +6866,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
@@ -6847,16 +6881,16 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J46" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -6877,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R46" s="5" t="s">
         <v>7</v>
@@ -6937,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AL46" s="5">
         <v>0</v>
@@ -6949,10 +6983,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
@@ -6967,13 +7001,13 @@
         <v>54</v>
       </c>
       <c r="H47" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -6997,7 +7031,7 @@
         <v>50</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>7</v>
@@ -7024,7 +7058,7 @@
         <v>7</v>
       </c>
       <c r="AA47" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="5">
         <v>0</v>
@@ -7051,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AL47" s="5">
         <v>0</v>
@@ -7066,16 +7100,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -7084,13 +7118,13 @@
         <v>54</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I48" s="3">
         <v>30</v>
       </c>
       <c r="J48" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -7114,7 +7148,7 @@
         <v>50</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>7</v>
@@ -7141,7 +7175,7 @@
         <v>7</v>
       </c>
       <c r="AA48" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -7171,126 +7205,126 @@
         <v>-15</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL48" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+    <row r="49" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="14">
-        <v>534</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="14">
-        <v>0</v>
-      </c>
-      <c r="F49" s="14">
-        <v>0</v>
-      </c>
-      <c r="G49" s="14">
-        <v>70</v>
-      </c>
-      <c r="H49" s="14">
-        <v>0</v>
-      </c>
-      <c r="I49" s="14">
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
+      <c r="B49" s="3">
+        <v>533</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>54</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>30</v>
+      </c>
+      <c r="J49" s="3">
         <v>50</v>
       </c>
-      <c r="K49" s="14">
-        <v>0</v>
-      </c>
-      <c r="L49" s="14">
-        <v>0</v>
-      </c>
-      <c r="M49" s="14">
-        <v>0</v>
-      </c>
-      <c r="N49" s="14">
-        <v>0</v>
-      </c>
-      <c r="O49" s="14">
-        <v>0</v>
-      </c>
-      <c r="P49" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>50</v>
       </c>
-      <c r="R49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="16" t="s">
+      <c r="R49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA49" s="5">
         <v>25</v>
       </c>
-      <c r="AL49" s="15">
+      <c r="AB49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AK49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7300,10 +7334,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="14">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>7</v>
@@ -7315,13 +7349,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="14">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H50" s="14">
         <v>0</v>
       </c>
       <c r="I50" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J50" s="14">
         <v>50</v>
@@ -7417,10 +7451,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="14">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>7</v>
@@ -7534,10 +7568,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="14">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>7</v>
@@ -7549,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="14">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
@@ -7651,10 +7685,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="14">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>7</v>
@@ -7675,7 +7709,7 @@
         <v>30</v>
       </c>
       <c r="J53" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K53" s="14">
         <v>0</v>
@@ -7762,237 +7796,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="3">
-        <v>561</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>88</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="B54" s="14">
+        <v>538</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>80</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14">
+        <v>30</v>
+      </c>
+      <c r="J54" s="14">
+        <v>70</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0</v>
+      </c>
+      <c r="P54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="14">
         <v>50</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>50</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL54" s="5">
+      <c r="R54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL54" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="14">
-        <v>562</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="14">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14">
-        <v>0</v>
-      </c>
-      <c r="G55" s="14">
-        <v>100</v>
-      </c>
-      <c r="H55" s="14">
-        <v>0</v>
-      </c>
-      <c r="I55" s="14">
-        <v>30</v>
-      </c>
-      <c r="J55" s="14">
-        <v>0</v>
-      </c>
-      <c r="K55" s="14">
-        <v>85</v>
-      </c>
-      <c r="L55" s="14">
-        <v>0</v>
-      </c>
-      <c r="M55" s="14">
-        <v>0</v>
-      </c>
-      <c r="N55" s="14">
-        <v>0</v>
-      </c>
-      <c r="O55" s="14">
-        <v>0</v>
-      </c>
-      <c r="P55" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="14">
-        <v>110</v>
-      </c>
-      <c r="R55" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S55" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="T55" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="U55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="15">
-        <v>10</v>
-      </c>
-      <c r="AC55" s="15">
+      <c r="B55" s="3">
+        <v>561</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>88</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
         <v>50</v>
       </c>
-      <c r="AD55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="15">
-        <v>-30</v>
-      </c>
-      <c r="AK55" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL55" s="15">
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>50</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL55" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8002,10 +8036,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="14">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>7</v>
@@ -8056,7 +8090,7 @@
         <v>127</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="U56" s="15" t="s">
         <v>7</v>
@@ -8083,7 +8117,7 @@
         <v>10</v>
       </c>
       <c r="AC56" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AD56" s="15">
         <v>0</v>
@@ -8119,10 +8153,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="14">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>7</v>
@@ -8134,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H57" s="14">
         <v>0</v>
@@ -8173,10 +8207,10 @@
         <v>127</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="U57" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V57" s="15" t="s">
         <v>7</v>
@@ -8199,11 +8233,11 @@
       <c r="AB57" s="15">
         <v>10</v>
       </c>
-      <c r="AC57" s="17">
+      <c r="AC57" s="15">
         <v>30</v>
       </c>
       <c r="AD57" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="15">
         <v>0</v>
@@ -8236,10 +8270,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="14">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>7</v>
@@ -8257,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J58" s="14">
         <v>0</v>
@@ -8293,7 +8327,7 @@
         <v>178</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>7</v>
@@ -8353,10 +8387,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="14">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>7</v>
@@ -8368,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="14">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H59" s="14">
         <v>0</v>
@@ -8407,10 +8441,10 @@
         <v>127</v>
       </c>
       <c r="T59" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V59" s="15" t="s">
         <v>7</v>
@@ -8433,11 +8467,11 @@
       <c r="AB59" s="15">
         <v>10</v>
       </c>
-      <c r="AC59" s="15">
+      <c r="AC59" s="17">
         <v>30</v>
       </c>
       <c r="AD59" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE59" s="15">
         <v>0</v>
@@ -8470,10 +8504,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="14">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>7</v>
@@ -8485,13 +8519,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="14">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H60" s="14">
         <v>0</v>
       </c>
       <c r="I60" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J60" s="14">
         <v>0</v>
@@ -8524,10 +8558,10 @@
         <v>127</v>
       </c>
       <c r="T60" s="15" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="V60" s="15" t="s">
         <v>7</v>
@@ -8554,7 +8588,7 @@
         <v>30</v>
       </c>
       <c r="AD60" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="15">
         <v>0</v>
@@ -8587,10 +8621,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="14">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>7</v>
@@ -8704,10 +8738,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="14">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>7</v>
@@ -8719,19 +8753,19 @@
         <v>0</v>
       </c>
       <c r="G62" s="14">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="14">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J62" s="14">
         <v>0</v>
       </c>
       <c r="K62" s="14">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L62" s="14">
         <v>0</v>
@@ -8761,7 +8795,7 @@
         <v>129</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V62" s="15" t="s">
         <v>7</v>
@@ -8821,10 +8855,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="14">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>7</v>
@@ -8836,19 +8870,19 @@
         <v>0</v>
       </c>
       <c r="G63" s="14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H63" s="14">
         <v>0</v>
       </c>
       <c r="I63" s="14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J63" s="14">
         <v>0</v>
       </c>
       <c r="K63" s="14">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L63" s="14">
         <v>0</v>
@@ -8878,7 +8912,7 @@
         <v>129</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="V63" s="15" t="s">
         <v>7</v>
@@ -8905,7 +8939,7 @@
         <v>30</v>
       </c>
       <c r="AD63" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE63" s="15">
         <v>0</v>
@@ -8938,10 +8972,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="14">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>7</v>
@@ -9055,16 +9089,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="14">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F65" s="14">
         <v>0</v>
@@ -9172,28 +9206,28 @@
         <v>64</v>
       </c>
       <c r="B66" s="14">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F66" s="14">
         <v>0</v>
       </c>
       <c r="G66" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H66" s="14">
         <v>0</v>
       </c>
       <c r="I66" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
@@ -9217,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>45</v>
@@ -9289,10 +9323,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="14">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>7</v>
@@ -9304,13 +9338,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H67" s="14">
         <v>0</v>
       </c>
       <c r="I67" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
@@ -9334,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>45</v>
@@ -9406,10 +9440,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="14">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>7</v>
@@ -9421,13 +9455,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="H68" s="14">
         <v>0</v>
       </c>
       <c r="I68" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J68" s="14">
         <v>0</v>
@@ -9451,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>45</v>
@@ -9523,10 +9557,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="14">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>7</v>
@@ -9538,13 +9572,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H69" s="14">
         <v>0</v>
       </c>
       <c r="I69" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J69" s="14">
         <v>0</v>
@@ -9568,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>45</v>
@@ -9640,10 +9674,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="14">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>7</v>
@@ -9655,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="14">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H70" s="14">
         <v>0</v>
@@ -9757,10 +9791,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="14">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>7</v>
@@ -9772,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="14">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H71" s="14">
         <v>0</v>
@@ -9874,10 +9908,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="14">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>7</v>
@@ -9889,19 +9923,19 @@
         <v>0</v>
       </c>
       <c r="G72" s="14">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="H72" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I72" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J72" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K72" s="14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L72" s="14">
         <v>0</v>
@@ -9919,16 +9953,16 @@
         <v>0</v>
       </c>
       <c r="Q72" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R72" s="15" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="S72" s="15" t="s">
         <v>127</v>
       </c>
       <c r="T72" s="15" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="U72" s="15" t="s">
         <v>7</v>
@@ -9949,13 +9983,13 @@
         <v>7</v>
       </c>
       <c r="AA72" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC72" s="15">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -9976,10 +10010,10 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="15">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK72" s="16" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AL72" s="15">
         <v>0</v>
@@ -9991,10 +10025,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="14">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>7</v>
@@ -10009,13 +10043,13 @@
         <v>32</v>
       </c>
       <c r="H73" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I73" s="14">
         <v>0</v>
       </c>
       <c r="J73" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K73" s="14">
         <v>0</v>
@@ -10039,14 +10073,14 @@
         <v>50</v>
       </c>
       <c r="R73" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T73" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="U73" s="15" t="s">
         <v>7</v>
       </c>
@@ -10066,14 +10100,14 @@
         <v>7</v>
       </c>
       <c r="AA73" s="15">
+        <v>50</v>
+      </c>
+      <c r="AB73" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC73" s="15">
         <v>-50</v>
       </c>
-      <c r="AB73" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="15">
-        <v>0</v>
-      </c>
       <c r="AD73" s="15">
         <v>0</v>
       </c>
@@ -10096,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL73" s="15">
         <v>0</v>
@@ -10108,10 +10142,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="14">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>7</v>
@@ -10132,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K74" s="14">
         <v>0</v>
@@ -10225,10 +10259,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="14">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>7</v>
@@ -10249,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K75" s="14">
         <v>0</v>
@@ -10342,10 +10376,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="14">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>7</v>
@@ -10366,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K76" s="14">
         <v>0</v>
@@ -10459,10 +10493,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="14">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>7</v>
@@ -10576,10 +10610,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="14">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>7</v>
@@ -10693,10 +10727,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="14">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>7</v>
@@ -10708,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="14">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H79" s="14">
         <v>0</v>
@@ -10717,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K79" s="14">
         <v>0</v>
@@ -10810,10 +10844,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="14">
-        <v>650</v>
+        <v>607</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>7</v>
@@ -10834,10 +10868,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K80" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L80" s="14">
         <v>0</v>
@@ -10855,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="Q80" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>7</v>
@@ -10885,7 +10919,7 @@
         <v>7</v>
       </c>
       <c r="AA80" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AB80" s="15">
         <v>0</v>
@@ -10915,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="AK80" s="16" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="AL80" s="15">
         <v>0</v>
@@ -10927,10 +10961,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="14">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>7</v>
@@ -10942,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="14">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -10972,19 +11006,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="14">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="S81" s="15" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="T81" s="15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V81" s="15" t="s">
         <v>7</v>
@@ -11002,16 +11036,16 @@
         <v>7</v>
       </c>
       <c r="AA81" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="15">
         <v>0</v>
@@ -11044,10 +11078,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="14">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>7</v>
@@ -11092,16 +11126,16 @@
         <v>130</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="S82" s="15" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="T82" s="15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V82" s="15" t="s">
         <v>7</v>
@@ -11119,16 +11153,16 @@
         <v>7</v>
       </c>
       <c r="AA82" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB82" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC82" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD82" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE82" s="15">
         <v>0</v>
@@ -11161,10 +11195,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="14">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>7</v>
@@ -11176,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="14">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
@@ -11206,10 +11240,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R83" s="15" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="S83" s="15" t="s">
         <v>7</v>
@@ -11236,7 +11270,7 @@
         <v>7</v>
       </c>
       <c r="AA83" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="15">
         <v>0</v>
@@ -11272,471 +11306,471 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+    <row r="84" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B84" s="3">
-        <v>680</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
+      <c r="B84" s="14">
+        <v>653</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
         <v>54</v>
       </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>30</v>
-      </c>
-      <c r="J84" s="3">
-        <v>100</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>0</v>
-      </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0</v>
-      </c>
-      <c r="O84" s="3">
-        <v>0</v>
-      </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0</v>
+      </c>
+      <c r="K84" s="14">
+        <v>80</v>
+      </c>
+      <c r="L84" s="14">
+        <v>0</v>
+      </c>
+      <c r="M84" s="14">
+        <v>0</v>
+      </c>
+      <c r="N84" s="14">
+        <v>0</v>
+      </c>
+      <c r="O84" s="14">
+        <v>0</v>
+      </c>
+      <c r="P84" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="14">
         <v>50</v>
       </c>
-      <c r="R84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL84" s="5">
+      <c r="R84" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA84" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL84" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14">
+    <row r="85" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B85" s="14">
-        <v>700</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="14">
-        <v>0</v>
-      </c>
-      <c r="F85" s="14">
-        <v>0</v>
-      </c>
-      <c r="G85" s="14">
-        <v>77</v>
-      </c>
-      <c r="H85" s="14">
-        <v>0</v>
-      </c>
-      <c r="I85" s="14">
-        <v>0</v>
-      </c>
-      <c r="J85" s="14">
-        <v>0</v>
-      </c>
-      <c r="K85" s="14">
-        <v>60</v>
-      </c>
-      <c r="L85" s="14">
-        <v>0</v>
-      </c>
-      <c r="M85" s="14">
-        <v>0</v>
-      </c>
-      <c r="N85" s="14">
-        <v>0</v>
-      </c>
-      <c r="O85" s="14">
-        <v>0</v>
-      </c>
-      <c r="P85" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="14">
+      <c r="B85" s="3">
+        <v>680</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>54</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>30</v>
+      </c>
+      <c r="J85" s="3">
+        <v>100</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
         <v>50</v>
       </c>
-      <c r="R85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z85" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK85" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL85" s="15">
+      <c r="R85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL85" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="B86" s="3">
-        <v>701</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
+      <c r="B86" s="14">
+        <v>700</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0</v>
+      </c>
+      <c r="G86" s="14">
         <v>77</v>
       </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>10</v>
-      </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3">
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
+        <v>0</v>
+      </c>
+      <c r="K86" s="14">
         <v>60</v>
       </c>
-      <c r="L86" s="3">
-        <v>0</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
+      <c r="L86" s="14">
+        <v>0</v>
+      </c>
+      <c r="M86" s="14">
+        <v>0</v>
+      </c>
+      <c r="N86" s="14">
+        <v>0</v>
+      </c>
+      <c r="O86" s="14">
+        <v>0</v>
+      </c>
+      <c r="P86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="14">
         <v>50</v>
       </c>
-      <c r="R86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL86" s="5">
+      <c r="R86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z86" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL86" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14">
+    <row r="87" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="B87" s="14">
-        <v>720</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="14">
-        <v>0</v>
-      </c>
-      <c r="F87" s="14">
-        <v>0</v>
-      </c>
-      <c r="G87" s="14">
-        <v>88</v>
-      </c>
-      <c r="H87" s="14">
-        <v>0</v>
-      </c>
-      <c r="I87" s="14">
-        <v>0</v>
-      </c>
-      <c r="J87" s="14">
-        <v>0</v>
-      </c>
-      <c r="K87" s="14">
-        <v>0</v>
-      </c>
-      <c r="L87" s="14">
-        <v>0</v>
-      </c>
-      <c r="M87" s="14">
+      <c r="B87" s="3">
+        <v>701</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>77</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>10</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
         <v>60</v>
       </c>
-      <c r="N87" s="14">
-        <v>0</v>
-      </c>
-      <c r="O87" s="14">
-        <v>0</v>
-      </c>
-      <c r="P87" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="14">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
         <v>50</v>
       </c>
-      <c r="R87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z87" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK87" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL87" s="15">
+      <c r="R87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL87" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11746,10 +11780,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="14">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>7</v>
@@ -11761,10 +11795,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="14">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H88" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I88" s="14">
         <v>0</v>
@@ -11794,7 +11828,7 @@
         <v>50</v>
       </c>
       <c r="R88" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S88" s="15" t="s">
         <v>7</v>
@@ -11821,7 +11855,7 @@
         <v>7</v>
       </c>
       <c r="AA88" s="15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="15">
         <v>0</v>
@@ -11863,10 +11897,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="14">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>7</v>
@@ -11878,10 +11912,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H89" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I89" s="14">
         <v>0</v>
@@ -11890,13 +11924,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="14">
         <v>0</v>
       </c>
       <c r="M89" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N89" s="14">
         <v>0</v>
@@ -11911,7 +11945,7 @@
         <v>50</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S89" s="15" t="s">
         <v>7</v>
@@ -11938,7 +11972,7 @@
         <v>7</v>
       </c>
       <c r="AA89" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB89" s="15">
         <v>0</v>
@@ -11968,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AK89" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AL89" s="15">
         <v>0</v>
@@ -11980,10 +12014,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="14">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>7</v>
@@ -11995,10 +12029,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="14">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H90" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I90" s="14">
         <v>0</v>
@@ -12007,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L90" s="14">
         <v>0</v>
@@ -12025,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R90" s="15" t="s">
         <v>7</v>
@@ -12097,10 +12131,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="14">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>7</v>
@@ -12112,10 +12146,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H91" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I91" s="14">
         <v>0</v>
@@ -12124,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L91" s="14">
         <v>0</v>
@@ -12142,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R91" s="15" t="s">
         <v>7</v>
@@ -12214,10 +12248,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="14">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>7</v>
@@ -12331,10 +12365,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="14">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>7</v>
@@ -12346,40 +12380,40 @@
         <v>0</v>
       </c>
       <c r="G93" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H93" s="14">
         <v>0</v>
       </c>
       <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0</v>
+      </c>
+      <c r="K93" s="14">
+        <v>100</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0</v>
+      </c>
+      <c r="M93" s="14">
+        <v>0</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
+        <v>0</v>
+      </c>
+      <c r="P93" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="14">
         <v>50</v>
       </c>
-      <c r="J93" s="14">
-        <v>0</v>
-      </c>
-      <c r="K93" s="14">
-        <v>130</v>
-      </c>
-      <c r="L93" s="14">
-        <v>0</v>
-      </c>
-      <c r="M93" s="14">
-        <v>0</v>
-      </c>
-      <c r="N93" s="14">
-        <v>0</v>
-      </c>
-      <c r="O93" s="14">
-        <v>0</v>
-      </c>
-      <c r="P93" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="14">
-        <v>130</v>
-      </c>
       <c r="R93" s="15" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="S93" s="15" t="s">
         <v>7</v>
@@ -12406,7 +12440,7 @@
         <v>7</v>
       </c>
       <c r="AA93" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB93" s="15">
         <v>0</v>
@@ -12448,10 +12482,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="14">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>7</v>
@@ -12463,19 +12497,19 @@
         <v>0</v>
       </c>
       <c r="G94" s="14">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H94" s="14">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
         <v>50</v>
       </c>
-      <c r="I94" s="14">
-        <v>0</v>
-      </c>
       <c r="J94" s="14">
         <v>0</v>
       </c>
       <c r="K94" s="14">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L94" s="14">
         <v>0</v>
@@ -12493,10 +12527,10 @@
         <v>0</v>
       </c>
       <c r="Q94" s="14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="S94" s="15" t="s">
         <v>7</v>
@@ -12523,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="AA94" s="15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB94" s="15">
         <v>0</v>
@@ -12565,10 +12599,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="14">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>7</v>
@@ -12580,40 +12614,40 @@
         <v>0</v>
       </c>
       <c r="G95" s="14">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="H95" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I95" s="14">
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="K95" s="14">
+        <v>0</v>
+      </c>
+      <c r="L95" s="14">
+        <v>0</v>
+      </c>
+      <c r="M95" s="14">
+        <v>0</v>
+      </c>
+      <c r="N95" s="14">
+        <v>0</v>
+      </c>
+      <c r="O95" s="14">
+        <v>0</v>
+      </c>
+      <c r="P95" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="14">
         <v>50</v>
       </c>
-      <c r="J95" s="14">
-        <v>0</v>
-      </c>
-      <c r="K95" s="14">
-        <v>80</v>
-      </c>
-      <c r="L95" s="14">
-        <v>0</v>
-      </c>
-      <c r="M95" s="14">
-        <v>0</v>
-      </c>
-      <c r="N95" s="14">
-        <v>0</v>
-      </c>
-      <c r="O95" s="14">
-        <v>0</v>
-      </c>
-      <c r="P95" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="14">
-        <v>100</v>
-      </c>
       <c r="R95" s="15" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="S95" s="15" t="s">
         <v>7</v>
@@ -12640,7 +12674,7 @@
         <v>7</v>
       </c>
       <c r="AA95" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB95" s="15">
         <v>0</v>
@@ -12682,10 +12716,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="14">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>7</v>
@@ -12703,13 +12737,13 @@
         <v>0</v>
       </c>
       <c r="I96" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J96" s="14">
         <v>0</v>
       </c>
       <c r="K96" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L96" s="14">
         <v>0</v>
@@ -12727,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R96" s="15" t="s">
         <v>45</v>
@@ -12799,10 +12833,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="14">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>7</v>
@@ -12826,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L97" s="14">
         <v>0</v>
@@ -12916,10 +12950,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="14">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>7</v>
@@ -13033,10 +13067,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="14">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>7</v>
@@ -13048,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H99" s="14">
         <v>0</v>
@@ -13060,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L99" s="14">
         <v>0</v>
@@ -13078,19 +13112,19 @@
         <v>0</v>
       </c>
       <c r="Q99" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T99" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>7</v>
@@ -13108,16 +13142,16 @@
         <v>7</v>
       </c>
       <c r="AA99" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB99" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC99" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD99" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE99" s="15">
         <v>0</v>
@@ -13150,10 +13184,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="14">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>7</v>
@@ -13267,10 +13301,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="14">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>7</v>
@@ -13294,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L101" s="14">
         <v>0</v>
@@ -13315,16 +13349,16 @@
         <v>110</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="T101" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="U101" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>7</v>
@@ -13342,16 +13376,16 @@
         <v>7</v>
       </c>
       <c r="AA101" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB101" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC101" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD101" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE101" s="15">
         <v>0</v>
@@ -13372,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="AK101" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL101" s="15">
         <v>0</v>
@@ -13384,10 +13418,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="14">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>7</v>
@@ -13432,10 +13466,10 @@
         <v>110</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="T102" s="15" t="s">
         <v>7</v>
@@ -13462,7 +13496,7 @@
         <v>5</v>
       </c>
       <c r="AB102" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="15">
         <v>0</v>
@@ -13501,10 +13535,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="14">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>7</v>
@@ -13549,10 +13583,10 @@
         <v>110</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="T103" s="15" t="s">
         <v>7</v>
@@ -13618,10 +13652,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="14">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>7</v>
@@ -13645,10 +13679,10 @@
         <v>0</v>
       </c>
       <c r="K104" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L104" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M104" s="14">
         <v>0</v>
@@ -13663,13 +13697,13 @@
         <v>0</v>
       </c>
       <c r="Q104" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="T104" s="15" t="s">
         <v>7</v>
@@ -13693,10 +13727,10 @@
         <v>7</v>
       </c>
       <c r="AA104" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB104" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC104" s="15">
         <v>0</v>
@@ -13735,10 +13769,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="14">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>7</v>
@@ -13852,10 +13886,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="14">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>7</v>
@@ -13882,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M106" s="14">
         <v>0</v>
@@ -13900,10 +13934,10 @@
         <v>50</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="T106" s="15" t="s">
         <v>7</v>
@@ -13927,10 +13961,10 @@
         <v>7</v>
       </c>
       <c r="AA106" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC106" s="15">
         <v>0</v>
@@ -13969,10 +14003,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="14">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>7</v>
@@ -14020,7 +14054,7 @@
         <v>127</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="T107" s="15" t="s">
         <v>7</v>
@@ -14086,10 +14120,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="14">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>7</v>
@@ -14137,7 +14171,7 @@
         <v>127</v>
       </c>
       <c r="S108" s="15" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="T108" s="15" t="s">
         <v>7</v>
@@ -14203,10 +14237,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="14">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>7</v>
@@ -14254,7 +14288,7 @@
         <v>127</v>
       </c>
       <c r="S109" s="15" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="T109" s="15" t="s">
         <v>7</v>
@@ -14320,10 +14354,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="14">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>7</v>
@@ -14371,7 +14405,7 @@
         <v>127</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="T110" s="15" t="s">
         <v>7</v>
@@ -14437,10 +14471,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="14">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>7</v>
@@ -14488,7 +14522,7 @@
         <v>127</v>
       </c>
       <c r="S111" s="15" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="T111" s="15" t="s">
         <v>7</v>
@@ -14554,10 +14588,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="14">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>7</v>
@@ -14605,7 +14639,7 @@
         <v>127</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="T112" s="15" t="s">
         <v>7</v>
@@ -14629,7 +14663,7 @@
         <v>7</v>
       </c>
       <c r="AA112" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB112" s="15">
         <v>20</v>
@@ -14671,10 +14705,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="14">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>7</v>
@@ -14686,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="14">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H113" s="14">
         <v>0</v>
@@ -14701,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M113" s="14">
         <v>0</v>
@@ -14713,16 +14747,16 @@
         <v>0</v>
       </c>
       <c r="P113" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q113" s="14">
         <v>50</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T113" s="15" t="s">
         <v>7</v>
@@ -14746,10 +14780,10 @@
         <v>7</v>
       </c>
       <c r="AA113" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB113" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC113" s="15">
         <v>0</v>
@@ -14776,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="AK113" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL113" s="15">
         <v>0</v>
@@ -14788,10 +14822,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="14">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>7</v>
@@ -14905,10 +14939,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="14">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>7</v>
@@ -15022,10 +15056,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="14">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>7</v>
@@ -15139,10 +15173,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="14">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>7</v>
@@ -15256,10 +15290,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="14">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>7</v>
@@ -15373,10 +15407,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="14">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>7</v>
@@ -15490,10 +15524,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="14">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>7</v>
@@ -15607,10 +15641,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="14">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>7</v>
@@ -15724,10 +15758,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="14">
-        <v>950</v>
+        <v>908</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>7</v>
@@ -15739,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="14">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="H122" s="14">
         <v>0</v>
@@ -15751,10 +15785,10 @@
         <v>0</v>
       </c>
       <c r="K122" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L122" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M122" s="14">
         <v>0</v>
@@ -15766,13 +15800,13 @@
         <v>0</v>
       </c>
       <c r="P122" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q122" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S122" s="15" t="s">
         <v>7</v>
@@ -15799,7 +15833,7 @@
         <v>7</v>
       </c>
       <c r="AA122" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB122" s="15">
         <v>0</v>
@@ -15841,10 +15875,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="14">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>7</v>
@@ -15889,7 +15923,7 @@
         <v>110</v>
       </c>
       <c r="R123" s="15" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="S123" s="15" t="s">
         <v>7</v>
@@ -15949,6 +15983,123 @@
         <v>231</v>
       </c>
       <c r="AL123" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="14">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="14">
+        <v>951</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="14">
+        <v>0</v>
+      </c>
+      <c r="F124" s="14">
+        <v>0</v>
+      </c>
+      <c r="G124" s="14">
+        <v>88</v>
+      </c>
+      <c r="H124" s="14">
+        <v>0</v>
+      </c>
+      <c r="I124" s="14">
+        <v>0</v>
+      </c>
+      <c r="J124" s="14">
+        <v>0</v>
+      </c>
+      <c r="K124" s="14">
+        <v>60</v>
+      </c>
+      <c r="L124" s="14">
+        <v>60</v>
+      </c>
+      <c r="M124" s="14">
+        <v>0</v>
+      </c>
+      <c r="N124" s="14">
+        <v>0</v>
+      </c>
+      <c r="O124" s="14">
+        <v>0</v>
+      </c>
+      <c r="P124" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="14">
+        <v>110</v>
+      </c>
+      <c r="R124" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="S124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA124" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL124" s="15">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C5F63-FFFB-4AEB-9725-DC1B511849CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826652E1-46E6-4259-934A-3F0132B26E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="247">
   <si>
     <t>desc</t>
   </si>
@@ -1136,6 +1136,10 @@
       </rPr>
       <t>ラスク</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vanilla</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1569,9 +1573,9 @@
   <dimension ref="A1:AL124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="AA96" sqref="AA96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3518,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>47</v>
@@ -3551,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="AB17" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC17" s="5">
         <v>10</v>
@@ -3575,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AK17" s="4" t="s">
         <v>50</v>
@@ -11009,7 +11013,7 @@
         <v>70</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="S81" s="15" t="s">
         <v>7</v>
@@ -11036,7 +11040,7 @@
         <v>7</v>
       </c>
       <c r="AA81" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB81" s="15">
         <v>0</v>
@@ -12650,7 +12654,7 @@
         <v>86</v>
       </c>
       <c r="S95" s="15" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="T95" s="15" t="s">
         <v>7</v>
@@ -12674,10 +12678,10 @@
         <v>7</v>
       </c>
       <c r="AA95" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AB95" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC95" s="15">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826652E1-46E6-4259-934A-3F0132B26E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB81AA-4DB7-4580-9BC1-BC1FB870B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="1410" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="250">
   <si>
     <t>desc</t>
   </si>
@@ -1140,6 +1140,18 @@
   </si>
   <si>
     <t>Vanilla</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apple_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>raspberry_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cassis_juice</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1570,12 +1582,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AL127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AA96" sqref="AA96"/>
+      <selection pane="bottomLeft" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1730,7 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A124" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A127" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -2634,7 +2646,7 @@
         <v>-30</v>
       </c>
       <c r="AG9" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="5">
         <v>7</v>
@@ -3087,7 +3099,7 @@
         <v>10</v>
       </c>
       <c r="AB13" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC13" s="5">
         <v>15</v>
@@ -3204,28 +3216,28 @@
         <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC14" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AD14" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE14" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="5">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="AG14" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="5">
         <v>5</v>
       </c>
       <c r="AI14" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AJ14" s="5">
         <v>-30</v>
@@ -10044,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="14">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H73" s="14">
         <v>60</v>
@@ -10086,10 +10098,10 @@
         <v>58</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="W73" s="15" t="s">
         <v>7</v>
@@ -10110,13 +10122,13 @@
         <v>20</v>
       </c>
       <c r="AC73" s="15">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="AD73" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE73" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF73" s="15">
         <v>0</v>
@@ -14841,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H114" s="14">
         <v>0</v>
@@ -14868,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q114" s="14">
         <v>50</v>
@@ -14958,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H115" s="14">
         <v>0</v>
@@ -14985,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q115" s="14">
         <v>50</v>
@@ -15075,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H116" s="14">
         <v>0</v>
@@ -15102,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q116" s="14">
         <v>50</v>
@@ -15192,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H117" s="14">
         <v>0</v>
@@ -15219,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="P117" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q117" s="14">
         <v>50</v>
@@ -15309,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H118" s="14">
         <v>0</v>
@@ -15336,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q118" s="14">
         <v>50</v>
@@ -15426,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H119" s="14">
         <v>0</v>
@@ -15453,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q119" s="14">
         <v>50</v>
@@ -15543,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H120" s="14">
         <v>0</v>
@@ -15570,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q120" s="14">
         <v>50</v>
@@ -15660,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H121" s="14">
         <v>0</v>
@@ -15687,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q121" s="14">
         <v>50</v>
@@ -15777,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H122" s="14">
         <v>0</v>
@@ -15804,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q122" s="14">
         <v>50</v>
@@ -15879,10 +15891,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="14">
-        <v>950</v>
+        <v>909</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>7</v>
@@ -15894,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H123" s="14">
         <v>0</v>
@@ -15906,10 +15918,10 @@
         <v>0</v>
       </c>
       <c r="K123" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L123" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M123" s="14">
         <v>0</v>
@@ -15921,13 +15933,13 @@
         <v>0</v>
       </c>
       <c r="P123" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q123" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R123" s="15" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S123" s="15" t="s">
         <v>7</v>
@@ -15954,7 +15966,7 @@
         <v>7</v>
       </c>
       <c r="AA123" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB123" s="15">
         <v>0</v>
@@ -15996,10 +16008,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="14">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>7</v>
@@ -16011,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H124" s="14">
         <v>0</v>
@@ -16023,10 +16035,10 @@
         <v>0</v>
       </c>
       <c r="K124" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L124" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M124" s="14">
         <v>0</v>
@@ -16038,13 +16050,13 @@
         <v>0</v>
       </c>
       <c r="P124" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q124" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="S124" s="15" t="s">
         <v>7</v>
@@ -16071,7 +16083,7 @@
         <v>7</v>
       </c>
       <c r="AA124" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB124" s="15">
         <v>0</v>
@@ -16104,6 +16116,357 @@
         <v>231</v>
       </c>
       <c r="AL124" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="14">
+        <v>911</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="14">
+        <v>0</v>
+      </c>
+      <c r="F125" s="14">
+        <v>0</v>
+      </c>
+      <c r="G125" s="14">
+        <v>25</v>
+      </c>
+      <c r="H125" s="14">
+        <v>60</v>
+      </c>
+      <c r="I125" s="14">
+        <v>60</v>
+      </c>
+      <c r="J125" s="14">
+        <v>0</v>
+      </c>
+      <c r="K125" s="14">
+        <v>0</v>
+      </c>
+      <c r="L125" s="14">
+        <v>0</v>
+      </c>
+      <c r="M125" s="14">
+        <v>0</v>
+      </c>
+      <c r="N125" s="14">
+        <v>0</v>
+      </c>
+      <c r="O125" s="14">
+        <v>0</v>
+      </c>
+      <c r="P125" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q125" s="14">
+        <v>50</v>
+      </c>
+      <c r="R125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK125" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL125" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="14">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="14">
+        <v>950</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="14">
+        <v>0</v>
+      </c>
+      <c r="G126" s="14">
+        <v>88</v>
+      </c>
+      <c r="H126" s="14">
+        <v>0</v>
+      </c>
+      <c r="I126" s="14">
+        <v>0</v>
+      </c>
+      <c r="J126" s="14">
+        <v>0</v>
+      </c>
+      <c r="K126" s="14">
+        <v>60</v>
+      </c>
+      <c r="L126" s="14">
+        <v>60</v>
+      </c>
+      <c r="M126" s="14">
+        <v>0</v>
+      </c>
+      <c r="N126" s="14">
+        <v>0</v>
+      </c>
+      <c r="O126" s="14">
+        <v>0</v>
+      </c>
+      <c r="P126" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="14">
+        <v>110</v>
+      </c>
+      <c r="R126" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="S126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z126" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA126" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK126" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL126" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="14">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="14">
+        <v>951</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="14">
+        <v>0</v>
+      </c>
+      <c r="F127" s="14">
+        <v>0</v>
+      </c>
+      <c r="G127" s="14">
+        <v>88</v>
+      </c>
+      <c r="H127" s="14">
+        <v>0</v>
+      </c>
+      <c r="I127" s="14">
+        <v>0</v>
+      </c>
+      <c r="J127" s="14">
+        <v>0</v>
+      </c>
+      <c r="K127" s="14">
+        <v>60</v>
+      </c>
+      <c r="L127" s="14">
+        <v>60</v>
+      </c>
+      <c r="M127" s="14">
+        <v>0</v>
+      </c>
+      <c r="N127" s="14">
+        <v>0</v>
+      </c>
+      <c r="O127" s="14">
+        <v>0</v>
+      </c>
+      <c r="P127" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="14">
+        <v>110</v>
+      </c>
+      <c r="R127" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="S127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z127" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA127" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ127" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK127" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL127" s="15">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB81AA-4DB7-4580-9BC1-BC1FB870B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB06B5-19CB-440D-8199-16C4C0C9AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1410" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="252">
   <si>
     <t>desc</t>
   </si>
@@ -1152,6 +1152,14 @@
   </si>
   <si>
     <t>cassis_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MintIceCream</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1582,12 +1590,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL127"/>
+  <dimension ref="A1:AL129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P126" sqref="P126"/>
+      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1730,7 +1738,7 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A127" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A129" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -3372,13 +3380,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3393,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -3423,10 +3431,10 @@
         <v>45</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>7</v>
@@ -3447,13 +3455,13 @@
         <v>7</v>
       </c>
       <c r="AA16" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD16" s="5">
         <v>0</v>
@@ -3474,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="AL16" s="5">
         <v>0</v>
@@ -3489,13 +3497,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3507,7 +3515,7 @@
         <v>88</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -3516,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -3537,16 +3545,16 @@
         <v>80</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>7</v>
@@ -3564,16 +3572,16 @@
         <v>7</v>
       </c>
       <c r="AA17" s="5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="AB17" s="5">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AD17" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="5">
         <v>0</v>
@@ -3594,7 +3602,7 @@
         <v>-50</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="AL17" s="5">
         <v>0</v>
@@ -3606,13 +3614,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3621,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -3633,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -3651,19 +3659,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>7</v>
@@ -3684,13 +3692,13 @@
         <v>5</v>
       </c>
       <c r="AB18" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="5">
         <v>0</v>
@@ -3711,126 +3719,126 @@
         <v>0</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="AL18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="14">
-        <v>100</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="B19" s="3">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>88</v>
       </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>60</v>
       </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>80</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>15</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>-50</v>
+      </c>
+      <c r="AK19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>10</v>
-      </c>
-      <c r="AB19" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL19" s="15">
+      <c r="AL19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3840,13 +3848,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -3855,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -3867,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -3888,16 +3896,16 @@
         <v>50</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>7</v>
@@ -3915,16 +3923,16 @@
         <v>7</v>
       </c>
       <c r="AA20" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE20" s="5">
         <v>0</v>
@@ -3945,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="4" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="AL20" s="5">
         <v>0</v>
@@ -3957,13 +3965,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="14">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="E21" s="14">
         <v>0</v>
@@ -3972,22 +3980,22 @@
         <v>0</v>
       </c>
       <c r="G21" s="14">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
         <v>60</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
-        <v>60</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0</v>
       </c>
       <c r="M21" s="14">
         <v>0</v>
@@ -4005,10 +4013,10 @@
         <v>50</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T21" s="15" t="s">
         <v>7</v>
@@ -4032,10 +4040,10 @@
         <v>7</v>
       </c>
       <c r="AA21" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC21" s="15">
         <v>0</v>
@@ -4062,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="16" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="AL21" s="15">
         <v>0</v>
@@ -4074,13 +4082,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -4089,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -4098,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -4122,22 +4130,22 @@
         <v>50</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>7</v>
@@ -4149,22 +4157,22 @@
         <v>7</v>
       </c>
       <c r="AA22" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="5">
         <v>0</v>
@@ -4179,126 +4187,126 @@
         <v>0</v>
       </c>
       <c r="AK22" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AL22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <v>501</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>32</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="B23" s="14">
+        <v>160</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>58</v>
+      </c>
+      <c r="H23" s="14">
+        <v>60</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>60</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
         <v>50</v>
       </c>
-      <c r="J23" s="3">
-        <v>60</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>50</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL23" s="5">
+      <c r="R23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL23" s="15">
         <v>0</v>
       </c>
     </row>
@@ -4308,13 +4316,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -4335,7 +4343,7 @@
         <v>60</v>
       </c>
       <c r="K24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -4356,22 +4364,22 @@
         <v>50</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>7</v>
@@ -4383,22 +4391,22 @@
         <v>7</v>
       </c>
       <c r="AA24" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC24" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD24" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE24" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG24" s="5">
         <v>0</v>
@@ -4413,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL24" s="5">
         <v>0</v>
@@ -4425,10 +4433,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -4443,10 +4451,10 @@
         <v>32</v>
       </c>
       <c r="H25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J25" s="3">
         <v>60</v>
@@ -4530,126 +4538,126 @@
         <v>0</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AL25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="14">
-        <v>504</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
+      <c r="B26" s="3">
+        <v>502</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>32</v>
       </c>
-      <c r="H26" s="14">
-        <v>10</v>
-      </c>
-      <c r="I26" s="14">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14">
-        <v>100</v>
-      </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
-        <v>0</v>
-      </c>
-      <c r="N26" s="14">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>50</v>
       </c>
-      <c r="R26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL26" s="15">
+      <c r="R26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4659,12 +4667,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>505</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="3">
@@ -4674,16 +4682,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -4707,7 +4715,7 @@
         <v>50</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="S27" s="5" t="s">
         <v>7</v>
@@ -4734,7 +4742,7 @@
         <v>7</v>
       </c>
       <c r="AA27" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
@@ -4764,126 +4772,126 @@
         <v>0</v>
       </c>
       <c r="AK27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>506</v>
+      <c r="B28" s="14">
+        <v>504</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>60</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>32</v>
+      </c>
+      <c r="H28" s="14">
+        <v>10</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>100</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
         <v>50</v>
       </c>
-      <c r="J28" s="3">
-        <v>60</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>50</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL28" s="5">
+      <c r="R28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL28" s="15">
         <v>0</v>
       </c>
     </row>
@@ -4893,10 +4901,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>7</v>
@@ -4908,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -4917,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -4941,7 +4949,7 @@
         <v>50</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>7</v>
@@ -4968,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="AA29" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -5010,12 +5018,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>508</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3">
@@ -5025,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J30" s="3">
         <v>60</v>
@@ -5058,10 +5066,10 @@
         <v>50</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>7</v>
@@ -5088,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="5">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="5">
         <v>0</v>
@@ -5112,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AL30" s="5">
         <v>0</v>
@@ -5127,31 +5135,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>509</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>32</v>
-      </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -5175,19 +5183,19 @@
         <v>50</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>7</v>
@@ -5202,19 +5210,19 @@
         <v>7</v>
       </c>
       <c r="AA31" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="5">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="5">
         <v>0</v>
@@ -5229,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="5">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="4" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AL31" s="5">
         <v>0</v>
@@ -5244,10 +5252,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -5262,10 +5270,10 @@
         <v>32</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3">
         <v>60</v>
@@ -5292,10 +5300,10 @@
         <v>50</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>7</v>
@@ -5319,10 +5327,10 @@
         <v>7</v>
       </c>
       <c r="AA32" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AC32" s="5">
         <v>0</v>
@@ -5346,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AK32" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AL32" s="5">
         <v>0</v>
@@ -5361,16 +5369,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -5382,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
         <v>60</v>
@@ -5409,20 +5417,20 @@
         <v>50</v>
       </c>
       <c r="R33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="W33" s="5" t="s">
         <v>7</v>
       </c>
@@ -5436,20 +5444,20 @@
         <v>7</v>
       </c>
       <c r="AA33" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="5">
         <v>-50</v>
       </c>
-      <c r="AB33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>0</v>
-      </c>
       <c r="AF33" s="5">
         <v>0</v>
       </c>
@@ -5463,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK33" s="4" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AL33" s="5">
         <v>0</v>
@@ -5478,10 +5486,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -5493,16 +5501,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -5526,7 +5534,7 @@
         <v>50</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>7</v>
@@ -5553,7 +5561,7 @@
         <v>7</v>
       </c>
       <c r="AA34" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB34" s="5">
         <v>0</v>
@@ -5583,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AL34" s="5">
         <v>0</v>
@@ -5595,12 +5603,12 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>513</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="3">
@@ -5610,17 +5618,17 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>32</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20</v>
+      </c>
+      <c r="J35" s="3">
         <v>60</v>
       </c>
-      <c r="H35" s="3">
-        <v>20</v>
-      </c>
-      <c r="I35" s="3">
-        <v>30</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -5640,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>7</v>
@@ -5670,7 +5678,7 @@
         <v>7</v>
       </c>
       <c r="AA35" s="5">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="AB35" s="5">
         <v>0</v>
@@ -5700,243 +5708,243 @@
         <v>0</v>
       </c>
       <c r="AK35" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AL35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+    <row r="36" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="14">
-        <v>514</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="14">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14">
-        <v>60</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14">
-        <v>0</v>
-      </c>
-      <c r="J36" s="14">
-        <v>60</v>
-      </c>
-      <c r="K36" s="14">
-        <v>0</v>
-      </c>
-      <c r="L36" s="14">
-        <v>0</v>
-      </c>
-      <c r="M36" s="14">
-        <v>0</v>
-      </c>
-      <c r="N36" s="14">
-        <v>0</v>
-      </c>
-      <c r="O36" s="14">
-        <v>0</v>
-      </c>
-      <c r="P36" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14">
+      <c r="B36" s="3">
+        <v>512</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>80</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
         <v>50</v>
       </c>
-      <c r="R36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL36" s="15">
+      <c r="R36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+    <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="14">
-        <v>515</v>
+      <c r="B37" s="3">
+        <v>513</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="14">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14">
-        <v>32</v>
-      </c>
-      <c r="H37" s="14">
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>60</v>
+      </c>
+      <c r="H37" s="3">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3">
         <v>30</v>
       </c>
-      <c r="I37" s="14">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14">
-        <v>60</v>
-      </c>
-      <c r="K37" s="14">
-        <v>0</v>
-      </c>
-      <c r="L37" s="14">
-        <v>0</v>
-      </c>
-      <c r="M37" s="14">
-        <v>0</v>
-      </c>
-      <c r="N37" s="14">
-        <v>0</v>
-      </c>
-      <c r="O37" s="14">
-        <v>0</v>
-      </c>
-      <c r="P37" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>50</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="16" t="s">
+      <c r="J37" s="3">
+        <v>100</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>80</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AL37" s="15">
+      <c r="AL37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5946,10 +5954,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="14">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>7</v>
@@ -5961,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H38" s="14">
         <v>0</v>
@@ -5970,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K38" s="14">
         <v>0</v>
@@ -6063,10 +6071,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="14">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>7</v>
@@ -6078,16 +6086,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="14">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H39" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I39" s="14">
         <v>0</v>
       </c>
       <c r="J39" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K39" s="14">
         <v>0</v>
@@ -6180,10 +6188,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="14">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>7</v>
@@ -6195,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="14">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H40" s="14">
         <v>0</v>
@@ -6291,237 +6299,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="3">
-        <v>520</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="B41" s="14">
+        <v>517</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>70</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14">
+        <v>0</v>
+      </c>
+      <c r="J41" s="14">
+        <v>80</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="14">
+        <v>0</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="14">
+        <v>0</v>
+      </c>
+      <c r="P41" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="14">
         <v>50</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>20</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL41" s="5">
+      <c r="R41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL41" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="3">
-        <v>521</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>30</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="B42" s="14">
+        <v>518</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>120</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <v>80</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="14">
+        <v>0</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0</v>
+      </c>
+      <c r="O42" s="14">
+        <v>0</v>
+      </c>
+      <c r="P42" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="14">
         <v>50</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>20</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL42" s="5">
+      <c r="R42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL42" s="15">
         <v>0</v>
       </c>
     </row>
@@ -6531,10 +6539,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -6546,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>50</v>
@@ -6576,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>7</v>
@@ -6636,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AL43" s="5">
         <v>0</v>
@@ -6648,10 +6656,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
@@ -6663,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J44" s="3">
         <v>50</v>
@@ -6693,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>7</v>
@@ -6753,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AL44" s="5">
         <v>0</v>
@@ -6765,10 +6773,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
@@ -6780,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J45" s="3">
         <v>50</v>
@@ -6810,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>7</v>
@@ -6870,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AL45" s="5">
         <v>0</v>
@@ -6882,10 +6890,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
@@ -6903,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>50</v>
@@ -6927,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R46" s="5" t="s">
         <v>7</v>
@@ -6987,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AL46" s="5">
         <v>0</v>
@@ -6999,10 +7007,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
@@ -7014,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J47" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -7104,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AL47" s="5">
         <v>0</v>
@@ -7116,10 +7124,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>7</v>
@@ -7131,16 +7139,16 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>30</v>
       </c>
       <c r="J48" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -7164,7 +7172,7 @@
         <v>50</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>7</v>
@@ -7191,7 +7199,7 @@
         <v>7</v>
       </c>
       <c r="AA48" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="5">
         <v>0</v>
@@ -7218,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AL48" s="5">
         <v>0</v>
@@ -7233,16 +7241,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -7254,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -7281,7 +7289,7 @@
         <v>50</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>7</v>
@@ -7308,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="AA49" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="5">
         <v>0</v>
@@ -7335,246 +7343,246 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AL49" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+    <row r="50" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="14">
-        <v>534</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14">
-        <v>0</v>
-      </c>
-      <c r="G50" s="14">
-        <v>70</v>
-      </c>
-      <c r="H50" s="14">
-        <v>0</v>
-      </c>
-      <c r="I50" s="14">
-        <v>0</v>
-      </c>
-      <c r="J50" s="14">
+      <c r="B50" s="3">
+        <v>532</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>54</v>
+      </c>
+      <c r="H50" s="3">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3">
+        <v>30</v>
+      </c>
+      <c r="J50" s="3">
+        <v>60</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
         <v>50</v>
       </c>
-      <c r="K50" s="14">
-        <v>0</v>
-      </c>
-      <c r="L50" s="14">
-        <v>0</v>
-      </c>
-      <c r="M50" s="14">
-        <v>0</v>
-      </c>
-      <c r="N50" s="14">
-        <v>0</v>
-      </c>
-      <c r="O50" s="14">
-        <v>0</v>
-      </c>
-      <c r="P50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>50</v>
-      </c>
-      <c r="R50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL50" s="15">
+      <c r="R50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL50" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+    <row r="51" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="14">
-        <v>535</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14">
-        <v>0</v>
-      </c>
-      <c r="G51" s="14">
+      <c r="B51" s="3">
+        <v>533</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
         <v>54</v>
       </c>
-      <c r="H51" s="14">
-        <v>0</v>
-      </c>
-      <c r="I51" s="14">
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
         <v>30</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="3">
         <v>50</v>
       </c>
-      <c r="K51" s="14">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14">
-        <v>0</v>
-      </c>
-      <c r="M51" s="14">
-        <v>0</v>
-      </c>
-      <c r="N51" s="14">
-        <v>0</v>
-      </c>
-      <c r="O51" s="14">
-        <v>0</v>
-      </c>
-      <c r="P51" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="14">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
         <v>50</v>
       </c>
-      <c r="R51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="16" t="s">
+      <c r="R51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA51" s="5">
         <v>25</v>
       </c>
-      <c r="AL51" s="15">
+      <c r="AB51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AK51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7584,10 +7592,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="14">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>7</v>
@@ -7599,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="14">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
       </c>
       <c r="I52" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J52" s="14">
         <v>50</v>
@@ -7701,10 +7709,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="14">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>7</v>
@@ -7716,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="14">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H53" s="14">
         <v>0</v>
@@ -7818,10 +7826,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="14">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>7</v>
@@ -7833,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="14">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H54" s="14">
         <v>0</v>
@@ -7842,7 +7850,7 @@
         <v>30</v>
       </c>
       <c r="J54" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K54" s="14">
         <v>0</v>
@@ -7929,120 +7937,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="3">
-        <v>561</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>88</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
+      <c r="B55" s="14">
+        <v>537</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>80</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14">
+        <v>30</v>
+      </c>
+      <c r="J55" s="14">
         <v>50</v>
       </c>
-      <c r="L55" s="3">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="3">
+      <c r="K55" s="14">
+        <v>0</v>
+      </c>
+      <c r="L55" s="14">
+        <v>0</v>
+      </c>
+      <c r="M55" s="14">
+        <v>0</v>
+      </c>
+      <c r="N55" s="14">
+        <v>0</v>
+      </c>
+      <c r="O55" s="14">
+        <v>0</v>
+      </c>
+      <c r="P55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="14">
         <v>50</v>
       </c>
-      <c r="R55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL55" s="5">
+      <c r="R55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL55" s="15">
         <v>0</v>
       </c>
     </row>
@@ -8052,10 +8060,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="14">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>7</v>
@@ -8067,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H56" s="14">
         <v>0</v>
@@ -8076,10 +8084,10 @@
         <v>30</v>
       </c>
       <c r="J56" s="14">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K56" s="14">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L56" s="14">
         <v>0</v>
@@ -8097,16 +8105,16 @@
         <v>0</v>
       </c>
       <c r="Q56" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R56" s="15" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="U56" s="15" t="s">
         <v>7</v>
@@ -8130,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="15">
         <v>0</v>
@@ -8154,129 +8162,129 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="15">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="16" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AL56" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+    <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="14">
-        <v>563</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="14">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>0</v>
-      </c>
-      <c r="G57" s="14">
-        <v>100</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0</v>
-      </c>
-      <c r="I57" s="14">
-        <v>30</v>
-      </c>
-      <c r="J57" s="14">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14">
-        <v>85</v>
-      </c>
-      <c r="L57" s="14">
-        <v>0</v>
-      </c>
-      <c r="M57" s="14">
-        <v>0</v>
-      </c>
-      <c r="N57" s="14">
-        <v>0</v>
-      </c>
-      <c r="O57" s="14">
-        <v>0</v>
-      </c>
-      <c r="P57" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="14">
-        <v>110</v>
-      </c>
-      <c r="R57" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S57" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z57" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="15">
-        <v>10</v>
-      </c>
-      <c r="AC57" s="15">
-        <v>30</v>
-      </c>
-      <c r="AD57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="15">
-        <v>-30</v>
-      </c>
-      <c r="AK57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL57" s="15">
+      <c r="B57" s="3">
+        <v>561</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>70</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>105</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>50</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL57" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8286,10 +8294,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="14">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>7</v>
@@ -8301,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H58" s="14">
         <v>0</v>
@@ -8340,10 +8348,10 @@
         <v>127</v>
       </c>
       <c r="T58" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>7</v>
@@ -8366,11 +8374,11 @@
       <c r="AB58" s="15">
         <v>10</v>
       </c>
-      <c r="AC58" s="17">
-        <v>30</v>
+      <c r="AC58" s="15">
+        <v>50</v>
       </c>
       <c r="AD58" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="15">
         <v>0</v>
@@ -8403,10 +8411,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="14">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>7</v>
@@ -8418,13 +8426,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H59" s="14">
         <v>0</v>
       </c>
       <c r="I59" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J59" s="14">
         <v>0</v>
@@ -8457,10 +8465,10 @@
         <v>127</v>
       </c>
       <c r="T59" s="15" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="V59" s="15" t="s">
         <v>7</v>
@@ -8483,11 +8491,11 @@
       <c r="AB59" s="15">
         <v>10</v>
       </c>
-      <c r="AC59" s="17">
+      <c r="AC59" s="15">
         <v>30</v>
       </c>
       <c r="AD59" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="15">
         <v>0</v>
@@ -8520,10 +8528,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="14">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>7</v>
@@ -8535,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="14">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H60" s="14">
         <v>0</v>
       </c>
       <c r="I60" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J60" s="14">
         <v>0</v>
@@ -8574,10 +8582,10 @@
         <v>127</v>
       </c>
       <c r="T60" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V60" s="15" t="s">
         <v>7</v>
@@ -8600,11 +8608,11 @@
       <c r="AB60" s="15">
         <v>10</v>
       </c>
-      <c r="AC60" s="15">
+      <c r="AC60" s="17">
         <v>30</v>
       </c>
       <c r="AD60" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE60" s="15">
         <v>0</v>
@@ -8637,10 +8645,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="14">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>7</v>
@@ -8658,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J61" s="14">
         <v>0</v>
@@ -8691,10 +8699,10 @@
         <v>127</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="V61" s="15" t="s">
         <v>7</v>
@@ -8717,11 +8725,11 @@
       <c r="AB61" s="15">
         <v>10</v>
       </c>
-      <c r="AC61" s="15">
+      <c r="AC61" s="17">
         <v>30</v>
       </c>
       <c r="AD61" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE61" s="15">
         <v>0</v>
@@ -8754,10 +8762,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="14">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>7</v>
@@ -8769,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="14">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J62" s="14">
         <v>0</v>
@@ -8808,10 +8816,10 @@
         <v>127</v>
       </c>
       <c r="T62" s="15" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="V62" s="15" t="s">
         <v>7</v>
@@ -8838,7 +8846,7 @@
         <v>30</v>
       </c>
       <c r="AD62" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="15">
         <v>0</v>
@@ -8871,10 +8879,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="14">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>7</v>
@@ -8886,19 +8894,19 @@
         <v>0</v>
       </c>
       <c r="G63" s="14">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H63" s="14">
         <v>0</v>
       </c>
       <c r="I63" s="14">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J63" s="14">
         <v>0</v>
       </c>
       <c r="K63" s="14">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L63" s="14">
         <v>0</v>
@@ -8928,7 +8936,7 @@
         <v>129</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V63" s="15" t="s">
         <v>7</v>
@@ -8988,10 +8996,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="14">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>7</v>
@@ -9003,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H64" s="14">
         <v>0</v>
       </c>
       <c r="I64" s="14">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J64" s="14">
         <v>0</v>
@@ -9045,7 +9053,7 @@
         <v>129</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="V64" s="15" t="s">
         <v>7</v>
@@ -9072,7 +9080,7 @@
         <v>30</v>
       </c>
       <c r="AD64" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE64" s="15">
         <v>0</v>
@@ -9105,10 +9113,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="14">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>7</v>
@@ -9120,19 +9128,19 @@
         <v>0</v>
       </c>
       <c r="G65" s="14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
       </c>
       <c r="I65" s="14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J65" s="14">
         <v>0</v>
       </c>
       <c r="K65" s="14">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L65" s="14">
         <v>0</v>
@@ -9162,7 +9170,7 @@
         <v>129</v>
       </c>
       <c r="U65" s="15" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="V65" s="15" t="s">
         <v>7</v>
@@ -9189,7 +9197,7 @@
         <v>30</v>
       </c>
       <c r="AD65" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE65" s="15">
         <v>0</v>
@@ -9222,16 +9230,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="14">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F66" s="14">
         <v>0</v>
@@ -9339,10 +9347,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="14">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>7</v>
@@ -9354,13 +9362,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H67" s="14">
         <v>0</v>
       </c>
       <c r="I67" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
@@ -9384,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>45</v>
@@ -9456,22 +9464,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="14">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F68" s="14">
         <v>0</v>
       </c>
       <c r="G68" s="14">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H68" s="14">
         <v>0</v>
@@ -9573,10 +9581,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="14">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>7</v>
@@ -9588,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="14">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H69" s="14">
         <v>0</v>
@@ -9600,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="14">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L69" s="14">
         <v>0</v>
@@ -9675,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="15">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="16" t="s">
         <v>131</v>
@@ -9690,10 +9698,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="14">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>7</v>
@@ -9807,10 +9815,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="14">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>7</v>
@@ -9822,19 +9830,19 @@
         <v>0</v>
       </c>
       <c r="G71" s="14">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H71" s="14">
         <v>0</v>
       </c>
       <c r="I71" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J71" s="14">
         <v>0</v>
       </c>
       <c r="K71" s="14">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L71" s="14">
         <v>0</v>
@@ -9852,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>45</v>
@@ -9909,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="15">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="16" t="s">
         <v>131</v>
@@ -9924,10 +9932,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="14">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>7</v>
@@ -9939,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="14">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H72" s="14">
         <v>0</v>
@@ -10041,10 +10049,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="14">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>7</v>
@@ -10056,19 +10064,19 @@
         <v>0</v>
       </c>
       <c r="G73" s="14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H73" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I73" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J73" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K73" s="14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L73" s="14">
         <v>0</v>
@@ -10086,22 +10094,22 @@
         <v>0</v>
       </c>
       <c r="Q73" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="S73" s="15" t="s">
         <v>127</v>
       </c>
       <c r="T73" s="15" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="W73" s="15" t="s">
         <v>7</v>
@@ -10116,19 +10124,19 @@
         <v>7</v>
       </c>
       <c r="AA73" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC73" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AD73" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="15">
         <v>0</v>
@@ -10143,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="15">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK73" s="16" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AL73" s="15">
         <v>0</v>
@@ -10158,10 +10166,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="14">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>7</v>
@@ -10173,19 +10181,19 @@
         <v>0</v>
       </c>
       <c r="G74" s="14">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="H74" s="14">
         <v>0</v>
       </c>
       <c r="I74" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J74" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K74" s="14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L74" s="14">
         <v>0</v>
@@ -10203,16 +10211,16 @@
         <v>0</v>
       </c>
       <c r="Q74" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R74" s="15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="S74" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="T74" s="15" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="U74" s="15" t="s">
         <v>7</v>
@@ -10233,13 +10241,13 @@
         <v>7</v>
       </c>
       <c r="AA74" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC74" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD74" s="15">
         <v>0</v>
@@ -10260,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="15">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK74" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL74" s="15">
         <v>0</v>
@@ -10275,10 +10283,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="14">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>7</v>
@@ -10290,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="14">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H75" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I75" s="14">
         <v>0</v>
@@ -10323,19 +10331,19 @@
         <v>50</v>
       </c>
       <c r="R75" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T75" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S75" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T75" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="U75" s="15" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="V75" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="W75" s="15" t="s">
         <v>7</v>
@@ -10350,19 +10358,19 @@
         <v>7</v>
       </c>
       <c r="AA75" s="15">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="AB75" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC75" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD75" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE75" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF75" s="15">
         <v>0</v>
@@ -10380,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL75" s="15">
         <v>0</v>
@@ -10392,10 +10400,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="14">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>7</v>
@@ -10509,10 +10517,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="14">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>7</v>
@@ -10626,10 +10634,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="14">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>7</v>
@@ -10650,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K78" s="14">
         <v>0</v>
@@ -10743,10 +10751,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="14">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>7</v>
@@ -10860,10 +10868,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="14">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>7</v>
@@ -10875,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="14">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H80" s="14">
         <v>0</v>
@@ -10884,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K80" s="14">
         <v>0</v>
@@ -10977,10 +10985,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="14">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>7</v>
@@ -10992,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="14">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -11001,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K81" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L81" s="14">
         <v>0</v>
@@ -11022,10 +11030,10 @@
         <v>0</v>
       </c>
       <c r="Q81" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="S81" s="15" t="s">
         <v>7</v>
@@ -11052,7 +11060,7 @@
         <v>7</v>
       </c>
       <c r="AA81" s="15">
-        <v>30</v>
+        <v>-50</v>
       </c>
       <c r="AB81" s="15">
         <v>0</v>
@@ -11082,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="AK81" s="16" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="AL81" s="15">
         <v>0</v>
@@ -11094,10 +11102,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="14">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>7</v>
@@ -11109,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="14">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H82" s="14">
         <v>0</v>
@@ -11118,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K82" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L82" s="14">
         <v>0</v>
@@ -11139,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="Q82" s="14">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="S82" s="15" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="T82" s="15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V82" s="15" t="s">
         <v>7</v>
@@ -11169,16 +11177,16 @@
         <v>7</v>
       </c>
       <c r="AA82" s="15">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="AB82" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC82" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="15">
         <v>0</v>
@@ -11199,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="AK82" s="16" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="AL82" s="15">
         <v>0</v>
@@ -11211,10 +11219,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="14">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>7</v>
@@ -11226,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="14">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
@@ -11256,10 +11264,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="14">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="R83" s="15" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="S83" s="15" t="s">
         <v>7</v>
@@ -11286,7 +11294,7 @@
         <v>7</v>
       </c>
       <c r="AA83" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB83" s="15">
         <v>0</v>
@@ -11328,10 +11336,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="14">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>7</v>
@@ -11343,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="14">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H84" s="14">
         <v>0</v>
@@ -11373,19 +11381,19 @@
         <v>0</v>
       </c>
       <c r="Q84" s="14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="S84" s="15" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="T84" s="15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U84" s="15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V84" s="15" t="s">
         <v>7</v>
@@ -11403,16 +11411,16 @@
         <v>7</v>
       </c>
       <c r="AA84" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB84" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC84" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD84" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE84" s="15">
         <v>0</v>
@@ -11439,120 +11447,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B85" s="3">
-        <v>680</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>54</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>30</v>
-      </c>
-      <c r="J85" s="3">
-        <v>100</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3">
-        <v>0</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>50</v>
-      </c>
-      <c r="R85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK85" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL85" s="5">
+      <c r="B85" s="14">
+        <v>652</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
+        <v>82</v>
+      </c>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="14">
+        <v>80</v>
+      </c>
+      <c r="L85" s="14">
+        <v>0</v>
+      </c>
+      <c r="M85" s="14">
+        <v>0</v>
+      </c>
+      <c r="N85" s="14">
+        <v>0</v>
+      </c>
+      <c r="O85" s="14">
+        <v>0</v>
+      </c>
+      <c r="P85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>130</v>
+      </c>
+      <c r="R85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL85" s="15">
         <v>0</v>
       </c>
     </row>
@@ -11562,10 +11570,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="14">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>7</v>
@@ -11577,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="14">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H86" s="14">
         <v>0</v>
@@ -11589,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L86" s="14">
         <v>0</v>
@@ -11610,7 +11618,7 @@
         <v>50</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="S86" s="15" t="s">
         <v>7</v>
@@ -11637,7 +11645,7 @@
         <v>7</v>
       </c>
       <c r="AA86" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB86" s="15">
         <v>0</v>
@@ -11667,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="AK86" s="16" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AL86" s="15">
         <v>0</v>
@@ -11679,10 +11687,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>7</v>
@@ -11694,19 +11702,19 @@
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J87" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K87" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L87" s="3">
         <v>0</v>
@@ -11784,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="AK87" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AL87" s="5">
         <v>0</v>
@@ -11796,10 +11804,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="14">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>7</v>
@@ -11811,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H88" s="14">
         <v>0</v>
@@ -11823,13 +11831,13 @@
         <v>0</v>
       </c>
       <c r="K88" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L88" s="14">
         <v>0</v>
       </c>
       <c r="M88" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N88" s="14">
         <v>0</v>
@@ -11901,126 +11909,126 @@
         <v>0</v>
       </c>
       <c r="AK88" s="16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="AL88" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14">
+    <row r="89" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="B89" s="14">
-        <v>721</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="14">
-        <v>0</v>
-      </c>
-      <c r="F89" s="14">
-        <v>0</v>
-      </c>
-      <c r="G89" s="14">
-        <v>40</v>
-      </c>
-      <c r="H89" s="14">
-        <v>80</v>
-      </c>
-      <c r="I89" s="14">
-        <v>0</v>
-      </c>
-      <c r="J89" s="14">
-        <v>0</v>
-      </c>
-      <c r="K89" s="14">
-        <v>0</v>
-      </c>
-      <c r="L89" s="14">
-        <v>0</v>
-      </c>
-      <c r="M89" s="14">
+      <c r="B89" s="3">
+        <v>701</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>77</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>60</v>
       </c>
-      <c r="N89" s="14">
-        <v>0</v>
-      </c>
-      <c r="O89" s="14">
-        <v>0</v>
-      </c>
-      <c r="P89" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="14">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>50</v>
       </c>
-      <c r="R89" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="S89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z89" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA89" s="15">
-        <v>7</v>
-      </c>
-      <c r="AB89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK89" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL89" s="15">
+      <c r="R89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL89" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12030,10 +12038,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="14">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>7</v>
@@ -12045,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="14">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="H90" s="14">
         <v>0</v>
@@ -12057,13 +12065,13 @@
         <v>0</v>
       </c>
       <c r="K90" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L90" s="14">
         <v>0</v>
       </c>
       <c r="M90" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N90" s="14">
         <v>0</v>
@@ -12135,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AL90" s="15">
         <v>0</v>
@@ -12147,10 +12155,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="14">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>7</v>
@@ -12162,26 +12170,26 @@
         <v>0</v>
       </c>
       <c r="G91" s="14">
+        <v>40</v>
+      </c>
+      <c r="H91" s="14">
+        <v>80</v>
+      </c>
+      <c r="I91" s="14">
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0</v>
+      </c>
+      <c r="K91" s="14">
+        <v>0</v>
+      </c>
+      <c r="L91" s="14">
+        <v>0</v>
+      </c>
+      <c r="M91" s="14">
         <v>60</v>
       </c>
-      <c r="H91" s="14">
-        <v>30</v>
-      </c>
-      <c r="I91" s="14">
-        <v>0</v>
-      </c>
-      <c r="J91" s="14">
-        <v>0</v>
-      </c>
-      <c r="K91" s="14">
-        <v>130</v>
-      </c>
-      <c r="L91" s="14">
-        <v>0</v>
-      </c>
-      <c r="M91" s="14">
-        <v>0</v>
-      </c>
       <c r="N91" s="14">
         <v>0</v>
       </c>
@@ -12192,10 +12200,10 @@
         <v>0</v>
       </c>
       <c r="Q91" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S91" s="15" t="s">
         <v>7</v>
@@ -12222,7 +12230,7 @@
         <v>7</v>
       </c>
       <c r="AA91" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB91" s="15">
         <v>0</v>
@@ -12252,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="AK91" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AL91" s="15">
         <v>0</v>
@@ -12264,10 +12272,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="14">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>7</v>
@@ -12279,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="14">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H92" s="14">
         <v>0</v>
@@ -12381,10 +12389,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="14">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>7</v>
@@ -12396,10 +12404,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H93" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I93" s="14">
         <v>0</v>
@@ -12408,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L93" s="14">
         <v>0</v>
@@ -12426,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R93" s="15" t="s">
         <v>7</v>
@@ -12498,10 +12506,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="14">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>7</v>
@@ -12513,40 +12521,40 @@
         <v>0</v>
       </c>
       <c r="G94" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H94" s="14">
         <v>0</v>
       </c>
       <c r="I94" s="14">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <v>0</v>
+      </c>
+      <c r="K94" s="14">
+        <v>100</v>
+      </c>
+      <c r="L94" s="14">
+        <v>0</v>
+      </c>
+      <c r="M94" s="14">
+        <v>0</v>
+      </c>
+      <c r="N94" s="14">
+        <v>0</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0</v>
+      </c>
+      <c r="P94" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="14">
         <v>50</v>
       </c>
-      <c r="J94" s="14">
-        <v>0</v>
-      </c>
-      <c r="K94" s="14">
-        <v>130</v>
-      </c>
-      <c r="L94" s="14">
-        <v>0</v>
-      </c>
-      <c r="M94" s="14">
-        <v>0</v>
-      </c>
-      <c r="N94" s="14">
-        <v>0</v>
-      </c>
-      <c r="O94" s="14">
-        <v>0</v>
-      </c>
-      <c r="P94" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="14">
-        <v>130</v>
-      </c>
       <c r="R94" s="15" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="S94" s="15" t="s">
         <v>7</v>
@@ -12573,7 +12581,7 @@
         <v>7</v>
       </c>
       <c r="AA94" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB94" s="15">
         <v>0</v>
@@ -12615,10 +12623,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="14">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>7</v>
@@ -12630,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="G95" s="14">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="H95" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I95" s="14">
         <v>0</v>
@@ -12642,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L95" s="14">
         <v>0</v>
@@ -12663,10 +12671,10 @@
         <v>50</v>
       </c>
       <c r="R95" s="15" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="S95" s="15" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="T95" s="15" t="s">
         <v>7</v>
@@ -12690,10 +12698,10 @@
         <v>7</v>
       </c>
       <c r="AA95" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB95" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC95" s="15">
         <v>0</v>
@@ -12732,10 +12740,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="14">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>7</v>
@@ -12747,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="14">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H96" s="14">
         <v>0</v>
@@ -12759,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="14">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L96" s="14">
         <v>0</v>
@@ -12777,10 +12785,10 @@
         <v>0</v>
       </c>
       <c r="Q96" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="S96" s="15" t="s">
         <v>7</v>
@@ -12807,7 +12815,7 @@
         <v>7</v>
       </c>
       <c r="AA96" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB96" s="15">
         <v>0</v>
@@ -12849,10 +12857,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="14">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>7</v>
@@ -12864,10 +12872,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="14">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="H97" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I97" s="14">
         <v>0</v>
@@ -12876,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L97" s="14">
         <v>0</v>
@@ -12897,10 +12905,10 @@
         <v>50</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="T97" s="15" t="s">
         <v>7</v>
@@ -12924,10 +12932,10 @@
         <v>7</v>
       </c>
       <c r="AA97" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AB97" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC97" s="15">
         <v>0</v>
@@ -12966,10 +12974,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="14">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>7</v>
@@ -12987,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J98" s="14">
         <v>0</v>
@@ -13011,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R98" s="15" t="s">
         <v>45</v>
@@ -13083,10 +13091,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="14">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>7</v>
@@ -13110,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L99" s="14">
         <v>0</v>
@@ -13200,10 +13208,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="14">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>7</v>
@@ -13215,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H100" s="14">
         <v>0</v>
@@ -13227,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L100" s="14">
         <v>0</v>
@@ -13245,19 +13253,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S100" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T100" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U100" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>7</v>
@@ -13275,16 +13283,16 @@
         <v>7</v>
       </c>
       <c r="AA100" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB100" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE100" s="15">
         <v>0</v>
@@ -13317,10 +13325,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="14">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>7</v>
@@ -13332,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H101" s="14">
         <v>0</v>
@@ -13344,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L101" s="14">
         <v>0</v>
@@ -13362,19 +13370,19 @@
         <v>0</v>
       </c>
       <c r="Q101" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T101" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U101" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>7</v>
@@ -13392,16 +13400,16 @@
         <v>7</v>
       </c>
       <c r="AA101" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB101" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD101" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE101" s="15">
         <v>0</v>
@@ -13434,10 +13442,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="14">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>7</v>
@@ -13461,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L102" s="14">
         <v>0</v>
@@ -13482,16 +13490,16 @@
         <v>110</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="T102" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V102" s="15" t="s">
         <v>7</v>
@@ -13509,16 +13517,16 @@
         <v>7</v>
       </c>
       <c r="AA102" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB102" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC102" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD102" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE102" s="15">
         <v>0</v>
@@ -13539,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="AK102" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL102" s="15">
         <v>0</v>
@@ -13551,10 +13559,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="14">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>7</v>
@@ -13578,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L103" s="14">
         <v>0</v>
@@ -13599,16 +13607,16 @@
         <v>110</v>
       </c>
       <c r="R103" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S103" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T103" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S103" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="T103" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="U103" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V103" s="15" t="s">
         <v>7</v>
@@ -13626,16 +13634,16 @@
         <v>7</v>
       </c>
       <c r="AA103" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB103" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC103" s="15">
         <v>10</v>
       </c>
-      <c r="AC103" s="15">
-        <v>0</v>
-      </c>
       <c r="AD103" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE103" s="15">
         <v>0</v>
@@ -13656,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="AK103" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL103" s="15">
         <v>0</v>
@@ -13668,10 +13676,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="14">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>7</v>
@@ -13716,10 +13724,10 @@
         <v>110</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="T104" s="15" t="s">
         <v>7</v>
@@ -13746,7 +13754,7 @@
         <v>5</v>
       </c>
       <c r="AB104" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC104" s="15">
         <v>0</v>
@@ -13785,10 +13793,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="14">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>7</v>
@@ -13812,10 +13820,10 @@
         <v>0</v>
       </c>
       <c r="K105" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L105" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M105" s="14">
         <v>0</v>
@@ -13830,13 +13838,13 @@
         <v>0</v>
       </c>
       <c r="Q105" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T105" s="15" t="s">
         <v>7</v>
@@ -13860,10 +13868,10 @@
         <v>7</v>
       </c>
       <c r="AA105" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB105" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC105" s="15">
         <v>0</v>
@@ -13902,10 +13910,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="14">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>7</v>
@@ -13929,10 +13937,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L106" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M106" s="14">
         <v>0</v>
@@ -13947,13 +13955,13 @@
         <v>0</v>
       </c>
       <c r="Q106" s="14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="T106" s="15" t="s">
         <v>7</v>
@@ -13977,10 +13985,10 @@
         <v>7</v>
       </c>
       <c r="AA106" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB106" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC106" s="15">
         <v>0</v>
@@ -14019,10 +14027,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="14">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>7</v>
@@ -14049,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M107" s="14">
         <v>0</v>
@@ -14067,10 +14075,10 @@
         <v>50</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="T107" s="15" t="s">
         <v>7</v>
@@ -14094,10 +14102,10 @@
         <v>7</v>
       </c>
       <c r="AA107" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB107" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC107" s="15">
         <v>0</v>
@@ -14136,10 +14144,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="14">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>7</v>
@@ -14166,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M108" s="14">
         <v>0</v>
@@ -14184,10 +14192,10 @@
         <v>50</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S108" s="15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="T108" s="15" t="s">
         <v>7</v>
@@ -14211,10 +14219,10 @@
         <v>7</v>
       </c>
       <c r="AA108" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB108" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC108" s="15">
         <v>0</v>
@@ -14253,10 +14261,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="14">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>7</v>
@@ -14304,7 +14312,7 @@
         <v>127</v>
       </c>
       <c r="S109" s="15" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="T109" s="15" t="s">
         <v>7</v>
@@ -14370,10 +14378,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="14">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>7</v>
@@ -14421,7 +14429,7 @@
         <v>127</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="T110" s="15" t="s">
         <v>7</v>
@@ -14487,10 +14495,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="14">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>7</v>
@@ -14538,7 +14546,7 @@
         <v>127</v>
       </c>
       <c r="S111" s="15" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="T111" s="15" t="s">
         <v>7</v>
@@ -14604,10 +14612,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="14">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>7</v>
@@ -14655,7 +14663,7 @@
         <v>127</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="T112" s="15" t="s">
         <v>7</v>
@@ -14721,10 +14729,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="14">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>7</v>
@@ -14772,7 +14780,7 @@
         <v>127</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="T113" s="15" t="s">
         <v>7</v>
@@ -14796,7 +14804,7 @@
         <v>7</v>
       </c>
       <c r="AA113" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB113" s="15">
         <v>20</v>
@@ -14838,10 +14846,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="14">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>7</v>
@@ -14853,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H114" s="14">
         <v>0</v>
@@ -14868,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M114" s="14">
         <v>0</v>
@@ -14880,16 +14888,16 @@
         <v>0</v>
       </c>
       <c r="P114" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="14">
         <v>50</v>
       </c>
       <c r="R114" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S114" s="15" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="T114" s="15" t="s">
         <v>7</v>
@@ -14913,10 +14921,10 @@
         <v>7</v>
       </c>
       <c r="AA114" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB114" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC114" s="15">
         <v>0</v>
@@ -14943,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="AK114" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL114" s="15">
         <v>0</v>
@@ -14955,10 +14963,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="14">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>7</v>
@@ -14970,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H115" s="14">
         <v>0</v>
@@ -14985,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M115" s="14">
         <v>0</v>
@@ -14997,16 +15005,16 @@
         <v>0</v>
       </c>
       <c r="P115" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="14">
         <v>50</v>
       </c>
       <c r="R115" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S115" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T115" s="15" t="s">
         <v>7</v>
@@ -15030,10 +15038,10 @@
         <v>7</v>
       </c>
       <c r="AA115" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB115" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC115" s="15">
         <v>0</v>
@@ -15060,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="AK115" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL115" s="15">
         <v>0</v>
@@ -15072,10 +15080,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="14">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>7</v>
@@ -15189,10 +15197,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="14">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>7</v>
@@ -15306,10 +15314,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="14">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>7</v>
@@ -15423,10 +15431,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="14">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>7</v>
@@ -15540,10 +15548,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="14">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>7</v>
@@ -15657,10 +15665,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="14">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>7</v>
@@ -15774,10 +15782,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="14">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>7</v>
@@ -15891,10 +15899,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="14">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>7</v>
@@ -16008,10 +16016,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="14">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>7</v>
@@ -16125,10 +16133,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="14">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>7</v>
@@ -16143,10 +16151,10 @@
         <v>25</v>
       </c>
       <c r="H125" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I125" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J125" s="14">
         <v>0</v>
@@ -16167,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q125" s="14">
         <v>50</v>
@@ -16242,10 +16250,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="14">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>7</v>
@@ -16257,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H126" s="14">
         <v>0</v>
@@ -16269,10 +16277,10 @@
         <v>0</v>
       </c>
       <c r="K126" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L126" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M126" s="14">
         <v>0</v>
@@ -16284,13 +16292,13 @@
         <v>0</v>
       </c>
       <c r="P126" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q126" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R126" s="15" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S126" s="15" t="s">
         <v>7</v>
@@ -16317,7 +16325,7 @@
         <v>7</v>
       </c>
       <c r="AA126" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB126" s="15">
         <v>0</v>
@@ -16359,10 +16367,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="14">
-        <v>951</v>
+        <v>911</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>7</v>
@@ -16374,22 +16382,22 @@
         <v>0</v>
       </c>
       <c r="G127" s="14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H127" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I127" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J127" s="14">
         <v>0</v>
       </c>
       <c r="K127" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L127" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M127" s="14">
         <v>0</v>
@@ -16401,13 +16409,13 @@
         <v>0</v>
       </c>
       <c r="P127" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q127" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R127" s="15" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="S127" s="15" t="s">
         <v>7</v>
@@ -16434,7 +16442,7 @@
         <v>7</v>
       </c>
       <c r="AA127" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB127" s="15">
         <v>0</v>
@@ -16467,6 +16475,240 @@
         <v>231</v>
       </c>
       <c r="AL127" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="14">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="14">
+        <v>950</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="14">
+        <v>0</v>
+      </c>
+      <c r="F128" s="14">
+        <v>0</v>
+      </c>
+      <c r="G128" s="14">
+        <v>88</v>
+      </c>
+      <c r="H128" s="14">
+        <v>0</v>
+      </c>
+      <c r="I128" s="14">
+        <v>0</v>
+      </c>
+      <c r="J128" s="14">
+        <v>0</v>
+      </c>
+      <c r="K128" s="14">
+        <v>60</v>
+      </c>
+      <c r="L128" s="14">
+        <v>60</v>
+      </c>
+      <c r="M128" s="14">
+        <v>0</v>
+      </c>
+      <c r="N128" s="14">
+        <v>0</v>
+      </c>
+      <c r="O128" s="14">
+        <v>0</v>
+      </c>
+      <c r="P128" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="14">
+        <v>110</v>
+      </c>
+      <c r="R128" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="S128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA128" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL128" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="14">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="14">
+        <v>951</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="14">
+        <v>0</v>
+      </c>
+      <c r="F129" s="14">
+        <v>0</v>
+      </c>
+      <c r="G129" s="14">
+        <v>88</v>
+      </c>
+      <c r="H129" s="14">
+        <v>0</v>
+      </c>
+      <c r="I129" s="14">
+        <v>0</v>
+      </c>
+      <c r="J129" s="14">
+        <v>0</v>
+      </c>
+      <c r="K129" s="14">
+        <v>60</v>
+      </c>
+      <c r="L129" s="14">
+        <v>60</v>
+      </c>
+      <c r="M129" s="14">
+        <v>0</v>
+      </c>
+      <c r="N129" s="14">
+        <v>0</v>
+      </c>
+      <c r="O129" s="14">
+        <v>0</v>
+      </c>
+      <c r="P129" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="14">
+        <v>110</v>
+      </c>
+      <c r="R129" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="S129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA129" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ129" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL129" s="15">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB06B5-19CB-440D-8199-16C4C0C9AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F18CA5-7225-4134-8874-6895D44430D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1485" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1592,10 +1592,10 @@
   </sheetPr>
   <dimension ref="A1:AL129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F18CA5-7225-4134-8874-6895D44430D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499C4B3-D1B2-4753-8A13-0B95732F0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1485" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="1380" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="266">
   <si>
     <t>desc</t>
   </si>
@@ -1160,6 +1160,62 @@
   </si>
   <si>
     <t>MintIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamBlueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>raspberry_creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cherry_creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>peach_creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blackberry_creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamRaspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamPeach</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamBlackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blueberry_creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cafeaulait_creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamCafeaulait</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sea_losanonos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tiramisu</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1590,12 +1646,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL129"/>
+  <dimension ref="A1:AL137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="R98" sqref="R98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1794,7 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A129" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A137" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -11219,10 +11275,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="14">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>7</v>
@@ -11234,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="14">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
@@ -11243,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K83" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L83" s="14">
         <v>0</v>
@@ -11264,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="14">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R83" s="15" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="S83" s="15" t="s">
         <v>7</v>
@@ -11294,7 +11350,7 @@
         <v>7</v>
       </c>
       <c r="AA83" s="15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB83" s="15">
         <v>0</v>
@@ -11324,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AK83" s="16" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="AL83" s="15">
         <v>0</v>
@@ -11336,10 +11392,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="14">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>7</v>
@@ -11351,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="14">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H84" s="14">
         <v>0</v>
@@ -11381,19 +11437,19 @@
         <v>0</v>
       </c>
       <c r="Q84" s="14">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="S84" s="15" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="T84" s="15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="U84" s="15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="V84" s="15" t="s">
         <v>7</v>
@@ -11411,16 +11467,16 @@
         <v>7</v>
       </c>
       <c r="AA84" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB84" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC84" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD84" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="15">
         <v>0</v>
@@ -11453,10 +11509,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="14">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>7</v>
@@ -11501,16 +11557,16 @@
         <v>130</v>
       </c>
       <c r="R85" s="15" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="S85" s="15" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="T85" s="15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V85" s="15" t="s">
         <v>7</v>
@@ -11528,16 +11584,16 @@
         <v>7</v>
       </c>
       <c r="AA85" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB85" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC85" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD85" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE85" s="15">
         <v>0</v>
@@ -11570,10 +11626,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="14">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>7</v>
@@ -11585,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="14">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H86" s="14">
         <v>0</v>
@@ -11615,10 +11671,10 @@
         <v>0</v>
       </c>
       <c r="Q86" s="14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="S86" s="15" t="s">
         <v>7</v>
@@ -11645,7 +11701,7 @@
         <v>7</v>
       </c>
       <c r="AA86" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="15">
         <v>0</v>
@@ -11681,471 +11737,471 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+    <row r="87" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="B87" s="3">
-        <v>680</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
+      <c r="B87" s="14">
+        <v>653</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0</v>
+      </c>
+      <c r="F87" s="14">
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
         <v>54</v>
       </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <v>30</v>
-      </c>
-      <c r="J87" s="3">
-        <v>100</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3">
-        <v>0</v>
-      </c>
-      <c r="M87" s="3">
-        <v>0</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="3">
+      <c r="H87" s="14">
+        <v>0</v>
+      </c>
+      <c r="I87" s="14">
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0</v>
+      </c>
+      <c r="K87" s="14">
+        <v>80</v>
+      </c>
+      <c r="L87" s="14">
+        <v>0</v>
+      </c>
+      <c r="M87" s="14">
+        <v>0</v>
+      </c>
+      <c r="N87" s="14">
+        <v>0</v>
+      </c>
+      <c r="O87" s="14">
+        <v>0</v>
+      </c>
+      <c r="P87" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="14">
         <v>50</v>
       </c>
-      <c r="R87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK87" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL87" s="5">
+      <c r="R87" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z87" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA87" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL87" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
+    <row r="88" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="B88" s="14">
-        <v>700</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="14">
-        <v>0</v>
-      </c>
-      <c r="F88" s="14">
-        <v>0</v>
-      </c>
-      <c r="G88" s="14">
-        <v>77</v>
-      </c>
-      <c r="H88" s="14">
-        <v>0</v>
-      </c>
-      <c r="I88" s="14">
-        <v>0</v>
-      </c>
-      <c r="J88" s="14">
-        <v>0</v>
-      </c>
-      <c r="K88" s="14">
-        <v>60</v>
-      </c>
-      <c r="L88" s="14">
-        <v>0</v>
-      </c>
-      <c r="M88" s="14">
-        <v>0</v>
-      </c>
-      <c r="N88" s="14">
-        <v>0</v>
-      </c>
-      <c r="O88" s="14">
-        <v>0</v>
-      </c>
-      <c r="P88" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="14">
+      <c r="B88" s="3">
+        <v>680</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>54</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>30</v>
+      </c>
+      <c r="J88" s="3">
+        <v>100</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
         <v>50</v>
       </c>
-      <c r="R88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z88" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK88" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL88" s="15">
+      <c r="R88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL88" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+    <row r="89" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="B89" s="3">
-        <v>701</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="B89" s="14">
+        <v>700</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0</v>
+      </c>
+      <c r="F89" s="14">
+        <v>0</v>
+      </c>
+      <c r="G89" s="14">
         <v>77</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>10</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="H89" s="14">
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="14">
         <v>60</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="L89" s="14">
+        <v>0</v>
+      </c>
+      <c r="M89" s="14">
+        <v>0</v>
+      </c>
+      <c r="N89" s="14">
+        <v>0</v>
+      </c>
+      <c r="O89" s="14">
+        <v>0</v>
+      </c>
+      <c r="P89" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="14">
         <v>50</v>
       </c>
-      <c r="R89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK89" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL89" s="5">
+      <c r="R89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL89" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
+    <row r="90" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="B90" s="14">
-        <v>720</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="14">
-        <v>0</v>
-      </c>
-      <c r="F90" s="14">
-        <v>0</v>
-      </c>
-      <c r="G90" s="14">
-        <v>88</v>
-      </c>
-      <c r="H90" s="14">
-        <v>0</v>
-      </c>
-      <c r="I90" s="14">
-        <v>0</v>
-      </c>
-      <c r="J90" s="14">
-        <v>0</v>
-      </c>
-      <c r="K90" s="14">
-        <v>0</v>
-      </c>
-      <c r="L90" s="14">
-        <v>0</v>
-      </c>
-      <c r="M90" s="14">
+      <c r="B90" s="3">
+        <v>701</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>77</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>10</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
         <v>60</v>
       </c>
-      <c r="N90" s="14">
-        <v>0</v>
-      </c>
-      <c r="O90" s="14">
-        <v>0</v>
-      </c>
-      <c r="P90" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="14">
+      <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
         <v>50</v>
       </c>
-      <c r="R90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z90" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ90" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK90" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL90" s="15">
+      <c r="R90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL90" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12155,10 +12211,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="14">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>7</v>
@@ -12170,10 +12226,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="14">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H91" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I91" s="14">
         <v>0</v>
@@ -12203,7 +12259,7 @@
         <v>50</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S91" s="15" t="s">
         <v>7</v>
@@ -12230,7 +12286,7 @@
         <v>7</v>
       </c>
       <c r="AA91" s="15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="15">
         <v>0</v>
@@ -12272,10 +12328,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="14">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>7</v>
@@ -12287,10 +12343,10 @@
         <v>0</v>
       </c>
       <c r="G92" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H92" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I92" s="14">
         <v>0</v>
@@ -12299,13 +12355,13 @@
         <v>0</v>
       </c>
       <c r="K92" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L92" s="14">
         <v>0</v>
       </c>
       <c r="M92" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N92" s="14">
         <v>0</v>
@@ -12320,7 +12376,7 @@
         <v>50</v>
       </c>
       <c r="R92" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S92" s="15" t="s">
         <v>7</v>
@@ -12347,7 +12403,7 @@
         <v>7</v>
       </c>
       <c r="AA92" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB92" s="15">
         <v>0</v>
@@ -12377,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AL92" s="15">
         <v>0</v>
@@ -12389,10 +12445,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="14">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>7</v>
@@ -12404,10 +12460,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="14">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H93" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I93" s="14">
         <v>0</v>
@@ -12416,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L93" s="14">
         <v>0</v>
@@ -12434,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R93" s="15" t="s">
         <v>7</v>
@@ -12506,10 +12562,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="14">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>7</v>
@@ -12521,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H94" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I94" s="14">
         <v>0</v>
@@ -12533,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L94" s="14">
         <v>0</v>
@@ -12551,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R94" s="15" t="s">
         <v>7</v>
@@ -12623,10 +12679,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="14">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>7</v>
@@ -12740,10 +12796,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="14">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>7</v>
@@ -12755,40 +12811,40 @@
         <v>0</v>
       </c>
       <c r="G96" s="14">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="H96" s="14">
         <v>0</v>
       </c>
       <c r="I96" s="14">
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="14">
+        <v>100</v>
+      </c>
+      <c r="L96" s="14">
+        <v>0</v>
+      </c>
+      <c r="M96" s="14">
+        <v>0</v>
+      </c>
+      <c r="N96" s="14">
+        <v>0</v>
+      </c>
+      <c r="O96" s="14">
+        <v>0</v>
+      </c>
+      <c r="P96" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="14">
         <v>50</v>
       </c>
-      <c r="J96" s="14">
-        <v>0</v>
-      </c>
-      <c r="K96" s="14">
-        <v>130</v>
-      </c>
-      <c r="L96" s="14">
-        <v>0</v>
-      </c>
-      <c r="M96" s="14">
-        <v>0</v>
-      </c>
-      <c r="N96" s="14">
-        <v>0</v>
-      </c>
-      <c r="O96" s="14">
-        <v>0</v>
-      </c>
-      <c r="P96" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="14">
-        <v>130</v>
-      </c>
       <c r="R96" s="15" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="S96" s="15" t="s">
         <v>7</v>
@@ -12815,7 +12871,7 @@
         <v>7</v>
       </c>
       <c r="AA96" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="15">
         <v>0</v>
@@ -12857,10 +12913,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="14">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>7</v>
@@ -12872,19 +12928,19 @@
         <v>0</v>
       </c>
       <c r="G97" s="14">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H97" s="14">
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
         <v>50</v>
       </c>
-      <c r="I97" s="14">
-        <v>0</v>
-      </c>
       <c r="J97" s="14">
         <v>0</v>
       </c>
       <c r="K97" s="14">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L97" s="14">
         <v>0</v>
@@ -12902,13 +12958,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="T97" s="15" t="s">
         <v>7</v>
@@ -12932,10 +12988,10 @@
         <v>7</v>
       </c>
       <c r="AA97" s="15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AB97" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC97" s="15">
         <v>0</v>
@@ -12974,10 +13030,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="14">
-        <v>780</v>
+        <v>753</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>7</v>
@@ -12989,19 +13045,19 @@
         <v>0</v>
       </c>
       <c r="G98" s="14">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H98" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I98" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J98" s="14">
         <v>0</v>
       </c>
       <c r="K98" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L98" s="14">
         <v>0</v>
@@ -13022,7 +13078,7 @@
         <v>100</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="S98" s="15" t="s">
         <v>7</v>
@@ -13049,7 +13105,7 @@
         <v>7</v>
       </c>
       <c r="AA98" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB98" s="15">
         <v>0</v>
@@ -13091,10 +13147,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="14">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>7</v>
@@ -13106,10 +13162,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="14">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="H99" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I99" s="14">
         <v>0</v>
@@ -13118,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L99" s="14">
         <v>0</v>
@@ -13139,10 +13195,10 @@
         <v>50</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="T99" s="15" t="s">
         <v>7</v>
@@ -13166,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="AA99" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AB99" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC99" s="15">
         <v>0</v>
@@ -13208,10 +13264,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="14">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>7</v>
@@ -13229,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J100" s="14">
         <v>0</v>
@@ -13253,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R100" s="15" t="s">
         <v>45</v>
@@ -13325,10 +13381,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="14">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>7</v>
@@ -13352,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L101" s="14">
         <v>0</v>
@@ -13442,10 +13498,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="14">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>7</v>
@@ -13457,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H102" s="14">
         <v>0</v>
@@ -13469,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L102" s="14">
         <v>0</v>
@@ -13487,19 +13543,19 @@
         <v>0</v>
       </c>
       <c r="Q102" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T102" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V102" s="15" t="s">
         <v>7</v>
@@ -13517,16 +13573,16 @@
         <v>7</v>
       </c>
       <c r="AA102" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB102" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD102" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE102" s="15">
         <v>0</v>
@@ -13559,10 +13615,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="14">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>7</v>
@@ -13574,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="14">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H103" s="14">
         <v>0</v>
@@ -13586,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L103" s="14">
         <v>0</v>
@@ -13604,19 +13660,19 @@
         <v>0</v>
       </c>
       <c r="Q103" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="T103" s="15" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="U103" s="15" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V103" s="15" t="s">
         <v>7</v>
@@ -13634,16 +13690,16 @@
         <v>7</v>
       </c>
       <c r="AA103" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB103" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC103" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD103" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE103" s="15">
         <v>0</v>
@@ -13676,10 +13732,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="14">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>7</v>
@@ -13703,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L104" s="14">
         <v>0</v>
@@ -13724,16 +13780,16 @@
         <v>110</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="T104" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="U104" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V104" s="15" t="s">
         <v>7</v>
@@ -13751,16 +13807,16 @@
         <v>7</v>
       </c>
       <c r="AA104" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB104" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC104" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD104" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE104" s="15">
         <v>0</v>
@@ -13781,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="AK104" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL104" s="15">
         <v>0</v>
@@ -13793,10 +13849,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="14">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>7</v>
@@ -13820,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L105" s="14">
         <v>0</v>
@@ -13841,16 +13897,16 @@
         <v>110</v>
       </c>
       <c r="R105" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S105" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T105" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S105" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="T105" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="U105" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="V105" s="15" t="s">
         <v>7</v>
@@ -13868,16 +13924,16 @@
         <v>7</v>
       </c>
       <c r="AA105" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB105" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC105" s="15">
         <v>10</v>
       </c>
-      <c r="AC105" s="15">
-        <v>0</v>
-      </c>
       <c r="AD105" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE105" s="15">
         <v>0</v>
@@ -13898,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="AK105" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AL105" s="15">
         <v>0</v>
@@ -13910,10 +13966,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="14">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>7</v>
@@ -13958,10 +14014,10 @@
         <v>110</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="T106" s="15" t="s">
         <v>7</v>
@@ -13988,7 +14044,7 @@
         <v>5</v>
       </c>
       <c r="AB106" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC106" s="15">
         <v>0</v>
@@ -14027,10 +14083,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="14">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>7</v>
@@ -14054,10 +14110,10 @@
         <v>0</v>
       </c>
       <c r="K107" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L107" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M107" s="14">
         <v>0</v>
@@ -14072,13 +14128,13 @@
         <v>0</v>
       </c>
       <c r="Q107" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T107" s="15" t="s">
         <v>7</v>
@@ -14102,10 +14158,10 @@
         <v>7</v>
       </c>
       <c r="AA107" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB107" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC107" s="15">
         <v>0</v>
@@ -14144,10 +14200,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="14">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>7</v>
@@ -14171,10 +14227,10 @@
         <v>0</v>
       </c>
       <c r="K108" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L108" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M108" s="14">
         <v>0</v>
@@ -14189,13 +14245,13 @@
         <v>0</v>
       </c>
       <c r="Q108" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="S108" s="15" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="T108" s="15" t="s">
         <v>7</v>
@@ -14219,10 +14275,10 @@
         <v>7</v>
       </c>
       <c r="AA108" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB108" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC108" s="15">
         <v>0</v>
@@ -14255,705 +14311,705 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
+    <row r="109" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B109" s="14">
-        <v>870</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>216</v>
+        <v>833</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="14">
-        <v>0</v>
-      </c>
-      <c r="F109" s="14">
-        <v>0</v>
-      </c>
-      <c r="G109" s="14">
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
         <v>88</v>
       </c>
-      <c r="H109" s="14">
-        <v>0</v>
-      </c>
-      <c r="I109" s="14">
-        <v>0</v>
-      </c>
-      <c r="J109" s="14">
-        <v>0</v>
-      </c>
-      <c r="K109" s="14">
-        <v>0</v>
-      </c>
-      <c r="L109" s="14">
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3">
         <v>60</v>
       </c>
-      <c r="M109" s="14">
-        <v>0</v>
-      </c>
-      <c r="N109" s="14">
-        <v>0</v>
-      </c>
-      <c r="O109" s="14">
-        <v>0</v>
-      </c>
-      <c r="P109" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="14">
-        <v>50</v>
-      </c>
-      <c r="R109" s="15" t="s">
-        <v>127</v>
+      <c r="L109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3">
+        <v>0</v>
+      </c>
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>80</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="S109" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z109" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA109" s="15">
+        <v>70</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA109" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB109" s="5">
         <v>10</v>
       </c>
-      <c r="AB109" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ109" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK109" s="16" t="s">
+      <c r="AC109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK109" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL109" s="15">
+      <c r="AL109" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="14">
+    <row r="110" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="B110" s="14">
-        <v>871</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>217</v>
+        <v>834</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="14">
-        <v>0</v>
-      </c>
-      <c r="F110" s="14">
-        <v>0</v>
-      </c>
-      <c r="G110" s="14">
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
         <v>88</v>
       </c>
-      <c r="H110" s="14">
-        <v>0</v>
-      </c>
-      <c r="I110" s="14">
-        <v>0</v>
-      </c>
-      <c r="J110" s="14">
-        <v>0</v>
-      </c>
-      <c r="K110" s="14">
-        <v>0</v>
-      </c>
-      <c r="L110" s="14">
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
         <v>60</v>
       </c>
-      <c r="M110" s="14">
-        <v>0</v>
-      </c>
-      <c r="N110" s="14">
-        <v>0</v>
-      </c>
-      <c r="O110" s="14">
-        <v>0</v>
-      </c>
-      <c r="P110" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="14">
-        <v>50</v>
-      </c>
-      <c r="R110" s="15" t="s">
-        <v>127</v>
+      <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
+        <v>0</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>80</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="S110" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="T110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z110" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA110" s="15">
+        <v>133</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA110" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB110" s="5">
         <v>10</v>
       </c>
-      <c r="AB110" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ110" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK110" s="16" t="s">
+      <c r="AC110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL110" s="15">
+      <c r="AL110" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
+    <row r="111" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="B111" s="14">
-        <v>872</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>218</v>
+        <v>835</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="14">
-        <v>0</v>
-      </c>
-      <c r="F111" s="14">
-        <v>0</v>
-      </c>
-      <c r="G111" s="14">
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
         <v>88</v>
       </c>
-      <c r="H111" s="14">
-        <v>0</v>
-      </c>
-      <c r="I111" s="14">
-        <v>0</v>
-      </c>
-      <c r="J111" s="14">
-        <v>0</v>
-      </c>
-      <c r="K111" s="14">
-        <v>0</v>
-      </c>
-      <c r="L111" s="14">
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
         <v>60</v>
       </c>
-      <c r="M111" s="14">
-        <v>0</v>
-      </c>
-      <c r="N111" s="14">
-        <v>0</v>
-      </c>
-      <c r="O111" s="14">
-        <v>0</v>
-      </c>
-      <c r="P111" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="14">
-        <v>50</v>
-      </c>
-      <c r="R111" s="15" t="s">
-        <v>127</v>
+      <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>80</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="S111" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z111" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA111" s="15">
+        <v>75</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA111" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB111" s="5">
         <v>10</v>
       </c>
-      <c r="AB111" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ111" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK111" s="16" t="s">
+      <c r="AC111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK111" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL111" s="15">
+      <c r="AL111" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14">
+    <row r="112" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="B112" s="14">
-        <v>873</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>219</v>
+        <v>836</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="14">
-        <v>0</v>
-      </c>
-      <c r="F112" s="14">
-        <v>0</v>
-      </c>
-      <c r="G112" s="14">
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
         <v>88</v>
       </c>
-      <c r="H112" s="14">
-        <v>0</v>
-      </c>
-      <c r="I112" s="14">
-        <v>0</v>
-      </c>
-      <c r="J112" s="14">
-        <v>0</v>
-      </c>
-      <c r="K112" s="14">
-        <v>0</v>
-      </c>
-      <c r="L112" s="14">
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
         <v>60</v>
       </c>
-      <c r="M112" s="14">
-        <v>0</v>
-      </c>
-      <c r="N112" s="14">
-        <v>0</v>
-      </c>
-      <c r="O112" s="14">
-        <v>0</v>
-      </c>
-      <c r="P112" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="14">
-        <v>50</v>
-      </c>
-      <c r="R112" s="15" t="s">
-        <v>127</v>
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0</v>
+      </c>
+      <c r="N112" s="3">
+        <v>0</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>80</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="T112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z112" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA112" s="15">
+        <v>74</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA112" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB112" s="5">
         <v>10</v>
       </c>
-      <c r="AB112" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ112" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK112" s="16" t="s">
+      <c r="AC112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL112" s="15">
+      <c r="AL112" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
+    <row r="113" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="B113" s="14">
-        <v>874</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>226</v>
+        <v>837</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="14">
-        <v>0</v>
-      </c>
-      <c r="F113" s="14">
-        <v>0</v>
-      </c>
-      <c r="G113" s="14">
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
         <v>88</v>
       </c>
-      <c r="H113" s="14">
-        <v>0</v>
-      </c>
-      <c r="I113" s="14">
-        <v>0</v>
-      </c>
-      <c r="J113" s="14">
-        <v>0</v>
-      </c>
-      <c r="K113" s="14">
-        <v>0</v>
-      </c>
-      <c r="L113" s="14">
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
         <v>60</v>
       </c>
-      <c r="M113" s="14">
-        <v>0</v>
-      </c>
-      <c r="N113" s="14">
-        <v>0</v>
-      </c>
-      <c r="O113" s="14">
-        <v>0</v>
-      </c>
-      <c r="P113" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="14">
-        <v>50</v>
-      </c>
-      <c r="R113" s="15" t="s">
-        <v>127</v>
+      <c r="L113" s="3">
+        <v>0</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0</v>
+      </c>
+      <c r="N113" s="3">
+        <v>0</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>80</v>
+      </c>
+      <c r="R113" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA113" s="15">
+        <v>135</v>
+      </c>
+      <c r="T113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA113" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB113" s="5">
         <v>10</v>
       </c>
-      <c r="AB113" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ113" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK113" s="16" t="s">
+      <c r="AC113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK113" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL113" s="15">
+      <c r="AL113" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="14">
+    <row r="114" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="B114" s="14">
-        <v>875</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>227</v>
+        <v>838</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E114" s="14">
-        <v>0</v>
-      </c>
-      <c r="F114" s="14">
-        <v>0</v>
-      </c>
-      <c r="G114" s="14">
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
         <v>88</v>
       </c>
-      <c r="H114" s="14">
-        <v>0</v>
-      </c>
-      <c r="I114" s="14">
-        <v>0</v>
-      </c>
-      <c r="J114" s="14">
-        <v>0</v>
-      </c>
-      <c r="K114" s="14">
-        <v>0</v>
-      </c>
-      <c r="L114" s="14">
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
         <v>60</v>
       </c>
-      <c r="M114" s="14">
-        <v>0</v>
-      </c>
-      <c r="N114" s="14">
-        <v>0</v>
-      </c>
-      <c r="O114" s="14">
-        <v>0</v>
-      </c>
-      <c r="P114" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="14">
-        <v>50</v>
-      </c>
-      <c r="R114" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="S114" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="T114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="V114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="X114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z114" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA114" s="15">
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0</v>
+      </c>
+      <c r="N114" s="3">
+        <v>0</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>80</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA114" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB114" s="5">
         <v>10</v>
       </c>
-      <c r="AB114" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ114" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK114" s="16" t="s">
+      <c r="AC114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK114" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL114" s="15">
+      <c r="AL114" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14963,10 +15019,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="14">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>7</v>
@@ -14993,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M115" s="14">
         <v>0</v>
@@ -15011,10 +15067,10 @@
         <v>50</v>
       </c>
       <c r="R115" s="15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="S115" s="15" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="T115" s="15" t="s">
         <v>7</v>
@@ -15038,10 +15094,10 @@
         <v>7</v>
       </c>
       <c r="AA115" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB115" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC115" s="15">
         <v>0</v>
@@ -15080,10 +15136,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="14">
-        <v>900</v>
+        <v>851</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>7</v>
@@ -15095,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H116" s="14">
         <v>0</v>
@@ -15110,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M116" s="14">
         <v>0</v>
@@ -15122,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="14">
         <v>50</v>
@@ -15185,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="AK116" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL116" s="15">
         <v>0</v>
@@ -15197,10 +15253,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="14">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>7</v>
@@ -15212,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H117" s="14">
         <v>0</v>
@@ -15227,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M117" s="14">
         <v>0</v>
@@ -15239,16 +15295,16 @@
         <v>0</v>
       </c>
       <c r="P117" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="14">
         <v>50</v>
       </c>
       <c r="R117" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="T117" s="15" t="s">
         <v>7</v>
@@ -15272,10 +15328,10 @@
         <v>7</v>
       </c>
       <c r="AA117" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB117" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC117" s="15">
         <v>0</v>
@@ -15302,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="AK117" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL117" s="15">
         <v>0</v>
@@ -15314,10 +15370,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="14">
-        <v>902</v>
+        <v>871</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>7</v>
@@ -15329,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H118" s="14">
         <v>0</v>
@@ -15344,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M118" s="14">
         <v>0</v>
@@ -15356,16 +15412,16 @@
         <v>0</v>
       </c>
       <c r="P118" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q118" s="14">
         <v>50</v>
       </c>
       <c r="R118" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S118" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T118" s="15" t="s">
         <v>7</v>
@@ -15389,10 +15445,10 @@
         <v>7</v>
       </c>
       <c r="AA118" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB118" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC118" s="15">
         <v>0</v>
@@ -15419,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="AK118" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL118" s="15">
         <v>0</v>
@@ -15431,10 +15487,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="14">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>7</v>
@@ -15446,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H119" s="14">
         <v>0</v>
@@ -15461,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M119" s="14">
         <v>0</v>
@@ -15473,16 +15529,16 @@
         <v>0</v>
       </c>
       <c r="P119" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="14">
         <v>50</v>
       </c>
       <c r="R119" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T119" s="15" t="s">
         <v>7</v>
@@ -15506,10 +15562,10 @@
         <v>7</v>
       </c>
       <c r="AA119" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB119" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC119" s="15">
         <v>0</v>
@@ -15536,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="AK119" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL119" s="15">
         <v>0</v>
@@ -15548,10 +15604,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="14">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>7</v>
@@ -15563,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H120" s="14">
         <v>0</v>
@@ -15578,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M120" s="14">
         <v>0</v>
@@ -15590,16 +15646,16 @@
         <v>0</v>
       </c>
       <c r="P120" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="14">
         <v>50</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S120" s="15" t="s">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="T120" s="15" t="s">
         <v>7</v>
@@ -15623,10 +15679,10 @@
         <v>7</v>
       </c>
       <c r="AA120" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB120" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC120" s="15">
         <v>0</v>
@@ -15653,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="AK120" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL120" s="15">
         <v>0</v>
@@ -15665,10 +15721,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="14">
-        <v>905</v>
+        <v>874</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>7</v>
@@ -15680,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H121" s="14">
         <v>0</v>
@@ -15695,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M121" s="14">
         <v>0</v>
@@ -15707,16 +15763,16 @@
         <v>0</v>
       </c>
       <c r="P121" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="14">
         <v>50</v>
       </c>
       <c r="R121" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S121" s="15" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="T121" s="15" t="s">
         <v>7</v>
@@ -15740,10 +15796,10 @@
         <v>7</v>
       </c>
       <c r="AA121" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB121" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC121" s="15">
         <v>0</v>
@@ -15770,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="AK121" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL121" s="15">
         <v>0</v>
@@ -15782,10 +15838,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="14">
-        <v>906</v>
+        <v>875</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>7</v>
@@ -15797,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H122" s="14">
         <v>0</v>
@@ -15812,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M122" s="14">
         <v>0</v>
@@ -15824,16 +15880,16 @@
         <v>0</v>
       </c>
       <c r="P122" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="14">
         <v>50</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S122" s="15" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="T122" s="15" t="s">
         <v>7</v>
@@ -15857,10 +15913,10 @@
         <v>7</v>
       </c>
       <c r="AA122" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB122" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC122" s="15">
         <v>0</v>
@@ -15887,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="AK122" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL122" s="15">
         <v>0</v>
@@ -15899,10 +15955,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="14">
-        <v>907</v>
+        <v>876</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>7</v>
@@ -15914,7 +15970,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="14">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H123" s="14">
         <v>0</v>
@@ -15929,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M123" s="14">
         <v>0</v>
@@ -15941,16 +15997,16 @@
         <v>0</v>
       </c>
       <c r="P123" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q123" s="14">
         <v>50</v>
       </c>
       <c r="R123" s="15" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="S123" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T123" s="15" t="s">
         <v>7</v>
@@ -15974,10 +16030,10 @@
         <v>7</v>
       </c>
       <c r="AA123" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB123" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC123" s="15">
         <v>0</v>
@@ -16004,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="AK123" s="16" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="AL123" s="15">
         <v>0</v>
@@ -16016,10 +16072,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="14">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>7</v>
@@ -16133,10 +16189,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="14">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>7</v>
@@ -16250,10 +16306,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="14">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>7</v>
@@ -16367,10 +16423,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="14">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>7</v>
@@ -16385,10 +16441,10 @@
         <v>25</v>
       </c>
       <c r="H127" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I127" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J127" s="14">
         <v>0</v>
@@ -16409,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q127" s="14">
         <v>50</v>
@@ -16484,10 +16540,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="14">
-        <v>950</v>
+        <v>904</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>7</v>
@@ -16499,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H128" s="14">
         <v>0</v>
@@ -16511,10 +16567,10 @@
         <v>0</v>
       </c>
       <c r="K128" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L128" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M128" s="14">
         <v>0</v>
@@ -16526,13 +16582,13 @@
         <v>0</v>
       </c>
       <c r="P128" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q128" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S128" s="15" t="s">
         <v>7</v>
@@ -16559,7 +16615,7 @@
         <v>7</v>
       </c>
       <c r="AA128" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB128" s="15">
         <v>0</v>
@@ -16601,10 +16657,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="14">
-        <v>951</v>
+        <v>905</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>7</v>
@@ -16616,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H129" s="14">
         <v>0</v>
@@ -16628,10 +16684,10 @@
         <v>0</v>
       </c>
       <c r="K129" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L129" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M129" s="14">
         <v>0</v>
@@ -16643,13 +16699,13 @@
         <v>0</v>
       </c>
       <c r="P129" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q129" s="14">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="R129" s="15" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="S129" s="15" t="s">
         <v>7</v>
@@ -16676,7 +16732,7 @@
         <v>7</v>
       </c>
       <c r="AA129" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB129" s="15">
         <v>0</v>
@@ -16709,6 +16765,942 @@
         <v>231</v>
       </c>
       <c r="AL129" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="14">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="14">
+        <v>906</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="14">
+        <v>0</v>
+      </c>
+      <c r="F130" s="14">
+        <v>0</v>
+      </c>
+      <c r="G130" s="14">
+        <v>25</v>
+      </c>
+      <c r="H130" s="14">
+        <v>0</v>
+      </c>
+      <c r="I130" s="14">
+        <v>0</v>
+      </c>
+      <c r="J130" s="14">
+        <v>0</v>
+      </c>
+      <c r="K130" s="14">
+        <v>0</v>
+      </c>
+      <c r="L130" s="14">
+        <v>0</v>
+      </c>
+      <c r="M130" s="14">
+        <v>0</v>
+      </c>
+      <c r="N130" s="14">
+        <v>0</v>
+      </c>
+      <c r="O130" s="14">
+        <v>0</v>
+      </c>
+      <c r="P130" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q130" s="14">
+        <v>50</v>
+      </c>
+      <c r="R130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL130" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="14">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="14">
+        <v>907</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="14">
+        <v>0</v>
+      </c>
+      <c r="F131" s="14">
+        <v>0</v>
+      </c>
+      <c r="G131" s="14">
+        <v>25</v>
+      </c>
+      <c r="H131" s="14">
+        <v>0</v>
+      </c>
+      <c r="I131" s="14">
+        <v>0</v>
+      </c>
+      <c r="J131" s="14">
+        <v>0</v>
+      </c>
+      <c r="K131" s="14">
+        <v>0</v>
+      </c>
+      <c r="L131" s="14">
+        <v>0</v>
+      </c>
+      <c r="M131" s="14">
+        <v>0</v>
+      </c>
+      <c r="N131" s="14">
+        <v>0</v>
+      </c>
+      <c r="O131" s="14">
+        <v>0</v>
+      </c>
+      <c r="P131" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q131" s="14">
+        <v>50</v>
+      </c>
+      <c r="R131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ131" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK131" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL131" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="14">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B132" s="14">
+        <v>908</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="14">
+        <v>0</v>
+      </c>
+      <c r="F132" s="14">
+        <v>0</v>
+      </c>
+      <c r="G132" s="14">
+        <v>25</v>
+      </c>
+      <c r="H132" s="14">
+        <v>0</v>
+      </c>
+      <c r="I132" s="14">
+        <v>0</v>
+      </c>
+      <c r="J132" s="14">
+        <v>0</v>
+      </c>
+      <c r="K132" s="14">
+        <v>0</v>
+      </c>
+      <c r="L132" s="14">
+        <v>0</v>
+      </c>
+      <c r="M132" s="14">
+        <v>0</v>
+      </c>
+      <c r="N132" s="14">
+        <v>0</v>
+      </c>
+      <c r="O132" s="14">
+        <v>0</v>
+      </c>
+      <c r="P132" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q132" s="14">
+        <v>50</v>
+      </c>
+      <c r="R132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL132" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="14">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="14">
+        <v>909</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="14">
+        <v>0</v>
+      </c>
+      <c r="F133" s="14">
+        <v>0</v>
+      </c>
+      <c r="G133" s="14">
+        <v>25</v>
+      </c>
+      <c r="H133" s="14">
+        <v>0</v>
+      </c>
+      <c r="I133" s="14">
+        <v>0</v>
+      </c>
+      <c r="J133" s="14">
+        <v>0</v>
+      </c>
+      <c r="K133" s="14">
+        <v>0</v>
+      </c>
+      <c r="L133" s="14">
+        <v>0</v>
+      </c>
+      <c r="M133" s="14">
+        <v>0</v>
+      </c>
+      <c r="N133" s="14">
+        <v>0</v>
+      </c>
+      <c r="O133" s="14">
+        <v>0</v>
+      </c>
+      <c r="P133" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q133" s="14">
+        <v>50</v>
+      </c>
+      <c r="R133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL133" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="14">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="14">
+        <v>910</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="14">
+        <v>0</v>
+      </c>
+      <c r="F134" s="14">
+        <v>0</v>
+      </c>
+      <c r="G134" s="14">
+        <v>25</v>
+      </c>
+      <c r="H134" s="14">
+        <v>0</v>
+      </c>
+      <c r="I134" s="14">
+        <v>0</v>
+      </c>
+      <c r="J134" s="14">
+        <v>0</v>
+      </c>
+      <c r="K134" s="14">
+        <v>0</v>
+      </c>
+      <c r="L134" s="14">
+        <v>0</v>
+      </c>
+      <c r="M134" s="14">
+        <v>0</v>
+      </c>
+      <c r="N134" s="14">
+        <v>0</v>
+      </c>
+      <c r="O134" s="14">
+        <v>0</v>
+      </c>
+      <c r="P134" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q134" s="14">
+        <v>50</v>
+      </c>
+      <c r="R134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL134" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="14">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="14">
+        <v>911</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="14">
+        <v>0</v>
+      </c>
+      <c r="F135" s="14">
+        <v>0</v>
+      </c>
+      <c r="G135" s="14">
+        <v>25</v>
+      </c>
+      <c r="H135" s="14">
+        <v>60</v>
+      </c>
+      <c r="I135" s="14">
+        <v>60</v>
+      </c>
+      <c r="J135" s="14">
+        <v>0</v>
+      </c>
+      <c r="K135" s="14">
+        <v>0</v>
+      </c>
+      <c r="L135" s="14">
+        <v>0</v>
+      </c>
+      <c r="M135" s="14">
+        <v>0</v>
+      </c>
+      <c r="N135" s="14">
+        <v>0</v>
+      </c>
+      <c r="O135" s="14">
+        <v>0</v>
+      </c>
+      <c r="P135" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q135" s="14">
+        <v>50</v>
+      </c>
+      <c r="R135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL135" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="14">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="14">
+        <v>950</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="14">
+        <v>0</v>
+      </c>
+      <c r="F136" s="14">
+        <v>0</v>
+      </c>
+      <c r="G136" s="14">
+        <v>88</v>
+      </c>
+      <c r="H136" s="14">
+        <v>0</v>
+      </c>
+      <c r="I136" s="14">
+        <v>0</v>
+      </c>
+      <c r="J136" s="14">
+        <v>0</v>
+      </c>
+      <c r="K136" s="14">
+        <v>60</v>
+      </c>
+      <c r="L136" s="14">
+        <v>60</v>
+      </c>
+      <c r="M136" s="14">
+        <v>0</v>
+      </c>
+      <c r="N136" s="14">
+        <v>0</v>
+      </c>
+      <c r="O136" s="14">
+        <v>0</v>
+      </c>
+      <c r="P136" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="14">
+        <v>110</v>
+      </c>
+      <c r="R136" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="S136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z136" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA136" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ136" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK136" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL136" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="14">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="14">
+        <v>951</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="14">
+        <v>0</v>
+      </c>
+      <c r="F137" s="14">
+        <v>0</v>
+      </c>
+      <c r="G137" s="14">
+        <v>88</v>
+      </c>
+      <c r="H137" s="14">
+        <v>0</v>
+      </c>
+      <c r="I137" s="14">
+        <v>0</v>
+      </c>
+      <c r="J137" s="14">
+        <v>0</v>
+      </c>
+      <c r="K137" s="14">
+        <v>60</v>
+      </c>
+      <c r="L137" s="14">
+        <v>60</v>
+      </c>
+      <c r="M137" s="14">
+        <v>0</v>
+      </c>
+      <c r="N137" s="14">
+        <v>0</v>
+      </c>
+      <c r="O137" s="14">
+        <v>0</v>
+      </c>
+      <c r="P137" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="14">
+        <v>110</v>
+      </c>
+      <c r="R137" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="S137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z137" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA137" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ137" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL137" s="15">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499C4B3-D1B2-4753-8A13-0B95732F0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A86CC-B44F-4226-9044-C8F0499D7786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1380" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="267">
   <si>
     <t>desc</t>
   </si>
@@ -1216,6 +1216,10 @@
   </si>
   <si>
     <t>tiramisu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CocoaPowder</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1651,7 +1655,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R98" sqref="R98"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13057,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L98" s="14">
         <v>0</v>
@@ -13081,7 +13085,7 @@
         <v>127</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="T98" s="15" t="s">
         <v>7</v>
@@ -13108,7 +13112,7 @@
         <v>30</v>
       </c>
       <c r="AB98" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC98" s="15">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A86CC-B44F-4226-9044-C8F0499D7786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C1ECB9-4254-4D25-861A-1E0B8823F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1650" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="274">
   <si>
     <t>desc</t>
   </si>
@@ -1222,6 +1222,34 @@
     <t>CocoaPowder</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Parfe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Candy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Castella</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Crepe_Mat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coffee_Mat</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1652,10 +1680,10 @@
   </sheetPr>
   <dimension ref="A1:AL137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10601,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K77" s="14">
         <v>0</v>
@@ -10835,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K79" s="14">
         <v>0</v>
@@ -10952,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K80" s="14">
         <v>0</v>
@@ -11069,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K81" s="14">
         <v>0</v>
@@ -11096,7 +11124,7 @@
         <v>58</v>
       </c>
       <c r="S81" s="15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="T81" s="15" t="s">
         <v>7</v>
@@ -11123,7 +11151,7 @@
         <v>-50</v>
       </c>
       <c r="AB81" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC81" s="15">
         <v>0</v>
@@ -17720,12 +17748,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL56"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17980,7 +18008,7 @@
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A56" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A3:A78" si="0">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="B3" s="6">
@@ -18219,7 +18247,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B11" si="1">INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10012</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -18337,7 +18365,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10013</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -18455,7 +18483,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10014</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -18573,7 +18601,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10015</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -18691,7 +18719,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10016</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -18809,7 +18837,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10017</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -18927,7 +18955,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(10010,B:B,0),1)+(ROW()-MATCH(10010,B:B,0))</f>
         <v>10018</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -19060,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -19069,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K12" s="6">
         <v>0</v>
@@ -19178,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -19187,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -19208,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>74</v>
@@ -19280,7 +19308,7 @@
         <v>1012</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" ref="B14:B56" si="2">INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15002</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -19296,7 +19324,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -19305,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -19326,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>76</v>
@@ -19398,7 +19426,7 @@
         <v>1013</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15003</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -19414,7 +19442,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -19423,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -19516,7 +19544,7 @@
         <v>1014</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15004</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -19538,10 +19566,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -19634,7 +19662,7 @@
         <v>1015</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15005</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -19650,16 +19678,16 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -19752,14 +19780,14 @@
         <v>1016</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15006</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -19768,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -19780,14 +19808,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>85</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -19798,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>7</v>
@@ -19870,7 +19898,7 @@
         <v>1017</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15007</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -19886,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -19898,13 +19926,13 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -19916,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>7</v>
@@ -19988,7 +20016,7 @@
         <v>1018</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15008</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -20004,10 +20032,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -20016,13 +20044,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -20034,10 +20062,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>7</v>
@@ -20064,7 +20092,7 @@
         <v>7</v>
       </c>
       <c r="AA20" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -20106,14 +20134,14 @@
         <v>1019</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15009</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -20122,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -20134,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -20152,16 +20180,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>7</v>
@@ -20185,10 +20213,10 @@
         <v>0</v>
       </c>
       <c r="AB21" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC21" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD21" s="5">
         <v>0</v>
@@ -20209,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AK21" s="4" t="s">
         <v>54</v>
@@ -20224,7 +20252,7 @@
         <v>1020</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15010</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -20240,52 +20268,52 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>80</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>90</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="T22" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>7</v>
@@ -20303,13 +20331,13 @@
         <v>0</v>
       </c>
       <c r="AB22" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE22" s="5">
         <v>0</v>
@@ -20327,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AK22" s="4" t="s">
         <v>55</v>
@@ -20342,7 +20370,7 @@
         <v>1021</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15011</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -20358,10 +20386,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -20370,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -20388,13 +20416,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>7</v>
@@ -20418,10 +20446,10 @@
         <v>7</v>
       </c>
       <c r="AA23" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB23" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="5">
         <v>0</v>
@@ -20445,7 +20473,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="5">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AK23" s="4" t="s">
         <v>56</v>
@@ -20460,14 +20488,14 @@
         <v>1022</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15012</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -20476,7 +20504,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -20485,10 +20513,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -20512,10 +20540,10 @@
         <v>7</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>7</v>
@@ -20539,10 +20567,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC24" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD24" s="5">
         <v>0</v>
@@ -20578,7 +20606,7 @@
         <v>1023</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15013</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -20594,52 +20622,52 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>110</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>150</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>110</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="T25" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>7</v>
@@ -20657,13 +20685,13 @@
         <v>0</v>
       </c>
       <c r="AB25" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC25" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE25" s="5">
         <v>0</v>
@@ -20681,7 +20709,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>55</v>
@@ -20696,7 +20724,7 @@
         <v>1024</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15014</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -20712,19 +20740,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -20745,10 +20773,10 @@
         <v>100</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>7</v>
@@ -20772,10 +20800,10 @@
         <v>7</v>
       </c>
       <c r="AA26" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="5">
         <v>0</v>
@@ -20799,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK26" s="4" t="s">
         <v>56</v>
@@ -20814,14 +20842,14 @@
         <v>1025</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15015</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -20830,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -20842,7 +20870,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -20860,16 +20888,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>7</v>
@@ -20893,10 +20921,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC27" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD27" s="5">
         <v>0</v>
@@ -20917,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK27" s="4" t="s">
         <v>54</v>
@@ -20932,7 +20960,7 @@
         <v>1026</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15016</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -20948,7 +20976,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -20960,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -20978,22 +21006,22 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>7</v>
@@ -21011,13 +21039,13 @@
         <v>0</v>
       </c>
       <c r="AB28" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC28" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD28" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE28" s="5">
         <v>0</v>
@@ -21035,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK28" s="4" t="s">
         <v>55</v>
@@ -21050,7 +21078,7 @@
         <v>1027</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15017</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -21066,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -21078,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -21096,10 +21124,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>7</v>
@@ -21126,7 +21154,7 @@
         <v>7</v>
       </c>
       <c r="AA29" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB29" s="5">
         <v>0</v>
@@ -21153,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="5">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK29" s="4" t="s">
         <v>56</v>
@@ -21168,14 +21196,14 @@
         <v>1028</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15018</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -21184,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -21196,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -21214,13 +21242,13 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>7</v>
@@ -21247,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC30" s="5">
         <v>0</v>
@@ -21271,7 +21299,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>54</v>
@@ -21286,7 +21314,7 @@
         <v>1029</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15019</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -21302,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -21314,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -21332,13 +21360,13 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>7</v>
@@ -21365,7 +21393,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC31" s="5">
         <v>0</v>
@@ -21389,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AK31" s="4" t="s">
         <v>55</v>
@@ -21404,7 +21432,7 @@
         <v>1030</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15020</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -21420,10 +21448,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -21432,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -21450,13 +21478,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>7</v>
@@ -21480,10 +21508,10 @@
         <v>7</v>
       </c>
       <c r="AA32" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC32" s="5">
         <v>0</v>
@@ -21507,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AK32" s="4" t="s">
         <v>56</v>
@@ -21522,14 +21550,14 @@
         <v>1031</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="2"/>
+        <f>INDEX(B:B,MATCH(15000,B:B,0),1)+(ROW()-MATCH(15000,B:B,0))</f>
         <v>15021</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -21538,71 +21566,71 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>108</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>90</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+    